--- a/Data_depth_collection.xlsx
+++ b/Data_depth_collection.xlsx
@@ -167,7 +167,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -363,11 +362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516357416"/>
-        <c:axId val="125102552"/>
+        <c:axId val="360266952"/>
+        <c:axId val="49267952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="516357416"/>
+        <c:axId val="360266952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +423,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125102552"/>
+        <c:crossAx val="49267952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125102552"/>
+        <c:axId val="49267952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +488,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516357416"/>
+        <c:crossAx val="360266952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -558,6 +557,336 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Column 1Delta Z Abstand X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$P$46,Tabelle1!$P$47,Tabelle1!$P$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-18.870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.080000000000041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17.220000000000027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$T$46,Tabelle1!$T$47,Tabelle1!$T$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Column 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$P$40,Tabelle1!$P$41,Tabelle1!$P$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-16.539999999999964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.970000000000027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18.769999999999982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$T$40,Tabelle1!$T$41,Tabelle1!$T$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Column 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$P$37,Tabelle1!$P$38,Tabelle1!$P$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-15.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.659999999999968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.710000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$T$37,Tabelle1!$T$38,Tabelle1!$T$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Cloumn 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$P$43,Tabelle1!$P$44,Tabelle1!$P$45)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-18.029999999999973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.975000000000023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.590000000000032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$T$43,Tabelle1!$T$44,Tabelle1!$T$45)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Cloumn 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$P$48,Tabelle1!$P$50,Tabelle1!$P$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-14.639999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.894999999999982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$T$48,Tabelle1!$T$50,Tabelle1!$T$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -566,11 +895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524038664"/>
-        <c:axId val="524040232"/>
+        <c:axId val="378668728"/>
+        <c:axId val="378669904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524038664"/>
+        <c:axId val="378668728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,6 +919,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -627,12 +970,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524040232"/>
+        <c:crossAx val="378669904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524040232"/>
+        <c:axId val="378669904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,6 +995,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -689,7 +1046,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524038664"/>
+        <c:crossAx val="378668728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -701,6 +1058,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1106,11 +1495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516362872"/>
-        <c:axId val="44093760"/>
+        <c:axId val="360567872"/>
+        <c:axId val="360572360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516362872"/>
+        <c:axId val="360567872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1534,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1212,12 +1600,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44093760"/>
+        <c:crossAx val="360572360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44093760"/>
+        <c:axId val="360572360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1640,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1319,7 +1706,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516362872"/>
+        <c:crossAx val="360567872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1333,7 +1720,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1768,11 +2154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385201608"/>
-        <c:axId val="385194552"/>
+        <c:axId val="361256008"/>
+        <c:axId val="361260496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385201608"/>
+        <c:axId val="361256008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +2193,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1874,12 +2259,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385194552"/>
+        <c:crossAx val="361260496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385194552"/>
+        <c:axId val="361260496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,7 +2299,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1981,7 +2365,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385201608"/>
+        <c:crossAx val="361256008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1995,7 +2379,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2340,11 +2723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586752240"/>
-        <c:axId val="519817888"/>
+        <c:axId val="361557584"/>
+        <c:axId val="360600056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586752240"/>
+        <c:axId val="361557584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +2748,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2432,12 +2814,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519817888"/>
+        <c:crossAx val="360600056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519817888"/>
+        <c:axId val="360600056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,7 +2840,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2525,7 +2906,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586752240"/>
+        <c:crossAx val="361557584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2539,7 +2920,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2862,11 +3242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196359992"/>
-        <c:axId val="519815144"/>
+        <c:axId val="358776224"/>
+        <c:axId val="358778968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196359992"/>
+        <c:axId val="358776224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +3303,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519815144"/>
+        <c:crossAx val="358778968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2931,7 +3311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519815144"/>
+        <c:axId val="358778968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2988,7 +3368,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196359992"/>
+        <c:crossAx val="358776224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3185,11 +3565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516364048"/>
-        <c:axId val="519190240"/>
+        <c:axId val="159653944"/>
+        <c:axId val="159656296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516364048"/>
+        <c:axId val="159653944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,12 +3626,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519190240"/>
+        <c:crossAx val="159656296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519190240"/>
+        <c:axId val="159656296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,7 +3688,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516364048"/>
+        <c:crossAx val="159653944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3558,11 +3938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519826512"/>
-        <c:axId val="519822984"/>
+        <c:axId val="358783280"/>
+        <c:axId val="358776616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="519826512"/>
+        <c:axId val="358783280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3619,7 +3999,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519822984"/>
+        <c:crossAx val="358776616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3627,7 +4007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519822984"/>
+        <c:axId val="358776616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,7 +4064,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519826512"/>
+        <c:crossAx val="358783280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3930,11 +4310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586754984"/>
-        <c:axId val="519819456"/>
+        <c:axId val="358777400"/>
+        <c:axId val="358777792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586754984"/>
+        <c:axId val="358777400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,12 +4371,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519819456"/>
+        <c:crossAx val="358777792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519819456"/>
+        <c:axId val="358777792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4053,7 +4433,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586754984"/>
+        <c:crossAx val="358777400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4299,11 +4679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="580646744"/>
-        <c:axId val="196361560"/>
+        <c:axId val="378674216"/>
+        <c:axId val="378673040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="580646744"/>
+        <c:axId val="378674216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4374,12 +4754,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196361560"/>
+        <c:crossAx val="378673040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196361560"/>
+        <c:axId val="378673040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,7 +4830,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580646744"/>
+        <c:crossAx val="378674216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10345,15 +10725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
+      <xdr:colOff>576941</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12636,31 +13016,31 @@
         <v>704.29</v>
       </c>
       <c r="O23">
-        <f>SUM(K23,-C23)</f>
+        <f t="shared" ref="O23:O37" si="13">SUM(K23,-C23)</f>
         <v>-2.6199999999999992</v>
       </c>
       <c r="P23">
-        <f>L23-D23</f>
+        <f t="shared" ref="P23:P37" si="14">L23-D23</f>
         <v>-2.0600000000000023</v>
       </c>
       <c r="Q23">
-        <f>M23-E23</f>
+        <f t="shared" ref="Q23:Q37" si="15">M23-E23</f>
         <v>-17.710000000000036</v>
       </c>
       <c r="S23">
-        <f>K23-G23</f>
+        <f t="shared" ref="S23:S37" si="16">K23-G23</f>
         <v>-1.1300000000000008</v>
       </c>
       <c r="T23">
-        <f>L23-H23</f>
+        <f t="shared" ref="T23:T37" si="17">L23-H23</f>
         <v>-4.5900000000000034</v>
       </c>
       <c r="U23">
-        <f>M23-I23</f>
+        <f t="shared" ref="U23:U37" si="18">M23-I23</f>
         <v>-17.710000000000036</v>
       </c>
       <c r="W23">
-        <f xml:space="preserve"> (K23^2+L23^2+M23^2)^0.5</f>
+        <f t="shared" ref="W23:W37" si="19" xml:space="preserve"> (K23^2+L23^2+M23^2)^0.5</f>
         <v>710.11999626823626</v>
       </c>
       <c r="X23">
@@ -12699,31 +13079,31 @@
         <v>705.23</v>
       </c>
       <c r="O24">
-        <f>SUM(K24,-C24)</f>
+        <f t="shared" si="13"/>
         <v>0.23999999999999488</v>
       </c>
       <c r="P24">
-        <f>L24-D24</f>
+        <f t="shared" si="14"/>
         <v>-3.4300000000000068</v>
       </c>
       <c r="Q24">
-        <f>M24-E24</f>
+        <f t="shared" si="15"/>
         <v>-17.769999999999982</v>
       </c>
       <c r="S24">
-        <f>K24-G24</f>
+        <f t="shared" si="16"/>
         <v>3.1899999999999977</v>
       </c>
       <c r="T24">
-        <f>L24-H24</f>
+        <f t="shared" si="17"/>
         <v>-5.8400000000000034</v>
       </c>
       <c r="U24">
-        <f>M24-I24</f>
+        <f t="shared" si="18"/>
         <v>-17.769999999999982</v>
       </c>
       <c r="W24">
-        <f xml:space="preserve"> (K24^2+L24^2+M24^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>715.29839549659278</v>
       </c>
       <c r="X24">
@@ -12762,31 +13142,31 @@
         <v>702.41</v>
       </c>
       <c r="O25">
-        <f>SUM(K25,-C25)</f>
+        <f t="shared" si="13"/>
         <v>-4.3299999999999983</v>
       </c>
       <c r="P25">
-        <f>L25-D25</f>
+        <f t="shared" si="14"/>
         <v>-2.2950000000000017</v>
       </c>
       <c r="Q25">
-        <f>M25-E25</f>
+        <f t="shared" si="15"/>
         <v>-15.590000000000032</v>
       </c>
       <c r="S25">
-        <f>K25-G25</f>
+        <f t="shared" si="16"/>
         <v>-3.5699999999999932</v>
       </c>
       <c r="T25">
-        <f>L25-H25</f>
+        <f t="shared" si="17"/>
         <v>-3.9950000000000045</v>
       </c>
       <c r="U25">
-        <f>M25-I25</f>
+        <f t="shared" si="18"/>
         <v>-15.590000000000032</v>
       </c>
       <c r="W25">
-        <f xml:space="preserve"> (K25^2+L25^2+M25^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>717.78664171534979</v>
       </c>
       <c r="X25">
@@ -12825,31 +13205,31 @@
         <v>704.78</v>
       </c>
       <c r="O26">
-        <f>SUM(K26,-C26)</f>
+        <f t="shared" si="13"/>
         <v>3.7399999999999807</v>
       </c>
       <c r="P26">
-        <f>L26-D26</f>
+        <f t="shared" si="14"/>
         <v>-4.5099999999999909</v>
       </c>
       <c r="Q26">
-        <f>M26-E26</f>
+        <f t="shared" si="15"/>
         <v>-17.220000000000027</v>
       </c>
       <c r="S26">
-        <f>K26-G26</f>
+        <f t="shared" si="16"/>
         <v>6.0099999999999909</v>
       </c>
       <c r="T26">
-        <f>L26-H26</f>
+        <f t="shared" si="17"/>
         <v>-5.6899999999999977</v>
       </c>
       <c r="U26">
-        <f>M26-I26</f>
+        <f t="shared" si="18"/>
         <v>-17.220000000000027</v>
       </c>
       <c r="W26">
-        <f xml:space="preserve"> (K26^2+L26^2+M26^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>734.35917955725176</v>
       </c>
       <c r="X26">
@@ -12888,31 +13268,31 @@
         <v>701.10500000000002</v>
       </c>
       <c r="O27">
-        <f>SUM(K27,-C27)</f>
+        <f t="shared" si="13"/>
         <v>-8.5300000000000011</v>
       </c>
       <c r="P27">
-        <f>L27-D27</f>
+        <f t="shared" si="14"/>
         <v>-1.4299999999999926</v>
       </c>
       <c r="Q27">
-        <f>M27-E27</f>
+        <f t="shared" si="15"/>
         <v>-13.894999999999982</v>
       </c>
       <c r="S27">
-        <f>K27-G27</f>
+        <f t="shared" si="16"/>
         <v>-7.1699999999999875</v>
       </c>
       <c r="T27">
-        <f>L27-H27</f>
+        <f t="shared" si="17"/>
         <v>-2.3599999999999994</v>
       </c>
       <c r="U27">
-        <f>M27-I27</f>
+        <f t="shared" si="18"/>
         <v>-13.894999999999982</v>
       </c>
       <c r="W27">
-        <f xml:space="preserve"> (K27^2+L27^2+M27^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>739.10913911613898</v>
       </c>
       <c r="X27">
@@ -12951,31 +13331,31 @@
         <v>761.34</v>
       </c>
       <c r="O28">
-        <f>SUM(K28,-C28)</f>
+        <f t="shared" si="13"/>
         <v>-1.8399999999999999</v>
       </c>
       <c r="P28">
-        <f>L28-D28</f>
+        <f t="shared" si="14"/>
         <v>0.41999999999999993</v>
       </c>
       <c r="Q28">
-        <f>M28-E28</f>
+        <f t="shared" si="15"/>
         <v>-17.659999999999968</v>
       </c>
       <c r="S28">
-        <f>K28-G28</f>
+        <f t="shared" si="16"/>
         <v>0.10999999999999943</v>
       </c>
       <c r="T28">
-        <f>L28-H28</f>
+        <f t="shared" si="17"/>
         <v>-1.1500000000000004</v>
       </c>
       <c r="U28">
-        <f>M28-I28</f>
+        <f t="shared" si="18"/>
         <v>-17.659999999999968</v>
       </c>
       <c r="W28">
-        <f xml:space="preserve"> (K28^2+L28^2+M28^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>761.59581813452724</v>
       </c>
       <c r="X28">
@@ -13014,31 +13394,31 @@
         <v>763.03</v>
       </c>
       <c r="O29">
-        <f>SUM(K29,-C29)</f>
+        <f t="shared" si="13"/>
         <v>-0.65000000000000568</v>
       </c>
       <c r="P29">
-        <f>L29-D29</f>
+        <f t="shared" si="14"/>
         <v>-1.7599999999999998</v>
       </c>
       <c r="Q29">
-        <f>M29-E29</f>
+        <f t="shared" si="15"/>
         <v>-15.970000000000027</v>
       </c>
       <c r="S29">
-        <f>K29-G29</f>
+        <f t="shared" si="16"/>
         <v>1.5999999999999943</v>
       </c>
       <c r="T29">
-        <f>L29-H29</f>
+        <f t="shared" si="17"/>
         <v>-3.33</v>
       </c>
       <c r="U29">
-        <f>M29-I29</f>
+        <f t="shared" si="18"/>
         <v>-15.970000000000027</v>
       </c>
       <c r="W29">
-        <f xml:space="preserve"> (K29^2+L29^2+M29^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>767.27510698575384</v>
       </c>
       <c r="X29">
@@ -13077,31 +13457,31 @@
         <v>760.02499999999998</v>
       </c>
       <c r="O30">
-        <f>SUM(K30,-C30)</f>
+        <f t="shared" si="13"/>
         <v>-3.1000000000000085</v>
       </c>
       <c r="P30">
-        <f>L30-D30</f>
+        <f t="shared" si="14"/>
         <v>1.5499999999999998</v>
       </c>
       <c r="Q30">
-        <f>M30-E30</f>
+        <f t="shared" si="15"/>
         <v>-14.975000000000023</v>
       </c>
       <c r="S30">
-        <f>K30-G30</f>
+        <f t="shared" si="16"/>
         <v>-2.4500000000000028</v>
       </c>
       <c r="T30">
-        <f>L30-H30</f>
+        <f t="shared" si="17"/>
         <v>-6.0000000000000497E-2</v>
       </c>
       <c r="U30">
-        <f>M30-I30</f>
+        <f t="shared" si="18"/>
         <v>-14.975000000000023</v>
       </c>
       <c r="W30">
-        <f xml:space="preserve"> (K30^2+L30^2+M30^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>769.2672011239008</v>
       </c>
       <c r="X30">
@@ -13140,31 +13520,31 @@
         <v>763.92</v>
       </c>
       <c r="O31">
-        <f>SUM(K31,-C31)</f>
+        <f t="shared" si="13"/>
         <v>2.4699999999999989</v>
       </c>
       <c r="P31">
-        <f>L31-D31</f>
+        <f t="shared" si="14"/>
         <v>-1.3500000000000005</v>
       </c>
       <c r="Q31">
-        <f>M31-E31</f>
+        <f t="shared" si="15"/>
         <v>-14.080000000000041</v>
       </c>
       <c r="S31">
-        <f>K31-G31</f>
+        <f t="shared" si="16"/>
         <v>5.9300000000000068</v>
       </c>
       <c r="T31">
-        <f>L31-H31</f>
+        <f t="shared" si="17"/>
         <v>-3.1900000000000004</v>
       </c>
       <c r="U31">
-        <f>M31-I31</f>
+        <f t="shared" si="18"/>
         <v>-14.080000000000041</v>
       </c>
       <c r="W31">
-        <f xml:space="preserve"> (K31^2+L31^2+M31^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>785.5644641911955</v>
       </c>
       <c r="X31">
@@ -13203,31 +13583,31 @@
         <v>758.75</v>
       </c>
       <c r="O32">
-        <f>SUM(K32,-C32)</f>
+        <f t="shared" si="13"/>
         <v>-7.5099999999999909</v>
       </c>
       <c r="P32">
-        <f>L32-D32</f>
+        <f t="shared" si="14"/>
         <v>1.3499999999999996</v>
       </c>
       <c r="Q32">
-        <f>M32-E32</f>
+        <f t="shared" si="15"/>
         <v>-18.25</v>
       </c>
       <c r="S32">
-        <f>K32-G32</f>
+        <f t="shared" si="16"/>
         <v>-6.4099999999999966</v>
       </c>
       <c r="T32">
-        <f>L32-H32</f>
+        <f t="shared" si="17"/>
         <v>2.9999999999999361E-2</v>
       </c>
       <c r="U32">
-        <f>M32-I32</f>
+        <f t="shared" si="18"/>
         <v>-18.25</v>
       </c>
       <c r="W32">
-        <f xml:space="preserve"> (K32^2+L32^2+M32^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>789.39696699442663</v>
       </c>
       <c r="X32">
@@ -13266,31 +13646,31 @@
         <v>818.6</v>
       </c>
       <c r="O33">
-        <f>SUM(K33,-C33)</f>
+        <f t="shared" si="13"/>
         <v>-1.3399999999999999</v>
       </c>
       <c r="P33">
-        <f>L33-D33</f>
+        <f t="shared" si="14"/>
         <v>2.4399999999999977</v>
       </c>
       <c r="Q33">
-        <f>M33-E33</f>
+        <f t="shared" si="15"/>
         <v>-16.399999999999977</v>
       </c>
       <c r="S33">
-        <f>K33-G33</f>
+        <f t="shared" si="16"/>
         <v>0.69000000000000128</v>
       </c>
       <c r="T33">
-        <f>L33-H33</f>
+        <f t="shared" si="17"/>
         <v>1.1899999999999977</v>
       </c>
       <c r="U33">
-        <f>M33-I33</f>
+        <f t="shared" si="18"/>
         <v>-16.399999999999977</v>
       </c>
       <c r="W33">
-        <f xml:space="preserve"> (K33^2+L33^2+M33^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>822.13331777759743</v>
       </c>
       <c r="X33">
@@ -13329,31 +13709,31 @@
         <v>819.46</v>
       </c>
       <c r="O34">
-        <f>SUM(K34,-C34)</f>
+        <f t="shared" si="13"/>
         <v>0.39999999999999147</v>
       </c>
       <c r="P34">
-        <f>L34-D34</f>
+        <f t="shared" si="14"/>
         <v>1.1899999999999977</v>
       </c>
       <c r="Q34">
-        <f>M34-E34</f>
+        <f t="shared" si="15"/>
         <v>-15.539999999999964</v>
       </c>
       <c r="S34">
-        <f>K34-G34</f>
+        <f t="shared" si="16"/>
         <v>3.3299999999999983</v>
       </c>
       <c r="T34">
-        <f>L34-H34</f>
+        <f t="shared" si="17"/>
         <v>-6.0000000000002274E-2</v>
       </c>
       <c r="U34">
-        <f>M34-I34</f>
+        <f t="shared" si="18"/>
         <v>-15.539999999999964</v>
       </c>
       <c r="W34">
-        <f xml:space="preserve"> (K34^2+L34^2+M34^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>826.7381714303508</v>
       </c>
       <c r="X34">
@@ -13392,31 +13772,31 @@
         <v>816.97</v>
       </c>
       <c r="O35">
-        <f>SUM(K35,-C35)</f>
+        <f t="shared" si="13"/>
         <v>-4.6099999999999994</v>
       </c>
       <c r="P35">
-        <f>L35-D35</f>
+        <f t="shared" si="14"/>
         <v>4.269999999999996</v>
       </c>
       <c r="Q35">
-        <f>M35-E35</f>
+        <f t="shared" si="15"/>
         <v>-21.029999999999973</v>
       </c>
       <c r="S35">
-        <f>K35-G35</f>
+        <f t="shared" si="16"/>
         <v>-3.9599999999999937</v>
       </c>
       <c r="T35">
-        <f>L35-H35</f>
+        <f t="shared" si="17"/>
         <v>2.7399999999999949</v>
       </c>
       <c r="U35">
-        <f>M35-I35</f>
+        <f t="shared" si="18"/>
         <v>-21.029999999999973</v>
       </c>
       <c r="W35">
-        <f xml:space="preserve"> (K35^2+L35^2+M35^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>828.89751483521775</v>
       </c>
       <c r="X35">
@@ -13455,31 +13835,31 @@
         <v>821.13</v>
       </c>
       <c r="O36">
-        <f>SUM(K36,-C36)</f>
+        <f t="shared" si="13"/>
         <v>3.7800000000000011</v>
       </c>
       <c r="P36">
-        <f>L36-D36</f>
+        <f t="shared" si="14"/>
         <v>0.60999999999999943</v>
       </c>
       <c r="Q36">
-        <f>M36-E36</f>
+        <f t="shared" si="15"/>
         <v>-16.870000000000005</v>
       </c>
       <c r="S36">
-        <f>K36-G36</f>
+        <f t="shared" si="16"/>
         <v>6.8700000000000045</v>
       </c>
       <c r="T36">
-        <f>L36-H36</f>
+        <f t="shared" si="17"/>
         <v>-1.2800000000000011</v>
       </c>
       <c r="U36">
-        <f>M36-I36</f>
+        <f t="shared" si="18"/>
         <v>-16.870000000000005</v>
       </c>
       <c r="W36">
-        <f xml:space="preserve"> (K36^2+L36^2+M36^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>844.41385126015075</v>
       </c>
       <c r="X36">
@@ -13518,31 +13898,31 @@
         <v>815.36</v>
       </c>
       <c r="O37">
-        <f>SUM(K37,-C37)</f>
+        <f t="shared" si="13"/>
         <v>-7.1299999999999955</v>
       </c>
       <c r="P37">
-        <f>L37-D37</f>
+        <f t="shared" si="14"/>
         <v>5.0799999999999983</v>
       </c>
       <c r="Q37">
-        <f>M37-E37</f>
+        <f t="shared" si="15"/>
         <v>-14.639999999999986</v>
       </c>
       <c r="S37">
-        <f>K37-G37</f>
+        <f t="shared" si="16"/>
         <v>-6.1200000000000045</v>
       </c>
       <c r="T37">
-        <f>L37-H37</f>
+        <f t="shared" si="17"/>
         <v>2.6299999999999955</v>
       </c>
       <c r="U37">
-        <f>M37-I37</f>
+        <f t="shared" si="18"/>
         <v>-14.639999999999986</v>
       </c>
       <c r="W37">
-        <f xml:space="preserve"> (K37^2+L37^2+M37^2)^0.5</f>
+        <f t="shared" si="19"/>
         <v>847.41435018531524</v>
       </c>
       <c r="X37">
@@ -13659,19 +14039,19 @@
         <v>821.13</v>
       </c>
       <c r="N2">
-        <f xml:space="preserve"> (J2^2+K2^2+L2^2)^0.5</f>
+        <f t="shared" ref="N2:N16" si="0" xml:space="preserve"> (J2^2+K2^2+L2^2)^0.5</f>
         <v>844.41385126015075</v>
       </c>
       <c r="P2">
-        <f>J2-F2</f>
+        <f t="shared" ref="P2:P16" si="1">J2-F2</f>
         <v>4.2199999999999989</v>
       </c>
       <c r="Q2">
-        <f>K2-G2</f>
+        <f t="shared" ref="Q2:Q16" si="2">K2-G2</f>
         <v>0.71999999999999886</v>
       </c>
       <c r="R2">
-        <f>L2-H2</f>
+        <f t="shared" ref="R2:R16" si="3">L2-H2</f>
         <v>-18.870000000000005</v>
       </c>
       <c r="T2">
@@ -13679,7 +14059,7 @@
         <v>196.9270811747333</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V16" si="0">H2 + 0.2088*R2 -17.777</f>
+        <f t="shared" ref="V2:V16" si="4">H2 + 0.2088*R2 -17.777</f>
         <v>818.28294399999993</v>
       </c>
       <c r="X2">
@@ -13720,35 +14100,35 @@
         <v>819.46</v>
       </c>
       <c r="N3">
-        <f xml:space="preserve"> (J3^2+K3^2+L3^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>826.7381714303508</v>
       </c>
       <c r="P3">
-        <f>J3-F3</f>
+        <f t="shared" si="1"/>
         <v>1.8599999999999994</v>
       </c>
       <c r="Q3">
-        <f>K3-G3</f>
+        <f t="shared" si="2"/>
         <v>1.2800000000000011</v>
       </c>
       <c r="R3">
-        <f>L3-H3</f>
+        <f t="shared" si="3"/>
         <v>-16.539999999999964</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T16" si="1" xml:space="preserve"> (J3^2+K3^2)^0.5</f>
+        <f t="shared" ref="T3:T16" si="5" xml:space="preserve"> (J3^2+K3^2)^0.5</f>
         <v>109.45918188987163</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>814.76944800000001</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X16" si="2">L3-V3</f>
+        <f t="shared" ref="X3:X16" si="6">L3-V3</f>
         <v>4.6905520000000251</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z16" si="3">((C3-640)^2+(D3-360)^2)^0.5</f>
+        <f t="shared" ref="Z3:Z16" si="7">((C3-640)^2+(D3-360)^2)^0.5</f>
         <v>79.404030124421269</v>
       </c>
     </row>
@@ -13781,35 +14161,35 @@
         <v>818.6</v>
       </c>
       <c r="N4">
-        <f xml:space="preserve"> (J4^2+K4^2+L4^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>822.13331777759743</v>
       </c>
       <c r="P4">
-        <f>J4-F4</f>
+        <f t="shared" si="1"/>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="Q4">
-        <f>K4-G4</f>
+        <f t="shared" si="2"/>
         <v>2.3499999999999943</v>
       </c>
       <c r="R4">
-        <f>L4-H4</f>
+        <f t="shared" si="3"/>
         <v>-15.399999999999977</v>
       </c>
       <c r="T4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>76.139557392987257</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>813.00747999999999</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.5925200000000359</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>48.052055106935853</v>
       </c>
     </row>
@@ -13842,35 +14222,35 @@
         <v>816.97</v>
       </c>
       <c r="N5">
-        <f xml:space="preserve"> (J5^2+K5^2+L5^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>828.89751483521775</v>
       </c>
       <c r="P5">
-        <f>J5-F5</f>
+        <f t="shared" si="1"/>
         <v>-2.8099999999999881</v>
       </c>
       <c r="Q5">
-        <f>K5-G5</f>
+        <f t="shared" si="2"/>
         <v>3.9899999999999949</v>
       </c>
       <c r="R5">
-        <f>L5-H5</f>
+        <f t="shared" si="3"/>
         <v>-18.029999999999973</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>140.11106023437264</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>813.45833599999992</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.5116640000001098</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>98.883770154661889</v>
       </c>
     </row>
@@ -13903,35 +14283,35 @@
         <v>815.36</v>
       </c>
       <c r="N6">
-        <f xml:space="preserve"> (J6^2+K6^2+L6^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>847.41435018531524</v>
       </c>
       <c r="P6">
-        <f>J6-F6</f>
+        <f t="shared" si="1"/>
         <v>-5.789999999999992</v>
       </c>
       <c r="Q6">
-        <f>K6-G6</f>
+        <f t="shared" si="2"/>
         <v>5.4299999999999926</v>
       </c>
       <c r="R6">
-        <f>L6-H6</f>
+        <f t="shared" si="3"/>
         <v>-14.639999999999986</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>230.86608954110173</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>809.16616799999997</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.1938320000000431</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>170.60187572239644</v>
       </c>
     </row>
@@ -13964,35 +14344,35 @@
         <v>763.92</v>
       </c>
       <c r="N7">
-        <f xml:space="preserve"> (J7^2+K7^2+L7^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>785.5644641911955</v>
       </c>
       <c r="P7">
-        <f>J7-F7</f>
+        <f t="shared" si="1"/>
         <v>2.2300000000000182</v>
       </c>
       <c r="Q7">
-        <f>K7-G7</f>
+        <f t="shared" si="2"/>
         <v>-1.3400000000000007</v>
       </c>
       <c r="R7">
-        <f>L7-H7</f>
+        <f t="shared" si="3"/>
         <v>-13.080000000000041</v>
       </c>
       <c r="T7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>183.13317831567278</v>
       </c>
       <c r="V7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>756.491896</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.4281039999999621</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>151.64761785138597</v>
       </c>
     </row>
@@ -14025,35 +14405,35 @@
         <v>763.03</v>
       </c>
       <c r="N8">
-        <f xml:space="preserve"> (J8^2+K8^2+L8^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>767.27510698575384</v>
       </c>
       <c r="P8">
-        <f>J8-F8</f>
+        <f t="shared" si="1"/>
         <v>0.92999999999999261</v>
       </c>
       <c r="Q8">
-        <f>K8-G8</f>
+        <f t="shared" si="2"/>
         <v>-0.52000000000000046</v>
       </c>
       <c r="R8">
-        <f>L8-H8</f>
+        <f t="shared" si="3"/>
         <v>-18.970000000000027</v>
       </c>
       <c r="T8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>80.599683001858025</v>
       </c>
       <c r="V8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>760.2620639999999</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.767936000000077</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>69.426219830839131</v>
       </c>
     </row>
@@ -14086,35 +14466,35 @@
         <v>761.34</v>
       </c>
       <c r="N9">
-        <f xml:space="preserve"> (J9^2+K9^2+L9^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>761.59581813452724</v>
       </c>
       <c r="P9">
-        <f>J9-F9</f>
+        <f t="shared" si="1"/>
         <v>-0.62999999999999901</v>
       </c>
       <c r="Q9">
-        <f>K9-G9</f>
+        <f t="shared" si="2"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="R9">
-        <f>L9-H9</f>
+        <f t="shared" si="3"/>
         <v>-19.659999999999968</v>
       </c>
       <c r="T9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19.738150875905269</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>759.11799199999996</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.2220080000000735</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.601075237738275</v>
       </c>
     </row>
@@ -14147,35 +14527,35 @@
         <v>760.02499999999998</v>
       </c>
       <c r="N10">
-        <f xml:space="preserve"> (J10^2+K10^2+L10^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>769.2672011239008</v>
       </c>
       <c r="P10">
-        <f>J10-F10</f>
+        <f t="shared" si="1"/>
         <v>-3.0100000000000051</v>
       </c>
       <c r="Q10">
-        <f>K10-G10</f>
+        <f t="shared" si="2"/>
         <v>1.5499999999999998</v>
       </c>
       <c r="R10">
-        <f>L10-H10</f>
+        <f t="shared" si="3"/>
         <v>-14.975000000000023</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>118.88661026372986</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>754.0962199999999</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.9287800000000743</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>94.201910808645493</v>
       </c>
     </row>
@@ -14208,35 +14588,35 @@
         <v>758.75</v>
       </c>
       <c r="N11">
-        <f xml:space="preserve"> (J11^2+K11^2+L11^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>789.39696699442663</v>
       </c>
       <c r="P11">
-        <f>J11-F11</f>
+        <f t="shared" si="1"/>
         <v>-7.0300000000000011</v>
       </c>
       <c r="Q11">
-        <f>K11-G11</f>
+        <f t="shared" si="2"/>
         <v>1.42</v>
       </c>
       <c r="R11">
-        <f>L11-H11</f>
+        <f t="shared" si="3"/>
         <v>-12.25</v>
       </c>
       <c r="T11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>217.82104811059926</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>750.66519999999991</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.0848000000000866</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>176.72577627499618</v>
       </c>
     </row>
@@ -14269,35 +14649,35 @@
         <v>704.78</v>
       </c>
       <c r="N12">
-        <f xml:space="preserve"> (J12^2+K12^2+L12^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>734.35917955725176</v>
       </c>
       <c r="P12">
-        <f>J12-F12</f>
+        <f t="shared" si="1"/>
         <v>1.3999999999999773</v>
       </c>
       <c r="Q12">
-        <f>K12-G12</f>
+        <f t="shared" si="2"/>
         <v>-0.98000000000000398</v>
       </c>
       <c r="R12">
-        <f>L12-H12</f>
+        <f t="shared" si="3"/>
         <v>-17.220000000000027</v>
       </c>
       <c r="T12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>206.32148748979105</v>
       </c>
       <c r="V12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>700.62746399999992</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.1525360000000546</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>185.18099254513137</v>
       </c>
     </row>
@@ -14330,35 +14710,35 @@
         <v>705.23</v>
       </c>
       <c r="N13">
-        <f xml:space="preserve"> (J13^2+K13^2+L13^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>715.29839549659278</v>
       </c>
       <c r="P13">
-        <f>J13-F13</f>
+        <f t="shared" si="1"/>
         <v>2.6899999999999977</v>
       </c>
       <c r="Q13">
-        <f>K13-G13</f>
+        <f t="shared" si="2"/>
         <v>-3.5600000000000023</v>
       </c>
       <c r="R13">
-        <f>L13-H13</f>
+        <f t="shared" si="3"/>
         <v>-18.769999999999982</v>
       </c>
       <c r="T13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>119.592816255827</v>
       </c>
       <c r="V13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>702.30382399999996</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.926176000000055</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>114.86513831445988</v>
       </c>
     </row>
@@ -14391,35 +14771,35 @@
         <v>704.29</v>
       </c>
       <c r="N14">
-        <f xml:space="preserve"> (J14^2+K14^2+L14^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>710.11999626823626</v>
       </c>
       <c r="P14">
-        <f>J14-F14</f>
+        <f t="shared" si="1"/>
         <v>-1.3499999999999996</v>
       </c>
       <c r="Q14">
-        <f>K14-G14</f>
+        <f t="shared" si="2"/>
         <v>-2.7199999999999989</v>
       </c>
       <c r="R14">
-        <f>L14-H14</f>
+        <f t="shared" si="3"/>
         <v>-13.710000000000036</v>
       </c>
       <c r="T14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>90.807516208736814</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>697.36035199999992</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.9296480000000429</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>88.68483523128404</v>
       </c>
     </row>
@@ -14452,35 +14832,35 @@
         <v>702.41</v>
       </c>
       <c r="N15">
-        <f xml:space="preserve"> (J15^2+K15^2+L15^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>717.78664171534979</v>
       </c>
       <c r="P15">
-        <f>J15-F15</f>
+        <f t="shared" si="1"/>
         <v>-1.8399999999999892</v>
       </c>
       <c r="Q15">
-        <f>K15-G15</f>
+        <f t="shared" si="2"/>
         <v>0.17499999999999716</v>
       </c>
       <c r="R15">
-        <f>L15-H15</f>
+        <f t="shared" si="3"/>
         <v>-14.590000000000032</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>147.77636795171276</v>
       </c>
       <c r="V15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>696.17660799999999</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.2333919999999807</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>131.04579352272242</v>
       </c>
     </row>
@@ -14513,35 +14893,35 @@
         <v>701.10500000000002</v>
       </c>
       <c r="N16">
-        <f xml:space="preserve"> (J16^2+K16^2+L16^2)^0.5</f>
+        <f t="shared" si="0"/>
         <v>739.10913911613898</v>
       </c>
       <c r="P16">
-        <f>J16-F16</f>
+        <f t="shared" si="1"/>
         <v>-7.6799999999999784</v>
       </c>
       <c r="Q16">
-        <f>K16-G16</f>
+        <f t="shared" si="2"/>
         <v>-0.40000000000000568</v>
       </c>
       <c r="R16">
-        <f>L16-H16</f>
+        <f t="shared" si="3"/>
         <v>-14.894999999999982</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>233.95319724252542</v>
       </c>
       <c r="V16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>695.11292399999991</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.992076000000111</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>208.00240383226344</v>
       </c>
     </row>
@@ -14568,23 +14948,23 @@
         <v>761.34</v>
       </c>
       <c r="K20">
-        <f xml:space="preserve"> (G20^2+H20^2+I20^2)^0.5</f>
+        <f t="shared" ref="K20:K34" si="8" xml:space="preserve"> (G20^2+H20^2+I20^2)^0.5</f>
         <v>761.59581813452724</v>
       </c>
       <c r="M20">
-        <f>G20-C20</f>
+        <f t="shared" ref="M20:M34" si="9">G20-C20</f>
         <v>-0.62999999999999901</v>
       </c>
       <c r="N20">
-        <f>H20-D20</f>
+        <f t="shared" ref="N20:N34" si="10">H20-D20</f>
         <v>0.39999999999999947</v>
       </c>
       <c r="O20">
-        <f>I20-E20</f>
+        <f t="shared" ref="O20:O34" si="11">I20-E20</f>
         <v>-19.659999999999968</v>
       </c>
       <c r="Q20">
-        <f xml:space="preserve"> (G20^2+H20^2)^0.5</f>
+        <f t="shared" ref="Q20:Q34" si="12" xml:space="preserve"> (G20^2+H20^2)^0.5</f>
         <v>19.738150875905269</v>
       </c>
     </row>
@@ -14611,23 +14991,23 @@
         <v>818.6</v>
       </c>
       <c r="K21">
-        <f xml:space="preserve"> (G21^2+H21^2+I21^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>822.13331777759743</v>
       </c>
       <c r="M21">
-        <f>G21-C21</f>
+        <f t="shared" si="9"/>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="N21">
-        <f>H21-D21</f>
+        <f t="shared" si="10"/>
         <v>2.3499999999999943</v>
       </c>
       <c r="O21">
-        <f>I21-E21</f>
+        <f t="shared" si="11"/>
         <v>-15.399999999999977</v>
       </c>
       <c r="Q21">
-        <f xml:space="preserve"> (G21^2+H21^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>76.139557392987257</v>
       </c>
     </row>
@@ -14654,23 +15034,23 @@
         <v>763.03</v>
       </c>
       <c r="K22">
-        <f xml:space="preserve"> (G22^2+H22^2+I22^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>767.27510698575384</v>
       </c>
       <c r="M22">
-        <f>G22-C22</f>
+        <f t="shared" si="9"/>
         <v>0.92999999999999261</v>
       </c>
       <c r="N22">
-        <f>H22-D22</f>
+        <f t="shared" si="10"/>
         <v>-0.52000000000000046</v>
       </c>
       <c r="O22">
-        <f>I22-E22</f>
+        <f t="shared" si="11"/>
         <v>-18.970000000000027</v>
       </c>
       <c r="Q22">
-        <f xml:space="preserve"> (G22^2+H22^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>80.599683001858025</v>
       </c>
     </row>
@@ -14697,23 +15077,23 @@
         <v>704.29</v>
       </c>
       <c r="K23">
-        <f xml:space="preserve"> (G23^2+H23^2+I23^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>710.11999626823626</v>
       </c>
       <c r="M23">
-        <f>G23-C23</f>
+        <f t="shared" si="9"/>
         <v>-1.3499999999999996</v>
       </c>
       <c r="N23">
-        <f>H23-D23</f>
+        <f t="shared" si="10"/>
         <v>-2.7199999999999989</v>
       </c>
       <c r="O23">
-        <f>I23-E23</f>
+        <f t="shared" si="11"/>
         <v>-13.710000000000036</v>
       </c>
       <c r="Q23">
-        <f xml:space="preserve"> (G23^2+H23^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>90.807516208736814</v>
       </c>
     </row>
@@ -14740,23 +15120,23 @@
         <v>819.46</v>
       </c>
       <c r="K24">
-        <f xml:space="preserve"> (G24^2+H24^2+I24^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>826.7381714303508</v>
       </c>
       <c r="M24">
-        <f>G24-C24</f>
+        <f t="shared" si="9"/>
         <v>1.8599999999999994</v>
       </c>
       <c r="N24">
-        <f>H24-D24</f>
+        <f t="shared" si="10"/>
         <v>1.2800000000000011</v>
       </c>
       <c r="O24">
-        <f>I24-E24</f>
+        <f t="shared" si="11"/>
         <v>-16.539999999999964</v>
       </c>
       <c r="Q24">
-        <f xml:space="preserve"> (G24^2+H24^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>109.45918188987163</v>
       </c>
     </row>
@@ -14783,23 +15163,23 @@
         <v>760.02499999999998</v>
       </c>
       <c r="K25">
-        <f xml:space="preserve"> (G25^2+H25^2+I25^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>769.2672011239008</v>
       </c>
       <c r="M25">
-        <f>G25-C25</f>
+        <f t="shared" si="9"/>
         <v>-3.0100000000000051</v>
       </c>
       <c r="N25">
-        <f>H25-D25</f>
+        <f t="shared" si="10"/>
         <v>1.5499999999999998</v>
       </c>
       <c r="O25">
-        <f>I25-E25</f>
+        <f t="shared" si="11"/>
         <v>-14.975000000000023</v>
       </c>
       <c r="Q25">
-        <f xml:space="preserve"> (G25^2+H25^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>118.88661026372986</v>
       </c>
     </row>
@@ -14826,23 +15206,23 @@
         <v>705.23</v>
       </c>
       <c r="K26">
-        <f xml:space="preserve"> (G26^2+H26^2+I26^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>715.29839549659278</v>
       </c>
       <c r="M26">
-        <f>G26-C26</f>
+        <f t="shared" si="9"/>
         <v>2.6899999999999977</v>
       </c>
       <c r="N26">
-        <f>H26-D26</f>
+        <f t="shared" si="10"/>
         <v>-3.5600000000000023</v>
       </c>
       <c r="O26">
-        <f>I26-E26</f>
+        <f t="shared" si="11"/>
         <v>-18.769999999999982</v>
       </c>
       <c r="Q26">
-        <f xml:space="preserve"> (G26^2+H26^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>119.592816255827</v>
       </c>
     </row>
@@ -14869,23 +15249,23 @@
         <v>816.97</v>
       </c>
       <c r="K27">
-        <f xml:space="preserve"> (G27^2+H27^2+I27^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>828.89751483521775</v>
       </c>
       <c r="M27">
-        <f>G27-C27</f>
+        <f t="shared" si="9"/>
         <v>-2.8099999999999881</v>
       </c>
       <c r="N27">
-        <f>H27-D27</f>
+        <f t="shared" si="10"/>
         <v>3.9899999999999949</v>
       </c>
       <c r="O27">
-        <f>I27-E27</f>
+        <f t="shared" si="11"/>
         <v>-18.029999999999973</v>
       </c>
       <c r="Q27">
-        <f xml:space="preserve"> (G27^2+H27^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>140.11106023437264</v>
       </c>
     </row>
@@ -14912,23 +15292,23 @@
         <v>702.41</v>
       </c>
       <c r="K28">
-        <f xml:space="preserve"> (G28^2+H28^2+I28^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>717.78664171534979</v>
       </c>
       <c r="M28">
-        <f>G28-C28</f>
+        <f t="shared" si="9"/>
         <v>-1.8399999999999892</v>
       </c>
       <c r="N28">
-        <f>H28-D28</f>
+        <f t="shared" si="10"/>
         <v>0.17499999999999716</v>
       </c>
       <c r="O28">
-        <f>I28-E28</f>
+        <f t="shared" si="11"/>
         <v>-14.590000000000032</v>
       </c>
       <c r="Q28">
-        <f xml:space="preserve"> (G28^2+H28^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>147.77636795171276</v>
       </c>
     </row>
@@ -14955,23 +15335,23 @@
         <v>763.92</v>
       </c>
       <c r="K29">
-        <f xml:space="preserve"> (G29^2+H29^2+I29^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>785.5644641911955</v>
       </c>
       <c r="M29">
-        <f>G29-C29</f>
+        <f t="shared" si="9"/>
         <v>2.2300000000000182</v>
       </c>
       <c r="N29">
-        <f>H29-D29</f>
+        <f t="shared" si="10"/>
         <v>-1.3400000000000007</v>
       </c>
       <c r="O29">
-        <f>I29-E29</f>
+        <f t="shared" si="11"/>
         <v>-13.080000000000041</v>
       </c>
       <c r="Q29">
-        <f xml:space="preserve"> (G29^2+H29^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>183.13317831567278</v>
       </c>
     </row>
@@ -14998,23 +15378,23 @@
         <v>821.13</v>
       </c>
       <c r="K30">
-        <f xml:space="preserve"> (G30^2+H30^2+I30^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>844.41385126015075</v>
       </c>
       <c r="M30">
-        <f>G30-C30</f>
+        <f t="shared" si="9"/>
         <v>4.2199999999999989</v>
       </c>
       <c r="N30">
-        <f>H30-D30</f>
+        <f t="shared" si="10"/>
         <v>0.71999999999999886</v>
       </c>
       <c r="O30">
-        <f>I30-E30</f>
+        <f t="shared" si="11"/>
         <v>-18.870000000000005</v>
       </c>
       <c r="Q30">
-        <f xml:space="preserve"> (G30^2+H30^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>196.9270811747333</v>
       </c>
     </row>
@@ -15041,23 +15421,23 @@
         <v>704.78</v>
       </c>
       <c r="K31">
-        <f xml:space="preserve"> (G31^2+H31^2+I31^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>734.35917955725176</v>
       </c>
       <c r="M31">
-        <f>G31-C31</f>
+        <f t="shared" si="9"/>
         <v>1.3999999999999773</v>
       </c>
       <c r="N31">
-        <f>H31-D31</f>
+        <f t="shared" si="10"/>
         <v>-0.98000000000000398</v>
       </c>
       <c r="O31">
-        <f>I31-E31</f>
+        <f t="shared" si="11"/>
         <v>-17.220000000000027</v>
       </c>
       <c r="Q31">
-        <f xml:space="preserve"> (G31^2+H31^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>206.32148748979105</v>
       </c>
     </row>
@@ -15084,23 +15464,23 @@
         <v>758.75</v>
       </c>
       <c r="K32">
-        <f xml:space="preserve"> (G32^2+H32^2+I32^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>789.39696699442663</v>
       </c>
       <c r="M32">
-        <f>G32-C32</f>
+        <f t="shared" si="9"/>
         <v>-7.0300000000000011</v>
       </c>
       <c r="N32">
-        <f>H32-D32</f>
+        <f t="shared" si="10"/>
         <v>1.42</v>
       </c>
       <c r="O32">
-        <f>I32-E32</f>
+        <f t="shared" si="11"/>
         <v>-12.25</v>
       </c>
       <c r="Q32">
-        <f xml:space="preserve"> (G32^2+H32^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>217.82104811059926</v>
       </c>
     </row>
@@ -15127,23 +15507,23 @@
         <v>815.36</v>
       </c>
       <c r="K33">
-        <f xml:space="preserve"> (G33^2+H33^2+I33^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>847.41435018531524</v>
       </c>
       <c r="M33">
-        <f>G33-C33</f>
+        <f t="shared" si="9"/>
         <v>-5.789999999999992</v>
       </c>
       <c r="N33">
-        <f>H33-D33</f>
+        <f t="shared" si="10"/>
         <v>5.4299999999999926</v>
       </c>
       <c r="O33">
-        <f>I33-E33</f>
+        <f t="shared" si="11"/>
         <v>-14.639999999999986</v>
       </c>
       <c r="Q33">
-        <f xml:space="preserve"> (G33^2+H33^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>230.86608954110173</v>
       </c>
     </row>
@@ -15170,23 +15550,23 @@
         <v>701.10500000000002</v>
       </c>
       <c r="K34">
-        <f xml:space="preserve"> (G34^2+H34^2+I34^2)^0.5</f>
+        <f t="shared" si="8"/>
         <v>739.10913911613898</v>
       </c>
       <c r="M34">
-        <f>G34-C34</f>
+        <f t="shared" si="9"/>
         <v>-7.6799999999999784</v>
       </c>
       <c r="N34">
-        <f>H34-D34</f>
+        <f t="shared" si="10"/>
         <v>-0.40000000000000568</v>
       </c>
       <c r="O34">
-        <f>I34-E34</f>
+        <f t="shared" si="11"/>
         <v>-14.894999999999982</v>
       </c>
       <c r="Q34">
-        <f xml:space="preserve"> (G34^2+H34^2)^0.5</f>
+        <f t="shared" si="12"/>
         <v>233.95319724252542</v>
       </c>
     </row>
@@ -15263,30 +15643,30 @@
         <v>818.6</v>
       </c>
       <c r="N37">
-        <f>J37-F37</f>
+        <f t="shared" ref="N37:N51" si="13">J37-F37</f>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="O37">
-        <f>K37-G37</f>
+        <f t="shared" ref="O37:O51" si="14">K37-G37</f>
         <v>2.3499999999999943</v>
       </c>
       <c r="P37">
-        <f>L37-H37</f>
+        <f t="shared" ref="P37:P51" si="15">L37-H37</f>
         <v>-15.399999999999977</v>
       </c>
       <c r="R37">
-        <f>((C37-640)^2+(D37-360)^2)^0.5</f>
+        <f t="shared" ref="R37:R51" si="16">((C37-640)^2+(D37-360)^2)^0.5</f>
         <v>48.052055106935853</v>
       </c>
       <c r="S37">
         <v>3</v>
       </c>
       <c r="T37">
-        <f>((C37-640)^2)^0.5</f>
+        <f t="shared" ref="T37:T51" si="17">((C37-640)^2)^0.5</f>
         <v>10</v>
       </c>
       <c r="U37">
-        <f>((D37-360)^2)^0.5</f>
+        <f t="shared" ref="U37:U51" si="18">((D37-360)^2)^0.5</f>
         <v>47</v>
       </c>
     </row>
@@ -15319,30 +15699,30 @@
         <v>761.34</v>
       </c>
       <c r="N38">
-        <f>J38-F38</f>
+        <f t="shared" si="13"/>
         <v>-0.62999999999999901</v>
       </c>
       <c r="O38">
-        <f>K38-G38</f>
+        <f t="shared" si="14"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="P38">
-        <f>L38-H38</f>
+        <f t="shared" si="15"/>
         <v>-19.659999999999968</v>
       </c>
       <c r="R38">
-        <f>((C38-640)^2+(D38-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>18.601075237738275</v>
       </c>
       <c r="S38">
         <v>8</v>
       </c>
       <c r="T38">
-        <f>((C38-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="U38">
-        <f>((D38-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
     </row>
@@ -15375,30 +15755,30 @@
         <v>704.29</v>
       </c>
       <c r="N39">
-        <f>J39-F39</f>
+        <f t="shared" si="13"/>
         <v>-1.3499999999999996</v>
       </c>
       <c r="O39">
-        <f>K39-G39</f>
+        <f t="shared" si="14"/>
         <v>-2.7199999999999989</v>
       </c>
       <c r="P39">
-        <f>L39-H39</f>
+        <f t="shared" si="15"/>
         <v>-13.710000000000036</v>
       </c>
       <c r="R39">
-        <f>((C39-640)^2+(D39-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>88.68483523128404</v>
       </c>
       <c r="S39">
         <v>13</v>
       </c>
       <c r="T39">
-        <f>((C39-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="U39">
-        <f>((D39-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
     </row>
@@ -15431,30 +15811,30 @@
         <v>819.46</v>
       </c>
       <c r="N40">
-        <f>J40-F40</f>
+        <f t="shared" si="13"/>
         <v>1.8599999999999994</v>
       </c>
       <c r="O40">
-        <f>K40-G40</f>
+        <f t="shared" si="14"/>
         <v>1.2800000000000011</v>
       </c>
       <c r="P40">
-        <f>L40-H40</f>
+        <f t="shared" si="15"/>
         <v>-16.539999999999964</v>
       </c>
       <c r="R40">
-        <f>((C40-640)^2+(D40-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>79.404030124421269</v>
       </c>
       <c r="S40">
         <v>2</v>
       </c>
       <c r="T40">
-        <f>((C40-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="U40">
-        <f>((D40-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
     </row>
@@ -15487,30 +15867,30 @@
         <v>763.03</v>
       </c>
       <c r="N41">
-        <f>J41-F41</f>
+        <f t="shared" si="13"/>
         <v>0.92999999999999261</v>
       </c>
       <c r="O41">
-        <f>K41-G41</f>
+        <f t="shared" si="14"/>
         <v>-0.52000000000000046</v>
       </c>
       <c r="P41">
-        <f>L41-H41</f>
+        <f t="shared" si="15"/>
         <v>-18.970000000000027</v>
       </c>
       <c r="R41">
-        <f>((C41-640)^2+(D41-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>69.426219830839131</v>
       </c>
       <c r="S41">
         <v>7</v>
       </c>
       <c r="T41">
-        <f>((C41-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="U41">
-        <f>((D41-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
     </row>
@@ -15543,30 +15923,30 @@
         <v>705.23</v>
       </c>
       <c r="N42">
-        <f>J42-F42</f>
+        <f t="shared" si="13"/>
         <v>2.6899999999999977</v>
       </c>
       <c r="O42">
-        <f>K42-G42</f>
+        <f t="shared" si="14"/>
         <v>-3.5600000000000023</v>
       </c>
       <c r="P42">
-        <f>L42-H42</f>
+        <f t="shared" si="15"/>
         <v>-18.769999999999982</v>
       </c>
       <c r="R42">
-        <f>((C42-640)^2+(D42-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>114.86513831445988</v>
       </c>
       <c r="S42">
         <v>12</v>
       </c>
       <c r="T42">
-        <f>((C42-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="U42">
-        <f>((D42-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
     </row>
@@ -15599,30 +15979,30 @@
         <v>816.97</v>
       </c>
       <c r="N43">
-        <f>J43-F43</f>
+        <f t="shared" si="13"/>
         <v>-2.8099999999999881</v>
       </c>
       <c r="O43">
-        <f>K43-G43</f>
+        <f t="shared" si="14"/>
         <v>3.9899999999999949</v>
       </c>
       <c r="P43">
-        <f>L43-H43</f>
+        <f t="shared" si="15"/>
         <v>-18.029999999999973</v>
       </c>
       <c r="R43">
-        <f>((C43-640)^2+(D43-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>98.883770154661889</v>
       </c>
       <c r="S43">
         <v>4</v>
       </c>
       <c r="T43">
-        <f>((C43-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>87</v>
       </c>
       <c r="U43">
-        <f>((D43-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
     </row>
@@ -15655,30 +16035,30 @@
         <v>760.02499999999998</v>
       </c>
       <c r="N44">
-        <f>J44-F44</f>
+        <f t="shared" si="13"/>
         <v>-3.0100000000000051</v>
       </c>
       <c r="O44">
-        <f>K44-G44</f>
+        <f t="shared" si="14"/>
         <v>1.5499999999999998</v>
       </c>
       <c r="P44">
-        <f>L44-H44</f>
+        <f t="shared" si="15"/>
         <v>-14.975000000000023</v>
       </c>
       <c r="R44">
-        <f>((C44-640)^2+(D44-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>94.201910808645493</v>
       </c>
       <c r="S44">
         <v>9</v>
       </c>
       <c r="T44">
-        <f>((C44-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>93</v>
       </c>
       <c r="U44">
-        <f>((D44-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
     </row>
@@ -15711,30 +16091,30 @@
         <v>702.41</v>
       </c>
       <c r="N45">
-        <f>J45-F45</f>
+        <f t="shared" si="13"/>
         <v>-1.8399999999999892</v>
       </c>
       <c r="O45">
-        <f>K45-G45</f>
+        <f t="shared" si="14"/>
         <v>0.17499999999999716</v>
       </c>
       <c r="P45">
-        <f>L45-H45</f>
+        <f t="shared" si="15"/>
         <v>-14.590000000000032</v>
       </c>
       <c r="R45">
-        <f>((C45-640)^2+(D45-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>131.04579352272242</v>
       </c>
       <c r="S45">
         <v>14</v>
       </c>
       <c r="T45">
-        <f>((C45-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>98</v>
       </c>
       <c r="U45">
-        <f>((D45-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
     </row>
@@ -15767,30 +16147,30 @@
         <v>821.13</v>
       </c>
       <c r="N46">
-        <f>J46-F46</f>
+        <f t="shared" si="13"/>
         <v>4.2199999999999989</v>
       </c>
       <c r="O46">
-        <f>K46-G46</f>
+        <f t="shared" si="14"/>
         <v>0.71999999999999886</v>
       </c>
       <c r="P46">
-        <f>L46-H46</f>
+        <f t="shared" si="15"/>
         <v>-18.870000000000005</v>
       </c>
       <c r="R46">
-        <f>((C46-640)^2+(D46-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
       <c r="T46">
-        <f>((C46-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="U46">
-        <f>((D46-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
     </row>
@@ -15823,30 +16203,30 @@
         <v>763.92</v>
       </c>
       <c r="N47">
-        <f>J47-F47</f>
+        <f t="shared" si="13"/>
         <v>2.2300000000000182</v>
       </c>
       <c r="O47">
-        <f>K47-G47</f>
+        <f t="shared" si="14"/>
         <v>-1.3400000000000007</v>
       </c>
       <c r="P47">
-        <f>L47-H47</f>
+        <f t="shared" si="15"/>
         <v>-13.080000000000041</v>
       </c>
       <c r="R47">
-        <f>((C47-640)^2+(D47-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>151.64761785138597</v>
       </c>
       <c r="S47">
         <v>6</v>
       </c>
       <c r="T47">
-        <f>((C47-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>151</v>
       </c>
       <c r="U47">
-        <f>((D47-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
     </row>
@@ -15879,30 +16259,30 @@
         <v>815.36</v>
       </c>
       <c r="N48">
-        <f>J48-F48</f>
+        <f t="shared" si="13"/>
         <v>-5.789999999999992</v>
       </c>
       <c r="O48">
-        <f>K48-G48</f>
+        <f t="shared" si="14"/>
         <v>5.4299999999999926</v>
       </c>
       <c r="P48">
-        <f>L48-H48</f>
+        <f t="shared" si="15"/>
         <v>-14.639999999999986</v>
       </c>
       <c r="R48">
-        <f>((C48-640)^2+(D48-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>170.60187572239644</v>
       </c>
       <c r="S48">
         <v>5</v>
       </c>
       <c r="T48">
-        <f>((C48-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>164</v>
       </c>
       <c r="U48">
-        <f>((D48-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
     </row>
@@ -15935,30 +16315,30 @@
         <v>704.78</v>
       </c>
       <c r="N49">
-        <f>J49-F49</f>
+        <f t="shared" si="13"/>
         <v>1.3999999999999773</v>
       </c>
       <c r="O49">
-        <f>K49-G49</f>
+        <f t="shared" si="14"/>
         <v>-0.98000000000000398</v>
       </c>
       <c r="P49">
-        <f>L49-H49</f>
+        <f t="shared" si="15"/>
         <v>-17.220000000000027</v>
       </c>
       <c r="R49">
-        <f>((C49-640)^2+(D49-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>185.18099254513137</v>
       </c>
       <c r="S49">
         <v>11</v>
       </c>
       <c r="T49">
-        <f>((C49-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>164</v>
       </c>
       <c r="U49">
-        <f>((D49-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>86</v>
       </c>
     </row>
@@ -15991,30 +16371,30 @@
         <v>758.75</v>
       </c>
       <c r="N50">
-        <f>J50-F50</f>
+        <f t="shared" si="13"/>
         <v>-7.0300000000000011</v>
       </c>
       <c r="O50">
-        <f>K50-G50</f>
+        <f t="shared" si="14"/>
         <v>1.42</v>
       </c>
       <c r="P50">
-        <f>L50-H50</f>
+        <f t="shared" si="15"/>
         <v>-12.25</v>
       </c>
       <c r="R50">
-        <f>((C50-640)^2+(D50-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>176.72577627499618</v>
       </c>
       <c r="S50">
         <v>10</v>
       </c>
       <c r="T50">
-        <f>((C50-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>176</v>
       </c>
       <c r="U50">
-        <f>((D50-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
     </row>
@@ -16047,30 +16427,30 @@
         <v>701.10500000000002</v>
       </c>
       <c r="N51">
-        <f>J51-F51</f>
+        <f t="shared" si="13"/>
         <v>-7.6799999999999784</v>
       </c>
       <c r="O51">
-        <f>K51-G51</f>
+        <f t="shared" si="14"/>
         <v>-0.40000000000000568</v>
       </c>
       <c r="P51">
-        <f>L51-H51</f>
+        <f t="shared" si="15"/>
         <v>-14.894999999999982</v>
       </c>
       <c r="R51">
-        <f>((C51-640)^2+(D51-360)^2)^0.5</f>
+        <f t="shared" si="16"/>
         <v>208.00240383226344</v>
       </c>
       <c r="S51">
         <v>15</v>
       </c>
       <c r="T51">
-        <f>((C51-640)^2)^0.5</f>
+        <f t="shared" si="17"/>
         <v>188</v>
       </c>
       <c r="U51">
-        <f>((D51-360)^2)^0.5</f>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
     </row>

--- a/Data_depth_collection.xlsx
+++ b/Data_depth_collection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Blue" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="White_IB" sheetId="17" r:id="rId14"/>
     <sheet name="LGreen_IB" sheetId="14" r:id="rId15"/>
     <sheet name="LBlue_IB" sheetId="15" r:id="rId16"/>
+    <sheet name="BlueTest" sheetId="18" r:id="rId17"/>
+    <sheet name="Measurements" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="41">
   <si>
     <t>Pixel:</t>
   </si>
@@ -130,6 +132,39 @@
   <si>
     <t>CENTER5</t>
   </si>
+  <si>
+    <t>DeltaZCAM</t>
+  </si>
+  <si>
+    <t>DeltaZ</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>Bluex5</t>
+  </si>
+  <si>
+    <t>Bluex3</t>
+  </si>
+  <si>
+    <t>Bluex1</t>
+  </si>
+  <si>
+    <t>Redx5</t>
+  </si>
+  <si>
+    <t>Redx3</t>
+  </si>
+  <si>
+    <t>Redx1</t>
+  </si>
+  <si>
+    <t>CorrectLength</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +289,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -267,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -298,6 +363,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,10 +770,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="30">
         <v>500</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="30">
         <v>312</v>
       </c>
       <c r="F2">
@@ -746,11 +820,11 @@
         <f t="shared" ref="X2:X16" si="1">N2-F2</f>
         <v>3.7800000000000011</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="29">
         <f t="shared" ref="Y2:Y16" si="2">O2-G2</f>
         <v>0.60999999999999943</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="28">
         <f t="shared" ref="Z2:Z16" si="3">P2-H2</f>
         <v>-16.870000000000005</v>
       </c>
@@ -783,10 +857,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="30">
         <v>576</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="30">
         <v>313</v>
       </c>
       <c r="F3">
@@ -833,11 +907,11 @@
         <f t="shared" si="1"/>
         <v>1.6599999999999966</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="29">
         <f t="shared" si="2"/>
         <v>1.0999999999999943</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="28">
         <f t="shared" si="3"/>
         <v>-14.539999999999964</v>
       </c>
@@ -870,10 +944,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="30">
         <v>650</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="30">
         <v>313</v>
       </c>
       <c r="F4">
@@ -920,11 +994,11 @@
         <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="29">
         <f t="shared" si="2"/>
         <v>2.4399999999999977</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="28">
         <f t="shared" si="3"/>
         <v>-19.399999999999977</v>
       </c>
@@ -957,10 +1031,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="30">
         <v>727</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="30">
         <v>313</v>
       </c>
       <c r="F5">
@@ -1007,11 +1081,11 @@
         <f t="shared" si="1"/>
         <v>-3.1099999999999994</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="29">
         <f t="shared" si="2"/>
         <v>4.1799999999999926</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="28">
         <f t="shared" si="3"/>
         <v>-20.029999999999973</v>
       </c>
@@ -1044,10 +1118,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="30">
         <v>804</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="30">
         <v>313</v>
       </c>
       <c r="F6">
@@ -1094,11 +1168,11 @@
         <f t="shared" si="1"/>
         <v>-6.0600000000000023</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="29">
         <f t="shared" si="2"/>
         <v>5.519999999999996</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="28">
         <f t="shared" si="3"/>
         <v>-15.639999999999986</v>
       </c>
@@ -1131,10 +1205,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>489</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>374</v>
       </c>
       <c r="F7">
@@ -1181,11 +1255,11 @@
         <f t="shared" si="1"/>
         <v>2.4699999999999989</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="32">
         <f t="shared" si="2"/>
         <v>-1.3500000000000005</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="28">
         <f t="shared" si="3"/>
         <v>-14.080000000000041</v>
       </c>
@@ -1218,10 +1292,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>572</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>374</v>
       </c>
       <c r="F8">
@@ -1268,11 +1342,11 @@
         <f t="shared" si="1"/>
         <v>0.71999999999999886</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="32">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="28">
         <f t="shared" si="3"/>
         <v>-16.970000000000027</v>
       </c>
@@ -1305,10 +1379,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>651</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>375</v>
       </c>
       <c r="F9">
@@ -1355,11 +1429,11 @@
         <f t="shared" si="1"/>
         <v>-0.58000000000000185</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="32">
         <f t="shared" si="2"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="28">
         <f t="shared" si="3"/>
         <v>-17.659999999999968</v>
       </c>
@@ -1392,10 +1466,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>733</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>375</v>
       </c>
       <c r="F10">
@@ -1442,11 +1516,11 @@
         <f t="shared" si="1"/>
         <v>-3.0100000000000051</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="32">
         <f t="shared" si="2"/>
         <v>1.5499999999999998</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="28">
         <f t="shared" si="3"/>
         <v>-14.975000000000023</v>
       </c>
@@ -1479,10 +1553,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>816</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>376</v>
       </c>
       <c r="F11">
@@ -1529,11 +1603,11 @@
         <f t="shared" si="1"/>
         <v>-8.7700000000000102</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="32">
         <f t="shared" si="2"/>
         <v>1.3499999999999996</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="28">
         <f t="shared" si="3"/>
         <v>-18.25</v>
       </c>
@@ -1566,10 +1640,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="31">
         <v>476</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="31">
         <v>446</v>
       </c>
       <c r="F12">
@@ -1616,11 +1690,11 @@
         <f t="shared" si="1"/>
         <v>2.1799999999999784</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="20">
         <f t="shared" si="2"/>
         <v>-1.3599999999999994</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="28">
         <f t="shared" si="3"/>
         <v>-20.220000000000027</v>
       </c>
@@ -1653,10 +1727,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="31">
         <v>565</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="31">
         <v>447</v>
       </c>
       <c r="F13">
@@ -1703,11 +1777,11 @@
         <f t="shared" si="1"/>
         <v>2.4599999999999937</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="20">
         <f t="shared" si="2"/>
         <v>-3.3100000000000023</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="28">
         <f t="shared" si="3"/>
         <v>-16.769999999999982</v>
       </c>
@@ -1740,10 +1814,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="31">
         <v>651</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="31">
         <v>448</v>
       </c>
       <c r="F14">
@@ -1790,11 +1864,11 @@
         <f t="shared" si="1"/>
         <v>-1.4300000000000015</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="20">
         <f t="shared" si="2"/>
         <v>-3.1000000000000085</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="28">
         <f t="shared" si="3"/>
         <v>-16.710000000000036</v>
       </c>
@@ -1827,10 +1901,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="31">
         <v>738</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="31">
         <v>447</v>
       </c>
       <c r="F15">
@@ -1877,11 +1951,11 @@
         <f t="shared" si="1"/>
         <v>-2.1699999999999875</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="20">
         <f t="shared" si="2"/>
         <v>-8.5000000000007958E-2</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="28">
         <f t="shared" si="3"/>
         <v>-16.590000000000032</v>
       </c>
@@ -1914,10 +1988,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="31">
         <v>828</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="31">
         <v>449</v>
       </c>
       <c r="F16">
@@ -1964,11 +2038,11 @@
         <f t="shared" si="1"/>
         <v>-7.9899999999999807</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="20">
         <f t="shared" si="2"/>
         <v>-0.53000000000000114</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="28">
         <f t="shared" si="3"/>
         <v>-15.894999999999982</v>
       </c>
@@ -2008,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,12 +2104,12 @@
     <col min="34" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -2109,37 +2183,40 @@
         <v>3</v>
       </c>
       <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AI2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>536</v>
       </c>
@@ -2191,41 +2268,45 @@
       <c r="X3">
         <v>49.84</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
+        <f>T3-H3</f>
+        <v>-26.970000000000027</v>
+      </c>
+      <c r="AA3">
         <v>150.44</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>612.59</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>56.12</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC10" si="0">R3-J3</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD10" si="0">R3-J3</f>
         <v>-2.0799999999999841</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD10" si="1">V3-Z3</f>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE10" si="1">V3-AA3</f>
         <v>2.1800000000000068</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE10" si="2">S3-K3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF10" si="2">S3-K3</f>
         <v>0.19999999999999574</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AF10" si="3">W3-AA3</f>
+      <c r="AG3" s="3">
+        <f t="shared" ref="AG3:AG10" si="3">W3-AB3</f>
         <v>-4.1499999999999773</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="4">T3-L3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH10" si="4">T3-L3</f>
         <v>7.5499999999999545</v>
       </c>
-      <c r="AH3" s="20">
-        <f t="shared" ref="AH3:AH10" si="5">X3-AB3</f>
+      <c r="AI3" s="20">
+        <f t="shared" ref="AI3:AI10" si="5">X3-AC3</f>
         <v>-6.279999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>612</v>
       </c>
@@ -2277,41 +2358,45 @@
       <c r="X4">
         <v>50.16</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="6">T4-H4</f>
+        <v>-28.899999999999977</v>
+      </c>
+      <c r="AA4">
         <v>53.78</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>614.55999999999995</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>57.19</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>-0.99000000000000199</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <f t="shared" si="1"/>
         <v>1.1099999999999994</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>-0.31000000000000227</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <f t="shared" si="3"/>
         <v>-5.3299999999999272</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>8.8400000000000318</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AI4" s="20">
         <f t="shared" si="5"/>
         <v>-7.0300000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>692</v>
       </c>
@@ -2363,41 +2448,45 @@
       <c r="X5">
         <v>49.82</v>
       </c>
-      <c r="Z5">
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>-28.42999999999995</v>
+      </c>
+      <c r="AA5">
         <v>-47.24</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>611.85</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>58.55</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="1"/>
         <v>-0.67999999999999972</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>2.2500000000000036</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <f t="shared" si="3"/>
         <v>-3.4400000000000546</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>9.1200000000000045</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="20">
         <f t="shared" si="5"/>
         <v>-8.7299999999999969</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>768</v>
       </c>
@@ -2449,41 +2538,45 @@
       <c r="X6">
         <v>50.39</v>
       </c>
-      <c r="Z6">
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>-29.490000000000009</v>
+      </c>
+      <c r="AA6">
         <v>-143.61000000000001</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>608.53</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>56.94</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="0"/>
         <v>1.0600000000000023</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="1"/>
         <v>-1.0699999999999932</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="3"/>
         <v>0.55000000000006821</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>5.0299999999999727</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f t="shared" si="5"/>
         <v>-6.5499999999999972</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>527</v>
       </c>
@@ -2535,41 +2628,45 @@
       <c r="X7">
         <v>49.35</v>
       </c>
-      <c r="Z7">
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>-29.980000000000018</v>
+      </c>
+      <c r="AA7">
         <v>150.27000000000001</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>709.57</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>53.34</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>-2.1999999999999886</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="1"/>
         <v>2.2800000000000011</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>-0.60000000000000142</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <f t="shared" si="3"/>
         <v>-3.5100000000001046</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>5.3199999999999363</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AI7" s="20">
         <f t="shared" si="5"/>
         <v>-3.990000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>610</v>
       </c>
@@ -2621,41 +2718,45 @@
       <c r="X8">
         <v>49.13</v>
       </c>
-      <c r="Z8">
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-30.210000000000036</v>
+      </c>
+      <c r="AA8">
         <v>51.97</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>710.15</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>55.45</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>-2.3299999999999983</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="1"/>
         <v>2.4100000000000037</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="2"/>
         <v>0.53999999999999915</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="3"/>
         <v>-3.7699999999999818</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="4"/>
         <v>7.3799999999999955</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <f t="shared" si="5"/>
         <v>-6.32</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>695</v>
       </c>
@@ -2707,41 +2808,45 @@
       <c r="X9">
         <v>50.08</v>
       </c>
-      <c r="Z9">
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>-29.960000000000036</v>
+      </c>
+      <c r="AA9">
         <v>-47.9</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>710.01</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>56.45</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="0"/>
         <v>0.81000000000000227</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="1"/>
         <v>-0.71999999999999886</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="2"/>
         <v>0.30000000000000426</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="3"/>
         <v>-4.1699999999999591</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="4"/>
         <v>7.5999999999999091</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AI9" s="20">
         <f t="shared" si="5"/>
         <v>-6.3700000000000045</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>778</v>
       </c>
@@ -2793,36 +2898,40 @@
       <c r="X10">
         <v>50</v>
       </c>
-      <c r="Z10">
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>-30.460000000000036</v>
+      </c>
+      <c r="AA10">
         <v>-145.55000000000001</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>707.29</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>55.45</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="0"/>
         <v>-0.90000000000000568</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>0.91000000000002501</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="2"/>
         <v>2.4699999999999989</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="3"/>
         <v>-0.80999999999994543</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="4"/>
         <v>4.92999999999995</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AI10" s="20">
         <f t="shared" si="5"/>
         <v>-5.4500000000000028</v>
       </c>
@@ -2834,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,12 +2963,12 @@
     <col min="34" max="34" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -2933,37 +3042,40 @@
         <v>3</v>
       </c>
       <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AI2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>536</v>
       </c>
@@ -3015,41 +3127,45 @@
       <c r="X3">
         <v>49.67</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
+        <f>T3-H3</f>
+        <v>-23.970000000000027</v>
+      </c>
+      <c r="AA3">
         <v>150.44999999999999</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>612.55999999999995</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>56.08</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC10" si="0">R3-J3</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD10" si="0">R3-J3</f>
         <v>-2.0800000000000125</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD10" si="1">V3-Z3</f>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE10" si="1">V3-AA3</f>
         <v>2.1700000000000159</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE10" si="2">S3-K3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF10" si="2">S3-K3</f>
         <v>0.50999999999999801</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AF10" si="3">W3-AA3</f>
+      <c r="AG3" s="3">
+        <f t="shared" ref="AG3:AG10" si="3">W3-AB3</f>
         <v>-3.8699999999998909</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="4">T3-L3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH10" si="4">T3-L3</f>
         <v>7.5099999999999909</v>
       </c>
-      <c r="AH3" s="20">
-        <f t="shared" ref="AH3:AH10" si="5">X3-AB3</f>
+      <c r="AI3" s="20">
+        <f t="shared" ref="AI3:AI10" si="5">X3-AC3</f>
         <v>-6.4099999999999966</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>612</v>
       </c>
@@ -3101,41 +3217,45 @@
       <c r="X4">
         <v>50.25</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="6">T4-H4</f>
+        <v>-25.840000000000032</v>
+      </c>
+      <c r="AA4">
         <v>53.95</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>612.55999999999995</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>54.59</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <f t="shared" si="1"/>
         <v>1.0899999999999963</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>-0.42000000000000171</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <f t="shared" si="3"/>
         <v>-3.5599999999999454</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>5.6200000000000045</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AI4" s="20">
         <f t="shared" si="5"/>
         <v>-4.3400000000000034</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>692</v>
       </c>
@@ -3187,41 +3307,45 @@
       <c r="X5">
         <v>49.69</v>
       </c>
-      <c r="Z5">
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>-25</v>
+      </c>
+      <c r="AA5">
         <v>-47.56</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>609.30999999999995</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>55.29</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>-0.20999999999999375</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="1"/>
         <v>0.24000000000000199</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>2.0500000000000007</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <f t="shared" si="3"/>
         <v>-1.4499999999999318</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>5.4199999999999591</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="20">
         <f t="shared" si="5"/>
         <v>-5.6000000000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>768</v>
       </c>
@@ -3273,41 +3397,45 @@
       <c r="X6">
         <v>50.67</v>
       </c>
-      <c r="Z6">
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>-24.450000000000045</v>
+      </c>
+      <c r="AA6">
         <v>-143.66</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>608.36</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>56.72</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="0"/>
         <v>1.1100000000000136</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="1"/>
         <v>-1.1200000000000045</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>3.7099999999999973</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="3"/>
         <v>0.24000000000000909</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>4.7899999999999636</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f t="shared" si="5"/>
         <v>-6.0499999999999972</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>527</v>
       </c>
@@ -3359,41 +3487,45 @@
       <c r="X7">
         <v>49.21</v>
       </c>
-      <c r="Z7">
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>-25.830000000000041</v>
+      </c>
+      <c r="AA7">
         <v>150.22999999999999</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>708.89</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>52.23</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>-1.9099999999999966</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="1"/>
         <v>2.2600000000000193</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>-0.64999999999999858</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <f t="shared" si="3"/>
         <v>-2.8999999999999773</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>4.1699999999999591</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AI7" s="20">
         <f t="shared" si="5"/>
         <v>-3.019999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>610</v>
       </c>
@@ -3445,41 +3577,45 @@
       <c r="X8">
         <v>49.32</v>
       </c>
-      <c r="Z8">
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-25.200000000000045</v>
+      </c>
+      <c r="AA8">
         <v>52.03</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>709.52</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>54.42</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>-1.9299999999999962</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="1"/>
         <v>2.019999999999996</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="2"/>
         <v>0.42999999999999972</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="3"/>
         <v>-3.7599999999999909</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="4"/>
         <v>7.1699999999999591</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <f t="shared" si="5"/>
         <v>-5.1000000000000014</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>695</v>
       </c>
@@ -3531,41 +3667,45 @@
       <c r="X9">
         <v>49.74</v>
       </c>
-      <c r="Z9">
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>-25.909999999999968</v>
+      </c>
+      <c r="AA9">
         <v>-48.01</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>709.32</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>55.33</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="0"/>
         <v>0.30999999999998806</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="2"/>
         <v>0.72999999999999687</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="3"/>
         <v>-3.0800000000000409</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="4"/>
         <v>6.3400000000000318</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AI9" s="20">
         <f t="shared" si="5"/>
         <v>-5.5899999999999963</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>778</v>
       </c>
@@ -3617,36 +3757,40 @@
       <c r="X10">
         <v>49.87</v>
       </c>
-      <c r="Z10">
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>-25.230000000000018</v>
+      </c>
+      <c r="AA10">
         <v>-145.66</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>707.03</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>55.01</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="0"/>
         <v>-0.29000000000002046</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>0.29999999999998295</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="2"/>
         <v>2.3200000000000003</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="3"/>
         <v>-0.78999999999996362</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="4"/>
         <v>4.6599999999999682</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AI10" s="20">
         <f t="shared" si="5"/>
         <v>-5.1400000000000006</v>
       </c>
@@ -3658,10 +3802,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:AH10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,12 +3824,12 @@
     <col min="34" max="34" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -3759,37 +3903,40 @@
         <v>3</v>
       </c>
       <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AI2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>536</v>
       </c>
@@ -3841,41 +3988,45 @@
       <c r="X3">
         <v>49.67</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
+        <f>T3-H3</f>
+        <v>-16.169999999999959</v>
+      </c>
+      <c r="AA3">
         <v>151.88</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>607.58000000000004</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>49.63</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC10" si="0">R3-J3</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD10" si="0">R3-J3</f>
         <v>-1.0200000000000102</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD10" si="1">V3-Z3</f>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE10" si="1">V3-AA3</f>
         <v>0.74000000000000909</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE10" si="2">S3-K3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF10" si="2">S3-K3</f>
         <v>0.51999999999999602</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AF10" si="3">W3-AA3</f>
+      <c r="AG3" s="3">
+        <f t="shared" ref="AG3:AG10" si="3">W3-AB3</f>
         <v>1.1100000000000136</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="4">T3-L3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH10" si="4">T3-L3</f>
         <v>0.15000000000009095</v>
       </c>
-      <c r="AH3" s="20">
-        <f t="shared" ref="AH3:AH10" si="5">X3-AB3</f>
+      <c r="AI3" s="20">
+        <f t="shared" ref="AI3:AI10" si="5">X3-AC3</f>
         <v>3.9999999999999147E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>612</v>
       </c>
@@ -3927,41 +4078,45 @@
       <c r="X4">
         <v>48.92</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="6">T4-H4</f>
+        <v>-14.730000000000018</v>
+      </c>
+      <c r="AA4">
         <v>54.08</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>611.08000000000004</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>52.68</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>-2.0299999999999976</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <f t="shared" si="1"/>
         <v>2.0799999999999983</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>0.41000000000000369</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <f t="shared" si="3"/>
         <v>-2.1000000000000227</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>4.3099999999999454</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AI4" s="20">
         <f t="shared" si="5"/>
         <v>-3.759999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>692</v>
       </c>
@@ -4013,41 +4168,45 @@
       <c r="X5">
         <v>49.69</v>
       </c>
-      <c r="Z5">
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>-17.07000000000005</v>
+      </c>
+      <c r="AA5">
         <v>-47.73</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>607.96</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>53.55</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>-0.35999999999999943</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="1"/>
         <v>0.40999999999999659</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>3.009999999999998</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <f t="shared" si="3"/>
         <v>-0.10000000000002274</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>2.1599999999999682</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="20">
         <f t="shared" si="5"/>
         <v>-3.8599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>768</v>
       </c>
@@ -4099,41 +4258,45 @@
       <c r="X6">
         <v>50.67</v>
       </c>
-      <c r="Z6">
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>-16.190000000000055</v>
+      </c>
+      <c r="AA6">
         <v>-144.52000000000001</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>605.70000000000005</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>53.31</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="0"/>
         <v>1.4699999999999989</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="1"/>
         <v>-0.25999999999999091</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>5.57</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="3"/>
         <v>2.8999999999999773</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>0.73999999999989541</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f t="shared" si="5"/>
         <v>-2.6400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>527</v>
       </c>
@@ -4185,41 +4348,45 @@
       <c r="X7">
         <v>49.21</v>
       </c>
-      <c r="Z7">
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>-19.019999999999982</v>
+      </c>
+      <c r="AA7">
         <v>151.54</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>706.04</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>47.59</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>-1.3499999999999943</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="1"/>
         <v>0.95000000000001705</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>-1.4699999999999989</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <f t="shared" si="3"/>
         <v>-4.9999999999954525E-2</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>-1.4700000000000273</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AI7" s="20">
         <f t="shared" si="5"/>
         <v>1.6199999999999974</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>610</v>
       </c>
@@ -4271,41 +4438,45 @@
       <c r="X8">
         <v>49.32</v>
       </c>
-      <c r="Z8">
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-17.529999999999973</v>
+      </c>
+      <c r="AA8">
         <v>52.32</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>706.7</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>49.82</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>-2.6899999999999977</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="1"/>
         <v>1.7299999999999969</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="2"/>
         <v>-0.78999999999999915</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="3"/>
         <v>-0.94000000000005457</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="4"/>
         <v>1.4600000000000364</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>695</v>
       </c>
@@ -4357,41 +4528,45 @@
       <c r="X9">
         <v>49.74</v>
       </c>
-      <c r="Z9">
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>-27.590000000000032</v>
+      </c>
+      <c r="AA9">
         <v>-48.48</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>706.37</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>50.54</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="0"/>
         <v>-0.89000000000000057</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="1"/>
         <v>0.21999999999999886</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="2"/>
         <v>0.82999999999999829</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="3"/>
         <v>-0.12999999999999545</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="4"/>
         <v>1.0499999999999545</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AI9" s="20">
         <f t="shared" si="5"/>
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>778</v>
       </c>
@@ -4443,36 +4618,40 @@
       <c r="X10">
         <v>49.87</v>
       </c>
-      <c r="Z10">
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>-17.059999999999945</v>
+      </c>
+      <c r="AA10">
         <v>-146.66999999999999</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>704.58</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>51.06</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="0"/>
         <v>-1.5699999999999932</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>1.3099999999999739</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="2"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="3"/>
         <v>1.6599999999999682</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="4"/>
         <v>0.20000000000004547</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AI10" s="20">
         <f t="shared" si="5"/>
         <v>-1.1900000000000048</v>
       </c>
@@ -4484,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,12 +4685,12 @@
     <col min="34" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -4584,38 +4763,41 @@
       <c r="X2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AI2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>535</v>
       </c>
@@ -4668,41 +4850,45 @@
       <c r="X3" s="26">
         <v>49.75</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
+        <f>T3-H3</f>
+        <v>-25.970000000000027</v>
+      </c>
+      <c r="AA3">
         <v>152.47</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>610.01</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>52.75</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC10" si="0">R3-J3</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD10" si="0">R3-J3</f>
         <v>0.21000000000000796</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD10" si="1">V3-Z3</f>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE10" si="1">V3-AA3</f>
         <v>-0.16999999999998749</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE10" si="2">S3-K3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF10" si="2">S3-K3</f>
         <v>0.56000000000000227</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AF10" si="3">W3-AA3</f>
+      <c r="AG3" s="3">
+        <f t="shared" ref="AG3:AG10" si="3">W3-AB3</f>
         <v>-1.4399999999999409</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="4">T3-L3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH10" si="4">T3-L3</f>
         <v>3.2899999999999636</v>
       </c>
-      <c r="AH3" s="20">
-        <f t="shared" ref="AH3:AH10" si="5">X3-AB3</f>
+      <c r="AI3" s="20">
+        <f t="shared" ref="AI3:AI10" si="5">X3-AC3</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>612</v>
       </c>
@@ -4755,41 +4941,45 @@
       <c r="X4" s="26">
         <v>49.76</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="6">T4-H4</f>
+        <v>-26.370000000000005</v>
+      </c>
+      <c r="AA4">
         <v>54.2</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>609.63</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>50.78</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>-0.98000000000000043</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>-4.0000000000006253E-2</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <f t="shared" si="3"/>
         <v>-0.75</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>1.2899999999999636</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AI4" s="20">
         <f t="shared" si="5"/>
         <v>-1.0200000000000031</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>692</v>
       </c>
@@ -4842,41 +5032,45 @@
       <c r="X5" s="26">
         <v>50.17</v>
       </c>
-      <c r="Z5">
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>-24.220000000000027</v>
+      </c>
+      <c r="AA5">
         <v>-47.54</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>609.48</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>55.51</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>0.23000000000000398</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="1"/>
         <v>-0.23000000000000398</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>2.9199999999999982</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <f t="shared" si="3"/>
         <v>-0.21000000000003638</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>4.4800000000000182</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="20">
         <f t="shared" si="5"/>
         <v>-5.3399999999999963</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>768</v>
       </c>
@@ -4929,41 +5123,45 @@
       <c r="X6" s="26">
         <v>50.71</v>
       </c>
-      <c r="Z6">
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>-25.639999999999986</v>
+      </c>
+      <c r="AA6">
         <v>-144.24</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>606.57000000000005</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>54.42</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="0"/>
         <v>0.92000000000001592</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="1"/>
         <v>-0.97999999999998977</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>4.0399999999999991</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="3"/>
         <v>2.2999999999999545</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>1.6900000000000546</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f t="shared" si="5"/>
         <v>-3.7100000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>527</v>
       </c>
@@ -5016,41 +5214,45 @@
       <c r="X7" s="26">
         <v>49.48</v>
       </c>
-      <c r="Z7">
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>-26.279999999999973</v>
+      </c>
+      <c r="AA7">
         <v>151.12</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>707.21</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>49.49</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>-1.4800000000000182</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>-0.68999999999999773</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <f t="shared" si="3"/>
         <v>-0.81000000000005912</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>0.50999999999999091</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AI7" s="20">
         <f t="shared" si="5"/>
         <v>-1.0000000000005116E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>610</v>
       </c>
@@ -5103,41 +5305,45 @@
       <c r="X8" s="26">
         <v>49.05</v>
       </c>
-      <c r="Z8">
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-26.169999999999959</v>
+      </c>
+      <c r="AA8">
         <v>52.27</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>707.2</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>50.65</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>-1.5800000000000018</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="1"/>
         <v>1.5999999999999943</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="3"/>
         <v>-0.79000000000007731</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="4"/>
         <v>1.7900000000000773</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <f t="shared" si="5"/>
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>695</v>
       </c>
@@ -5190,41 +5396,45 @@
       <c r="X9" s="26">
         <v>49.65</v>
       </c>
-      <c r="Z9">
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>-26.840000000000032</v>
+      </c>
+      <c r="AA9">
         <v>-48.47</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>706.43</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>50.64</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="0"/>
         <v>-0.40999999999999659</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="1"/>
         <v>0.40999999999999659</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="2"/>
         <v>0.41000000000000369</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="3"/>
         <v>-0.17999999999994998</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="4"/>
         <v>0.91999999999995907</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AI9" s="20">
         <f t="shared" si="5"/>
         <v>-0.99000000000000199</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>778</v>
       </c>
@@ -5277,51 +5487,56 @@
       <c r="X10" s="26">
         <v>49.8</v>
       </c>
-      <c r="Z10">
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>-25.870000000000005</v>
+      </c>
+      <c r="AA10">
         <v>-146.47999999999999</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>705.05</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>51.82</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="0"/>
         <v>-1.0900000000000034</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>1.0699999999999932</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="2"/>
         <v>1.7099999999999937</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="3"/>
         <v>0.68000000000006366</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="4"/>
         <v>1.2799999999999727</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AI10" s="20">
         <f t="shared" si="5"/>
         <v>-2.0200000000000031</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5340,12 +5555,12 @@
     <col min="34" max="34" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -5418,38 +5633,41 @@
       <c r="X2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AI2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>535</v>
       </c>
@@ -5502,41 +5720,45 @@
       <c r="X3" s="26">
         <v>49.88</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
+        <f>T3-H3</f>
+        <v>-20.190000000000055</v>
+      </c>
+      <c r="AA3">
         <v>152.99</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>608.22</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>50.43</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC10" si="0">R3-J3</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD10" si="0">R3-J3</f>
         <v>-0.43999999999999773</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD10" si="1">V3-Z3</f>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE10" si="1">V3-AA3</f>
         <v>0.4299999999999784</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE10" si="2">S3-K3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF10" si="2">S3-K3</f>
         <v>0.76999999999999602</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AF10" si="3">W3-AA3</f>
+      <c r="AG3" s="3">
+        <f t="shared" ref="AG3:AG10" si="3">W3-AB3</f>
         <v>0.56999999999993634</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="4">T3-L3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH10" si="4">T3-L3</f>
         <v>0.12999999999999545</v>
       </c>
-      <c r="AH3" s="20">
-        <f t="shared" ref="AH3:AH10" si="5">X3-AB3</f>
+      <c r="AI3" s="20">
+        <f t="shared" ref="AI3:AI10" si="5">X3-AC3</f>
         <v>-0.54999999999999716</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>612</v>
       </c>
@@ -5589,41 +5811,45 @@
       <c r="X4" s="26">
         <v>50</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="6">T4-H4</f>
+        <v>-20.539999999999964</v>
+      </c>
+      <c r="AA4">
         <v>54.28</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>608.73</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>49.62</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>5.9999999999998721E-2</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <f t="shared" si="1"/>
         <v>-6.0000000000002274E-2</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>-0.14999999999999858</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <f t="shared" si="3"/>
         <v>9.0000000000031832E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>-0.34999999999990905</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AI4" s="20">
         <f t="shared" si="5"/>
         <v>0.38000000000000256</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>692</v>
       </c>
@@ -5676,41 +5902,45 @@
       <c r="X5" s="26">
         <v>50.07</v>
       </c>
-      <c r="Z5">
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>-19.889999999999986</v>
+      </c>
+      <c r="AA5">
         <v>-47.97</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>606.07000000000005</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>51.11</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>-0.57999999999999829</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="1"/>
         <v>0.51999999999999602</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>2.8599999999999994</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <f t="shared" si="3"/>
         <v>2.7799999999999727</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>-0.75</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="20">
         <f t="shared" si="5"/>
         <v>-1.0399999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>768</v>
       </c>
@@ -5763,41 +5993,45 @@
       <c r="X6" s="26">
         <v>51.11</v>
       </c>
-      <c r="Z6">
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>-20.299999999999955</v>
+      </c>
+      <c r="AA6">
         <v>-144.56</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>605.6</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>53.18</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="0"/>
         <v>0.65000000000000568</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="1"/>
         <v>-0.74000000000000909</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>4.3400000000000034</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="3"/>
         <v>3.8400000000000318</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>-0.52999999999997272</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f t="shared" si="5"/>
         <v>-2.0700000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>527</v>
       </c>
@@ -5850,41 +6084,45 @@
       <c r="X7" s="26">
         <v>49.21</v>
       </c>
-      <c r="Z7">
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>-19.879999999999995</v>
+      </c>
+      <c r="AA7">
         <v>151.19999999999999</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>707</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>49.15</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>-1.2199999999999989</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="1"/>
         <v>1.2400000000000091</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>-0.80000000000000426</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <f t="shared" si="3"/>
         <v>-0.90999999999996817</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>0.50999999999999091</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AI7" s="20">
         <f t="shared" si="5"/>
         <v>6.0000000000002274E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>610</v>
       </c>
@@ -5937,41 +6175,45 @@
       <c r="X8" s="26">
         <v>49.34</v>
       </c>
-      <c r="Z8">
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-20.799999999999955</v>
+      </c>
+      <c r="AA8">
         <v>52.43</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>705.63</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>48.08</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>-1.4499999999999993</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="1"/>
         <v>1.4699999999999989</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="2"/>
         <v>-0.96000000000000085</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="3"/>
         <v>-0.25999999999999091</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="4"/>
         <v>-0.84999999999990905</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <f t="shared" si="5"/>
         <v>1.2600000000000051</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>695</v>
       </c>
@@ -6024,41 +6266,45 @@
       <c r="X9" s="26">
         <v>49.77</v>
       </c>
-      <c r="Z9">
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>-20.220000000000027</v>
+      </c>
+      <c r="AA9">
         <v>-48.66</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>705.25</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>48.72</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="0"/>
         <v>-0.85999999999999943</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="1"/>
         <v>0.81999999999999318</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="2"/>
         <v>0.58999999999999631</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="3"/>
         <v>1.4900000000000091</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="4"/>
         <v>-1.7100000000000364</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AI9" s="20">
         <f t="shared" si="5"/>
         <v>1.0500000000000043</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>778</v>
       </c>
@@ -6111,36 +6357,40 @@
       <c r="X10" s="26">
         <v>50.18</v>
       </c>
-      <c r="Z10">
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>-21.340000000000032</v>
+      </c>
+      <c r="AA10">
         <v>-147.12</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>703.49</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>49.3</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="0"/>
         <v>-1.8499999999999943</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>1.789999999999992</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="3"/>
         <v>2.5099999999999909</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="4"/>
         <v>-2.1399999999999864</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AI10" s="20">
         <f t="shared" si="5"/>
         <v>0.88000000000000256</v>
       </c>
@@ -6152,10 +6402,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,12 +6425,12 @@
     <col min="34" max="34" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -6253,38 +6503,41 @@
       <c r="X2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AI2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>535</v>
       </c>
@@ -6337,41 +6590,45 @@
       <c r="X3" s="26">
         <v>49.62</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
+        <f>T3-H3</f>
+        <v>-22.809999999999945</v>
+      </c>
+      <c r="AA3">
         <v>153.25</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>607.32000000000005</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>49.26</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC10" si="0">R3-J3</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD10" si="0">R3-J3</f>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD10" si="1">V3-Z3</f>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE10" si="1">V3-AA3</f>
         <v>-0.12000000000000455</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE10" si="2">S3-K3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF10" si="2">S3-K3</f>
         <v>0.74000000000000199</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AF10" si="3">W3-AA3</f>
+      <c r="AG3" s="3">
+        <f t="shared" ref="AG3:AG10" si="3">W3-AB3</f>
         <v>1.1699999999999591</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="4">T3-L3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH10" si="4">T3-L3</f>
         <v>-0.9699999999999136</v>
       </c>
-      <c r="AH3" s="20">
-        <f t="shared" ref="AH3:AH10" si="5">X3-AB3</f>
+      <c r="AI3" s="20">
+        <f t="shared" ref="AI3:AI10" si="5">X3-AC3</f>
         <v>0.35999999999999943</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>612</v>
       </c>
@@ -6424,41 +6681,45 @@
       <c r="X4" s="26">
         <v>49.9</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="6">T4-H4</f>
+        <v>-23.480000000000018</v>
+      </c>
+      <c r="AA4">
         <v>54.2</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>609.62</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>50.77</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>-0.76999999999999957</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <f t="shared" si="1"/>
         <v>0.78999999999999915</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>-0.13000000000000256</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <f t="shared" si="3"/>
         <v>-0.75999999999999091</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>1.1599999999999682</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AI4" s="20">
         <f t="shared" si="5"/>
         <v>-0.87000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>692</v>
       </c>
@@ -6511,41 +6772,45 @@
       <c r="X5" s="26">
         <v>49.91</v>
       </c>
-      <c r="Z5">
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>-23.399999999999977</v>
+      </c>
+      <c r="AA5">
         <v>-47.86</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>606.95000000000005</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>52.25</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>-1.2999999999999972</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="1"/>
         <v>1.269999999999996</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>2.3900000000000006</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <f t="shared" si="3"/>
         <v>1.3099999999999454</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>1.1800000000000637</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="20">
         <f t="shared" si="5"/>
         <v>-2.3400000000000034</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>768</v>
       </c>
@@ -6598,41 +6863,45 @@
       <c r="X6" s="26">
         <v>50.49</v>
       </c>
-      <c r="Z6">
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>-23.279999999999973</v>
+      </c>
+      <c r="AA6">
         <v>-144.59</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>605.49</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>53.04</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="0"/>
         <v>-0.10999999999998522</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="1"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>3.9800000000000004</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="3"/>
         <v>3.0800000000000409</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>0.31000000000005912</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f t="shared" si="5"/>
         <v>-2.5499999999999972</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>527</v>
       </c>
@@ -6685,41 +6954,45 @@
       <c r="X7" s="26">
         <v>49.31</v>
       </c>
-      <c r="Z7">
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>-23.889999999999986</v>
+      </c>
+      <c r="AA7">
         <v>151.26</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>706.83</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>48.87</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>-0.81000000000000227</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="1"/>
         <v>0.83000000000001251</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>-0.99000000000000199</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <f t="shared" si="3"/>
         <v>-0.87999999999999545</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>0.15999999999996817</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AI7" s="20">
         <f t="shared" si="5"/>
         <v>0.44000000000000483</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>610</v>
       </c>
@@ -6772,41 +7045,45 @@
       <c r="X8" s="26">
         <v>49.36</v>
       </c>
-      <c r="Z8">
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-23.110000000000014</v>
+      </c>
+      <c r="AA8">
         <v>52.31</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>706.8</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>49.98</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>-1.9400000000000013</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="1"/>
         <v>1.9600000000000009</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="2"/>
         <v>-0.42000000000000171</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="3"/>
         <v>-0.91999999999995907</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="4"/>
         <v>1.0699999999999363</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <f t="shared" si="5"/>
         <v>-0.61999999999999744</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>695</v>
       </c>
@@ -6859,41 +7136,45 @@
       <c r="X9" s="26">
         <v>49.74</v>
       </c>
-      <c r="Z9">
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>-23.940000000000055</v>
+      </c>
+      <c r="AA9">
         <v>-48.54</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>706.01</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>49.96</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="0"/>
         <v>-0.62000000000000455</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="1"/>
         <v>0.60999999999999943</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="2"/>
         <v>0.35000000000000142</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="3"/>
         <v>0.28999999999996362</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="4"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AI9" s="20">
         <f t="shared" si="5"/>
         <v>-0.21999999999999886</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>778</v>
       </c>
@@ -6946,36 +7227,40 @@
       <c r="X10" s="26">
         <v>50.09</v>
       </c>
-      <c r="Z10">
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>-23.509999999999991</v>
+      </c>
+      <c r="AA10">
         <v>-146.57</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>704.82</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>51.45</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="0"/>
         <v>-1.2999999999999829</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>1.2599999999999909</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="2"/>
         <v>2.0700000000000003</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="3"/>
         <v>1.5999999999999091</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="4"/>
         <v>0.21000000000003638</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AI10" s="20">
         <f t="shared" si="5"/>
         <v>-1.3599999999999994</v>
       </c>
@@ -6987,9 +7272,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7007,12 +7294,12 @@
     <col min="34" max="34" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -7085,38 +7372,41 @@
       <c r="X2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AI2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>535</v>
       </c>
@@ -7169,41 +7459,45 @@
       <c r="X3" s="26">
         <v>49.88</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
+        <f>T3-H3</f>
+        <v>-21.100000000000023</v>
+      </c>
+      <c r="AA3">
         <v>153.09</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>607.89</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>49.99</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC10" si="0">R3-J3</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD10" si="0">R3-J3</f>
         <v>1.3599999999999852</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD10" si="1">V3-Z3</f>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE10" si="1">V3-AA3</f>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE10" si="2">S3-K3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF10" si="2">S3-K3</f>
         <v>0.67000000000000171</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AF10" si="3">W3-AA3</f>
+      <c r="AG3" s="3">
+        <f t="shared" ref="AG3:AG10" si="3">W3-AB3</f>
         <v>0.71000000000003638</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="4">T3-L3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH10" si="4">T3-L3</f>
         <v>-0.33000000000004093</v>
       </c>
-      <c r="AH3" s="20">
-        <f t="shared" ref="AH3:AH10" si="5">X3-AB3</f>
+      <c r="AI3" s="20">
+        <f t="shared" ref="AI3:AI10" si="5">X3-AC3</f>
         <v>-0.10999999999999943</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>612</v>
       </c>
@@ -7256,41 +7550,45 @@
       <c r="X4" s="26">
         <v>50</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="6">T4-H4</f>
+        <v>-20.42999999999995</v>
+      </c>
+      <c r="AA4">
         <v>54.23</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>609.26</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>50.31</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>-9.9999999999997868E-2</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <f t="shared" si="1"/>
         <v>0.12000000000000455</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>-0.34000000000000341</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <f t="shared" si="3"/>
         <v>-0.62999999999999545</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>0.62999999999999545</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AI4" s="20">
         <f t="shared" si="5"/>
         <v>-0.31000000000000227</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>692</v>
       </c>
@@ -7343,41 +7641,45 @@
       <c r="X5" s="26">
         <v>50.15</v>
       </c>
-      <c r="Z5">
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>-20.029999999999973</v>
+      </c>
+      <c r="AA5">
         <v>-47.94</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>606.30999999999995</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>51.42</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>-8.0000000000012506E-2</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="1"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>3.230000000000004</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <f t="shared" si="3"/>
         <v>2.3500000000000227</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="20">
         <f t="shared" si="5"/>
         <v>-1.2700000000000031</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>768</v>
       </c>
@@ -7430,41 +7732,45 @@
       <c r="X6" s="26">
         <v>50.19</v>
       </c>
-      <c r="Z6">
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>-21.399999999999977</v>
+      </c>
+      <c r="AA6">
         <v>-145.09</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>603.95000000000005</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>51.07</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="0"/>
         <v>-0.21999999999999886</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>4.7899999999999991</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>-2.3099999999999454</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f t="shared" si="5"/>
         <v>-0.88000000000000256</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>527</v>
       </c>
@@ -7517,41 +7823,45 @@
       <c r="X7" s="26">
         <v>49.1</v>
       </c>
-      <c r="Z7">
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>-21.779999999999973</v>
+      </c>
+      <c r="AA7">
         <v>151.54</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>706.04</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>47.58</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>-1.3100000000000023</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="1"/>
         <v>1.3100000000000023</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>-0.88000000000000256</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <f t="shared" si="3"/>
         <v>3.0000000000086402E-2</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>-1.2300000000000182</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AI7" s="20">
         <f t="shared" si="5"/>
         <v>1.5200000000000031</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>610</v>
       </c>
@@ -7604,41 +7914,45 @@
       <c r="X8" s="26">
         <v>49.25</v>
       </c>
-      <c r="Z8">
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-22.029999999999973</v>
+      </c>
+      <c r="AA8">
         <v>52.41</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>705.79</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>48.34</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>-1.0399999999999991</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="1"/>
         <v>1.0400000000000063</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="2"/>
         <v>-0.46000000000000085</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="3"/>
         <v>9.0000000000031832E-2</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="4"/>
         <v>-0.76999999999998181</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <f t="shared" si="5"/>
         <v>0.90999999999999659</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>695</v>
       </c>
@@ -7691,41 +8005,45 @@
       <c r="X9" s="26">
         <v>49.75</v>
       </c>
-      <c r="Z9">
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>-22.259999999999991</v>
+      </c>
+      <c r="AA9">
         <v>-48.68</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>705.12</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>48.5</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="0"/>
         <v>-0.45999999999999375</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="1"/>
         <v>0.42000000000000171</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="2"/>
         <v>0.67000000000000171</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="3"/>
         <v>1.7100000000000364</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AI9" s="20">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>778</v>
       </c>
@@ -7778,42 +8096,1074 @@
       <c r="X10" s="26">
         <v>50.01</v>
       </c>
-      <c r="Z10">
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>-21.240000000000009</v>
+      </c>
+      <c r="AA10">
         <v>-147.33000000000001</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>702.98</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>48.48</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="0"/>
         <v>-2.4300000000000068</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>2.3600000000000136</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="2"/>
         <v>1.5899999999999963</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="3"/>
         <v>3.0900000000000318</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AI10" s="20">
         <f t="shared" si="5"/>
         <v>1.5300000000000011</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>564</v>
+      </c>
+      <c r="D3">
+        <v>306</v>
+      </c>
+      <c r="F3">
+        <v>-95.79</v>
+      </c>
+      <c r="G3">
+        <v>-84.12</v>
+      </c>
+      <c r="H3">
+        <v>819</v>
+      </c>
+      <c r="J3">
+        <v>-94.97</v>
+      </c>
+      <c r="K3">
+        <v>-81.62</v>
+      </c>
+      <c r="L3">
+        <v>802.13</v>
+      </c>
+      <c r="N3">
+        <f>J3-F3</f>
+        <v>0.82000000000000739</v>
+      </c>
+      <c r="O3">
+        <f>K3-G3</f>
+        <v>2.5</v>
+      </c>
+      <c r="P3" s="21">
+        <f>L3-H3</f>
+        <v>-16.870000000000005</v>
+      </c>
+      <c r="R3">
+        <v>119.3</v>
+      </c>
+      <c r="S3">
+        <v>562.75</v>
+      </c>
+      <c r="T3">
+        <v>68.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>651</v>
+      </c>
+      <c r="D4">
+        <v>309</v>
+      </c>
+      <c r="F4">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="G4">
+        <v>-82.18</v>
+      </c>
+      <c r="H4">
+        <v>840</v>
+      </c>
+      <c r="J4">
+        <v>18.87</v>
+      </c>
+      <c r="K4">
+        <v>-79.56</v>
+      </c>
+      <c r="L4">
+        <v>823.59</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N17" si="0">J4-F4</f>
+        <v>-1.2799999999999976</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O17" si="1">K4-G4</f>
+        <v>2.6200000000000045</v>
+      </c>
+      <c r="P4" s="21">
+        <f t="shared" ref="P4:P17" si="2">L4-H4</f>
+        <v>-16.409999999999968</v>
+      </c>
+      <c r="R4">
+        <v>5.71</v>
+      </c>
+      <c r="S4">
+        <v>549.58000000000004</v>
+      </c>
+      <c r="T4">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>720</v>
+      </c>
+      <c r="D5">
+        <v>295</v>
+      </c>
+      <c r="F5">
+        <v>115.42</v>
+      </c>
+      <c r="G5">
+        <v>-102.52</v>
+      </c>
+      <c r="H5">
+        <v>850</v>
+      </c>
+      <c r="J5">
+        <v>111.97</v>
+      </c>
+      <c r="K5">
+        <v>-96.27</v>
+      </c>
+      <c r="L5">
+        <v>834.16</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>-3.4500000000000028</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="2"/>
+        <v>-15.840000000000032</v>
+      </c>
+      <c r="R5">
+        <v>-86.94</v>
+      </c>
+      <c r="S5">
+        <v>527.84</v>
+      </c>
+      <c r="T5">
+        <v>50.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>786</v>
+      </c>
+      <c r="D6">
+        <v>317</v>
+      </c>
+      <c r="F6">
+        <v>200.25</v>
+      </c>
+      <c r="G6">
+        <v>-69.97</v>
+      </c>
+      <c r="H6">
+        <v>825</v>
+      </c>
+      <c r="J6">
+        <v>195.43</v>
+      </c>
+      <c r="K6">
+        <v>-66.489999999999995</v>
+      </c>
+      <c r="L6">
+        <v>814.13</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-4.8199999999999932</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>3.480000000000004</v>
+      </c>
+      <c r="P6" s="21">
+        <f t="shared" si="2"/>
+        <v>-10.870000000000005</v>
+      </c>
+      <c r="R6">
+        <v>-171.15</v>
+      </c>
+      <c r="S6">
+        <v>561.91999999999996</v>
+      </c>
+      <c r="T6">
+        <v>49.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>525</v>
+      </c>
+      <c r="D7">
+        <v>374</v>
+      </c>
+      <c r="F7">
+        <v>-136.19</v>
+      </c>
+      <c r="G7">
+        <v>5.98</v>
+      </c>
+      <c r="H7">
+        <v>756</v>
+      </c>
+      <c r="J7">
+        <v>-135.68</v>
+      </c>
+      <c r="K7">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="L7">
+        <v>741.27</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>-0.92000000000000082</v>
+      </c>
+      <c r="P7" s="21">
+        <f t="shared" si="2"/>
+        <v>-14.730000000000018</v>
+      </c>
+      <c r="R7">
+        <v>157.72999999999999</v>
+      </c>
+      <c r="S7">
+        <v>669.52</v>
+      </c>
+      <c r="T7">
+        <v>67.650000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>603</v>
+      </c>
+      <c r="D8">
+        <v>371</v>
+      </c>
+      <c r="F8">
+        <v>-43.45</v>
+      </c>
+      <c r="G8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H8">
+        <v>808</v>
+      </c>
+      <c r="J8">
+        <v>-44.21</v>
+      </c>
+      <c r="K8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L8">
+        <v>789.01</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-0.75999999999999801</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>-0.25</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="2"/>
+        <v>-18.990000000000009</v>
+      </c>
+      <c r="R8">
+        <v>66.92</v>
+      </c>
+      <c r="S8">
+        <v>637.63</v>
+      </c>
+      <c r="T8">
+        <v>30.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>678</v>
+      </c>
+      <c r="D9">
+        <v>381</v>
+      </c>
+      <c r="F9">
+        <v>55.48</v>
+      </c>
+      <c r="G9">
+        <v>15.81</v>
+      </c>
+      <c r="H9">
+        <v>819</v>
+      </c>
+      <c r="J9">
+        <v>52.28</v>
+      </c>
+      <c r="K9">
+        <v>17.21</v>
+      </c>
+      <c r="L9">
+        <v>802.47</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>-3.1999999999999957</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" si="2"/>
+        <v>-16.529999999999973</v>
+      </c>
+      <c r="R9">
+        <v>-29.65</v>
+      </c>
+      <c r="S9">
+        <v>640.02</v>
+      </c>
+      <c r="T9">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>739</v>
+      </c>
+      <c r="D10">
+        <v>346</v>
+      </c>
+      <c r="F10">
+        <v>133.76</v>
+      </c>
+      <c r="G10">
+        <v>-30.22</v>
+      </c>
+      <c r="H10">
+        <v>803</v>
+      </c>
+      <c r="J10">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="K10">
+        <v>-27.35</v>
+      </c>
+      <c r="L10">
+        <v>785.46</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>-4.5600000000000023</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>2.8699999999999974</v>
+      </c>
+      <c r="P10" s="21">
+        <f t="shared" si="2"/>
+        <v>-17.539999999999964</v>
+      </c>
+      <c r="R10">
+        <v>-105.98</v>
+      </c>
+      <c r="S10">
+        <v>611.84</v>
+      </c>
+      <c r="T10">
+        <v>50.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>617</v>
+      </c>
+      <c r="D11">
+        <v>433</v>
+      </c>
+      <c r="F11">
+        <v>-23.35</v>
+      </c>
+      <c r="G11">
+        <v>78.03</v>
+      </c>
+      <c r="H11">
+        <v>751</v>
+      </c>
+      <c r="J11">
+        <v>-25.26</v>
+      </c>
+      <c r="K11">
+        <v>76.2</v>
+      </c>
+      <c r="L11">
+        <v>737.73</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>-1.9100000000000001</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>-1.8299999999999983</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="2"/>
+        <v>-13.269999999999982</v>
+      </c>
+      <c r="R11">
+        <v>46.05</v>
+      </c>
+      <c r="S11">
+        <v>727.23</v>
+      </c>
+      <c r="T11">
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>705</v>
+      </c>
+      <c r="D12">
+        <v>422</v>
+      </c>
+      <c r="F12">
+        <v>82.05</v>
+      </c>
+      <c r="G12">
+        <v>63.3</v>
+      </c>
+      <c r="H12">
+        <v>736</v>
+      </c>
+      <c r="J12">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K12">
+        <v>63.72</v>
+      </c>
+      <c r="L12">
+        <v>722.6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>-4.4500000000000028</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="2"/>
+        <v>-13.399999999999977</v>
+      </c>
+      <c r="R12">
+        <v>-56.77</v>
+      </c>
+      <c r="S12">
+        <v>723.58</v>
+      </c>
+      <c r="T12">
+        <v>48.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>802</v>
+      </c>
+      <c r="D13">
+        <v>398</v>
+      </c>
+      <c r="F13">
+        <v>197.45</v>
+      </c>
+      <c r="G13">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="H13">
+        <v>735</v>
+      </c>
+      <c r="J13">
+        <v>189.08</v>
+      </c>
+      <c r="K13">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="L13">
+        <v>718.47</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>-8.3699999999999761</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" si="2"/>
+        <v>-16.529999999999973</v>
+      </c>
+      <c r="R13">
+        <v>-167.77</v>
+      </c>
+      <c r="S13">
+        <v>699.95</v>
+      </c>
+      <c r="T13">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>475</v>
+      </c>
+      <c r="D14">
+        <v>433</v>
+      </c>
+      <c r="F14">
+        <v>-191.95</v>
+      </c>
+      <c r="G14">
+        <v>76.37</v>
+      </c>
+      <c r="H14">
+        <v>735</v>
+      </c>
+      <c r="J14">
+        <v>-189.64</v>
+      </c>
+      <c r="K14">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="L14">
+        <v>716.83</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>2.3100000000000023</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>-3.4100000000000108</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="2"/>
+        <v>-18.169999999999959</v>
+      </c>
+      <c r="R14">
+        <v>210.18</v>
+      </c>
+      <c r="S14">
+        <v>740.19</v>
+      </c>
+      <c r="T14">
+        <v>48.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>553</v>
+      </c>
+      <c r="D15">
+        <v>452</v>
+      </c>
+      <c r="F15">
+        <v>-96.91</v>
+      </c>
+      <c r="G15">
+        <v>96.93</v>
+      </c>
+      <c r="H15">
+        <v>719</v>
+      </c>
+      <c r="J15">
+        <v>-97.73</v>
+      </c>
+      <c r="K15">
+        <v>93.53</v>
+      </c>
+      <c r="L15">
+        <v>702.56</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>-0.82000000000000739</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>-3.4000000000000057</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="2"/>
+        <v>-16.440000000000055</v>
+      </c>
+      <c r="R15">
+        <v>117.76</v>
+      </c>
+      <c r="S15">
+        <v>763.25</v>
+      </c>
+      <c r="T15">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>626</v>
+      </c>
+      <c r="D16">
+        <v>466</v>
+      </c>
+      <c r="F16">
+        <v>-11.67</v>
+      </c>
+      <c r="G16">
+        <v>111.42</v>
+      </c>
+      <c r="H16">
+        <v>707</v>
+      </c>
+      <c r="J16">
+        <v>-14.28</v>
+      </c>
+      <c r="K16">
+        <v>107.8</v>
+      </c>
+      <c r="L16">
+        <v>691.91</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>-2.6099999999999994</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>-3.6200000000000045</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="2"/>
+        <v>-15.090000000000032</v>
+      </c>
+      <c r="R16">
+        <v>33.94</v>
+      </c>
+      <c r="S16">
+        <v>779.25</v>
+      </c>
+      <c r="T16">
+        <v>48.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>733</v>
+      </c>
+      <c r="D17">
+        <v>443</v>
+      </c>
+      <c r="F17">
+        <v>106.34</v>
+      </c>
+      <c r="G17">
+        <v>81.48</v>
+      </c>
+      <c r="H17">
+        <v>678</v>
+      </c>
+      <c r="J17">
+        <v>101.58</v>
+      </c>
+      <c r="K17">
+        <v>79.819999999999993</v>
+      </c>
+      <c r="L17">
+        <v>663.44</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>-4.7600000000000051</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>-1.6600000000000108</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" si="2"/>
+        <v>-14.559999999999945</v>
+      </c>
+      <c r="R17">
+        <v>-81.760000000000005</v>
+      </c>
+      <c r="S17">
+        <v>770.39</v>
+      </c>
+      <c r="T17">
+        <v>87.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="D2">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="E2">
+        <v>64.19</v>
+      </c>
+      <c r="F2">
+        <v>64.06</v>
+      </c>
+      <c r="G2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>44.61</v>
+      </c>
+      <c r="C3">
+        <v>44.33</v>
+      </c>
+      <c r="D3">
+        <v>41.6</v>
+      </c>
+      <c r="E3">
+        <v>27.76</v>
+      </c>
+      <c r="F3">
+        <v>32.18</v>
+      </c>
+      <c r="G3">
+        <v>53</v>
+      </c>
+      <c r="L3" s="34">
+        <v>1</v>
+      </c>
+      <c r="P3" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>14.34</v>
+      </c>
+      <c r="C4">
+        <v>13.52</v>
+      </c>
+      <c r="D4">
+        <v>8.27</v>
+      </c>
+      <c r="E4">
+        <v>7.03</v>
+      </c>
+      <c r="F4">
+        <v>8.56</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>83.43</v>
+      </c>
+      <c r="C5">
+        <v>86.16</v>
+      </c>
+      <c r="D5">
+        <v>81.25</v>
+      </c>
+      <c r="E5">
+        <v>68.91</v>
+      </c>
+      <c r="F5">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="G5">
+        <v>96</v>
+      </c>
+      <c r="N5" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>47.13</v>
+      </c>
+      <c r="C6">
+        <v>46.85</v>
+      </c>
+      <c r="D6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E6">
+        <v>29.77</v>
+      </c>
+      <c r="F6">
+        <v>34.76</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>12.8</v>
+      </c>
+      <c r="C7">
+        <v>13.5</v>
+      </c>
+      <c r="D7">
+        <v>10.92</v>
+      </c>
+      <c r="E7">
+        <v>8.41</v>
+      </c>
+      <c r="F7">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="L7" s="34">
+        <v>4</v>
+      </c>
+      <c r="P7" s="34">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7821,7 +9171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2:Z16"/>
     </sheetView>
   </sheetViews>
@@ -7980,7 +9330,7 @@
         <f t="shared" ref="X2:Z16" si="1">N2-F2</f>
         <v>7.7700000000000102</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="28">
         <f t="shared" si="1"/>
         <v>2.5699999999999932</v>
       </c>
@@ -7992,7 +9342,7 @@
         <f t="shared" ref="AB2:AD16" si="2">N2-J2</f>
         <v>11.110000000000014</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="33">
         <f t="shared" si="2"/>
         <v>1.0999999999999943</v>
       </c>
@@ -8067,7 +9417,7 @@
         <f t="shared" si="1"/>
         <v>3.2999999999999972</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="28">
         <f t="shared" si="1"/>
         <v>4.0999999999999943</v>
       </c>
@@ -8079,7 +9429,7 @@
         <f t="shared" si="2"/>
         <v>5.9200000000000017</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="33">
         <f t="shared" si="2"/>
         <v>2.6299999999999955</v>
       </c>
@@ -8154,7 +9504,7 @@
         <f t="shared" si="1"/>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="28">
         <f t="shared" si="1"/>
         <v>4.2400000000000091</v>
       </c>
@@ -8166,7 +9516,7 @@
         <f t="shared" si="2"/>
         <v>0.14999999999999858</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="33">
         <f t="shared" si="2"/>
         <v>2.980000000000004</v>
       </c>
@@ -8241,7 +9591,7 @@
         <f t="shared" si="1"/>
         <v>-5.7000000000000028</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="28">
         <f t="shared" si="1"/>
         <v>4.4200000000000017</v>
       </c>
@@ -8253,7 +9603,7 @@
         <f t="shared" si="2"/>
         <v>-4.9399999999999977</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="33">
         <f t="shared" si="2"/>
         <v>3.3599999999999994</v>
       </c>
@@ -8328,7 +9678,7 @@
         <f t="shared" si="1"/>
         <v>-11.090000000000003</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="28">
         <f t="shared" si="1"/>
         <v>5.980000000000004</v>
       </c>
@@ -8340,7 +9690,7 @@
         <f t="shared" si="2"/>
         <v>-10.530000000000001</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="33">
         <f t="shared" si="2"/>
         <v>3.9200000000000017</v>
       </c>
@@ -8365,10 +9715,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="30">
         <v>490</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="30">
         <v>374</v>
       </c>
       <c r="F7">
@@ -8415,7 +9765,7 @@
         <f t="shared" si="1"/>
         <v>7.6699999999999875</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="28">
         <f t="shared" si="1"/>
         <v>-2.7800000000000002</v>
       </c>
@@ -8427,7 +9777,7 @@
         <f t="shared" si="2"/>
         <v>10.659999999999997</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="33">
         <f t="shared" si="2"/>
         <v>-4.46</v>
       </c>
@@ -8452,10 +9802,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="30">
         <v>572</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="30">
         <v>375</v>
       </c>
       <c r="F8">
@@ -8502,7 +9852,7 @@
         <f t="shared" si="1"/>
         <v>2.3400000000000034</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="28">
         <f t="shared" si="1"/>
         <v>-2.16</v>
       </c>
@@ -8514,7 +9864,7 @@
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="33">
         <f t="shared" si="2"/>
         <v>-3.54</v>
       </c>
@@ -8539,10 +9889,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="30">
         <v>652</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="30">
         <v>375</v>
       </c>
       <c r="F9">
@@ -8589,7 +9939,7 @@
         <f t="shared" si="1"/>
         <v>-2.379999999999999</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="28">
         <f t="shared" si="1"/>
         <v>-0.65000000000000036</v>
       </c>
@@ -8601,7 +9951,7 @@
         <f t="shared" si="2"/>
         <v>-0.82000000000000028</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="33">
         <f t="shared" si="2"/>
         <v>-1.9900000000000002</v>
       </c>
@@ -8626,10 +9976,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="30">
         <v>734</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="30">
         <v>376</v>
       </c>
       <c r="F10">
@@ -8676,7 +10026,7 @@
         <f t="shared" si="1"/>
         <v>-8.6299999999999955</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="28">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
       </c>
@@ -8688,7 +10038,7 @@
         <f t="shared" si="2"/>
         <v>-8.1700000000000017</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="33">
         <f t="shared" si="2"/>
         <v>-2.08</v>
       </c>
@@ -8713,10 +10063,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="30">
         <v>816</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="30">
         <v>376</v>
       </c>
       <c r="F11">
@@ -8763,7 +10113,7 @@
         <f t="shared" si="1"/>
         <v>-13.97999999999999</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="28">
         <f t="shared" si="1"/>
         <v>1.4800000000000004</v>
       </c>
@@ -8775,7 +10125,7 @@
         <f t="shared" si="2"/>
         <v>-13.659999999999997</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="33">
         <f t="shared" si="2"/>
         <v>-0.65000000000000036</v>
       </c>
@@ -8850,7 +10200,7 @@
         <f t="shared" si="1"/>
         <v>7.5699999999999932</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="28">
         <f t="shared" si="1"/>
         <v>-5.9499999999999886</v>
       </c>
@@ -8862,7 +10212,7 @@
         <f t="shared" si="2"/>
         <v>9.7299999999999898</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="33">
         <f t="shared" si="2"/>
         <v>-7.2399999999999949</v>
       </c>
@@ -8937,7 +10287,7 @@
         <f t="shared" si="1"/>
         <v>2.3599999999999994</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="28">
         <f t="shared" si="1"/>
         <v>-7.5599999999999881</v>
       </c>
@@ -8949,7 +10299,7 @@
         <f t="shared" si="2"/>
         <v>4.980000000000004</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="33">
         <f t="shared" si="2"/>
         <v>-9.3499999999999943</v>
       </c>
@@ -9024,7 +10374,7 @@
         <f t="shared" si="1"/>
         <v>-3.2699999999999996</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="28">
         <f t="shared" si="1"/>
         <v>-5.6499999999999915</v>
       </c>
@@ -9036,7 +10386,7 @@
         <f t="shared" si="2"/>
         <v>-2.2899999999999991</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="33">
         <f t="shared" si="2"/>
         <v>-7.5699999999999932</v>
       </c>
@@ -9111,7 +10461,7 @@
         <f t="shared" si="1"/>
         <v>-7.7599999999999909</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="28">
         <f t="shared" si="1"/>
         <v>-3.9499999999999886</v>
       </c>
@@ -9123,7 +10473,7 @@
         <f t="shared" si="2"/>
         <v>-6.7999999999999972</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="33">
         <f t="shared" si="2"/>
         <v>-6.3799999999999955</v>
       </c>
@@ -9198,7 +10548,7 @@
         <f t="shared" si="1"/>
         <v>-15.069999999999993</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="28">
         <f t="shared" si="1"/>
         <v>-2.8999999999999915</v>
       </c>
@@ -9210,7 +10560,7 @@
         <f t="shared" si="2"/>
         <v>-14.150000000000006</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="33">
         <f t="shared" si="2"/>
         <v>-4.269999999999996</v>
       </c>
@@ -9241,8 +10591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9785,10 +11135,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="30">
         <v>490</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="30">
         <v>374</v>
       </c>
       <c r="F7">
@@ -9872,10 +11222,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="30">
         <v>571</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="30">
         <v>375</v>
       </c>
       <c r="F8">
@@ -9959,10 +11309,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="30">
         <v>652</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="30">
         <v>376</v>
       </c>
       <c r="F9">
@@ -10046,10 +11396,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="30">
         <v>734</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="30">
         <v>376</v>
       </c>
       <c r="F10">
@@ -10133,10 +11483,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="30">
         <v>815</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="30">
         <v>376</v>
       </c>
       <c r="F11">
@@ -10661,8 +12011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11205,10 +12555,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="30">
         <v>490</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="30">
         <v>374</v>
       </c>
       <c r="F7">
@@ -11292,10 +12642,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="30">
         <v>571</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="30">
         <v>374</v>
       </c>
       <c r="F8">
@@ -11379,10 +12729,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="30">
         <v>652</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="30">
         <v>375</v>
       </c>
       <c r="F9">
@@ -11466,10 +12816,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="30">
         <v>734</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="30">
         <v>374</v>
       </c>
       <c r="F10">
@@ -11553,10 +12903,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="30">
         <v>814</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="30">
         <v>376</v>
       </c>
       <c r="F11">
@@ -16347,7 +17697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2:Z16"/>
     </sheetView>
   </sheetViews>
@@ -17765,10 +19115,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AJ70"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL71" sqref="AL71"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17789,12 +19139,12 @@
     <col min="34" max="34" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -17868,37 +19218,40 @@
         <v>3</v>
       </c>
       <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="C3">
         <v>536</v>
@@ -17951,41 +19304,45 @@
       <c r="X3">
         <v>49.61</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
+        <f>L3-H3</f>
+        <v>-15.620000000000005</v>
+      </c>
+      <c r="AB3">
         <v>152.01</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>607.16</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>49.08</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC10" si="0">R3-J3</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE10" si="0">R3-J3</f>
         <v>-0.43000000000000682</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD10" si="1">V3-Z3</f>
+      <c r="AF3" s="6">
+        <f t="shared" ref="AF3:AF10" si="1">V3-AB3</f>
         <v>2.4000000000000057</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE10" si="2">S3-K3</f>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG10" si="2">S3-K3</f>
         <v>0.67999999999999972</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AF10" si="3">W3-AA3</f>
+      <c r="AH3" s="3">
+        <f t="shared" ref="AH3:AH10" si="3">W3-AC3</f>
         <v>1.2200000000000273</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="4">T3-L3</f>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI10" si="4">T3-L3</f>
         <v>-1.1299999999999955</v>
       </c>
-      <c r="AH3" s="20">
-        <f t="shared" ref="AH3:AH10" si="5">X3-AB3</f>
+      <c r="AJ3" s="20">
+        <f t="shared" ref="AJ3:AJ10" si="5">X3-AD3</f>
         <v>0.53000000000000114</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="C4">
         <v>612</v>
@@ -18038,41 +19395,45 @@
       <c r="X4">
         <v>49.43</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="6">L4-H4</f>
+        <v>-17.149999999999977</v>
+      </c>
+      <c r="AB4">
         <v>54.02</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>611.76</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>53.55</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <f t="shared" si="0"/>
         <v>-1.1899999999999977</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AF4" s="6">
         <f t="shared" si="1"/>
         <v>1.2399999999999949</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <f t="shared" si="2"/>
         <v>1.259999999999998</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AH4" s="3">
         <f t="shared" si="3"/>
         <v>-2.2100000000000364</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <f t="shared" si="4"/>
         <v>4.6599999999999682</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AJ4" s="20">
         <f t="shared" si="5"/>
         <v>-4.1199999999999974</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="C5">
         <v>692</v>
@@ -18125,41 +19486,45 @@
       <c r="X5">
         <v>49.93</v>
       </c>
-      <c r="Z5">
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>-18.019999999999982</v>
+      </c>
+      <c r="AB5">
         <v>-47.59</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>609.07000000000005</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>54.97</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <f t="shared" si="0"/>
         <v>-6.0000000000002274E-2</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AF5" s="6">
         <f t="shared" si="1"/>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <f t="shared" si="2"/>
         <v>2.1099999999999994</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AH5" s="3">
         <f t="shared" si="3"/>
         <v>-0.99000000000000909</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <f t="shared" si="4"/>
         <v>4.6899999999999409</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AJ5" s="20">
         <f t="shared" si="5"/>
         <v>-5.0399999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="C6">
         <v>768</v>
@@ -18212,41 +19577,45 @@
       <c r="X6">
         <v>50.39</v>
       </c>
-      <c r="Z6">
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>-17.230000000000018</v>
+      </c>
+      <c r="AB6">
         <v>-144.26</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>606.5</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>54.34</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <f t="shared" si="0"/>
         <v>0.87999999999999545</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AF6" s="6">
         <f t="shared" si="1"/>
         <v>-0.92000000000001592</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <f t="shared" si="2"/>
         <v>3.620000000000001</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AH6" s="3">
         <f t="shared" si="3"/>
         <v>1.6200000000000045</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <f t="shared" si="4"/>
         <v>2.2799999999999727</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AJ6" s="20">
         <f t="shared" si="5"/>
         <v>-3.9500000000000028</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7">
         <v>527</v>
@@ -18299,41 +19668,45 @@
       <c r="X7">
         <v>49.28</v>
       </c>
-      <c r="Z7">
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>-17.009999999999991</v>
+      </c>
+      <c r="AB7">
         <v>151.63999999999999</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>705.76</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>47.13</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <f t="shared" si="0"/>
         <v>-0.15999999999999659</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AF7" s="6">
         <f t="shared" si="1"/>
         <v>0.17000000000001592</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <f t="shared" si="2"/>
         <v>-1.1900000000000048</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AH7" s="3">
         <f t="shared" si="3"/>
         <v>7.0000000000050022E-2</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <f t="shared" si="4"/>
         <v>-1.7899999999999636</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AJ7" s="20">
         <f t="shared" si="5"/>
         <v>2.1499999999999986</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="C8">
         <v>610</v>
@@ -18386,41 +19759,45 @@
       <c r="X8">
         <v>48.99</v>
       </c>
-      <c r="Z8">
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-17.029999999999973</v>
+      </c>
+      <c r="AB8">
         <v>52.32</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>706.72</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>49.86</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <f t="shared" si="0"/>
         <v>-1.9099999999999966</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AF8" s="6">
         <f t="shared" si="1"/>
         <v>1.9299999999999997</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <f t="shared" si="2"/>
         <v>-0.24000000000000199</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AH8" s="3">
         <f t="shared" si="3"/>
         <v>0.12999999999999545</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <f t="shared" si="4"/>
         <v>1.2400000000000091</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AJ8" s="20">
         <f t="shared" si="5"/>
         <v>-0.86999999999999744</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="C9">
         <v>695</v>
@@ -18473,41 +19850,45 @@
       <c r="X9">
         <v>49.26</v>
       </c>
-      <c r="Z9">
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>-16.490000000000009</v>
+      </c>
+      <c r="AB9">
         <v>-48.32</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>707.34</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>52.11</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <f t="shared" si="0"/>
         <v>-0.94000000000001194</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AF9" s="6">
         <f t="shared" si="1"/>
         <v>0.93999999999999773</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <f t="shared" si="2"/>
         <v>1.3400000000000034</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AH9" s="3">
         <f t="shared" si="3"/>
         <v>-0.36000000000001364</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <f t="shared" si="4"/>
         <v>2.5600000000000591</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AJ9" s="20">
         <f t="shared" si="5"/>
         <v>-2.8500000000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10">
         <v>778</v>
@@ -18560,44 +19941,48 @@
       <c r="X10">
         <v>49.89</v>
       </c>
-      <c r="Z10">
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>-16.42999999999995</v>
+      </c>
+      <c r="AB10">
         <v>-146.85</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>704.14</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>50.35</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <f t="shared" si="0"/>
         <v>-1.7800000000000011</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AF10" s="6">
         <f t="shared" si="1"/>
         <v>1.7399999999999807</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <f t="shared" si="2"/>
         <v>1.1499999999999986</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AH10" s="3">
         <f t="shared" si="3"/>
         <v>1.1299999999999955</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <f t="shared" si="4"/>
         <v>-0.25</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AJ10" s="20">
         <f t="shared" si="5"/>
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -18670,38 +20055,38 @@
       <c r="X12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>16</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>1</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>2</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>3</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>20</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AI12" t="s">
         <v>24</v>
       </c>
-      <c r="AH12" s="20" t="s">
+      <c r="AJ12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="C13">
         <v>525</v>
@@ -18755,41 +20140,41 @@
       <c r="X13" s="21">
         <v>49.89</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>168.3</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>590.65</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>48.66</v>
       </c>
-      <c r="AC13">
-        <f t="shared" ref="AC13:AC20" si="6">R13-J13</f>
+      <c r="AE13">
+        <f t="shared" ref="AE13:AE20" si="7">R13-J13</f>
         <v>0.25999999999999091</v>
       </c>
-      <c r="AD13" s="6">
-        <f t="shared" ref="AD13:AD20" si="7">V13-Z13</f>
+      <c r="AF13" s="6">
+        <f t="shared" ref="AF13:AF20" si="8">V13-AB13</f>
         <v>-0.28000000000000114</v>
       </c>
-      <c r="AE13">
-        <f t="shared" ref="AE13:AE20" si="8">S13-K13</f>
+      <c r="AG13">
+        <f t="shared" ref="AG13:AG20" si="9">S13-K13</f>
         <v>0.39999999999999858</v>
       </c>
-      <c r="AF13" s="3">
-        <f t="shared" ref="AF13:AF20" si="9">W13-AA13</f>
+      <c r="AH13" s="3">
+        <f t="shared" ref="AH13:AH20" si="10">W13-AC13</f>
         <v>1.3600000000000136</v>
       </c>
-      <c r="AG13">
-        <f t="shared" ref="AG13:AG20" si="10">T13-L13</f>
+      <c r="AI13">
+        <f t="shared" ref="AI13:AI20" si="11">T13-L13</f>
         <v>-1.7900000000000773</v>
       </c>
-      <c r="AH13" s="20">
-        <f t="shared" ref="AH13:AH20" si="11">X13-AB13</f>
+      <c r="AJ13" s="20">
+        <f t="shared" ref="AJ13:AJ20" si="12">X13-AD13</f>
         <v>1.230000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14">
         <v>600</v>
@@ -18843,41 +20228,41 @@
       <c r="X14" s="21">
         <v>50.06</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>70.290000000000006</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>593.96</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>53.32</v>
       </c>
-      <c r="AC14">
-        <f t="shared" si="6"/>
+      <c r="AE14">
+        <f t="shared" si="7"/>
         <v>-0.25</v>
       </c>
-      <c r="AD14" s="6">
-        <f t="shared" si="7"/>
+      <c r="AF14" s="6">
+        <f t="shared" si="8"/>
         <v>0.28999999999999204</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="8"/>
+      <c r="AG14">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AF14" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH14" s="3">
+        <f t="shared" si="10"/>
         <v>-1.6700000000000728</v>
       </c>
-      <c r="AG14">
-        <f t="shared" si="10"/>
+      <c r="AI14">
+        <f t="shared" si="11"/>
         <v>3.6399999999999864</v>
       </c>
-      <c r="AH14" s="20">
-        <f t="shared" si="11"/>
+      <c r="AJ14" s="20">
+        <f t="shared" si="12"/>
         <v>-3.259999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="C15">
         <v>680</v>
@@ -18931,41 +20316,41 @@
       <c r="X15" s="21">
         <v>49.89</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>-32.74</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>593.55999999999995</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>53.52</v>
       </c>
-      <c r="AC15">
-        <f t="shared" si="6"/>
+      <c r="AE15">
+        <f t="shared" si="7"/>
         <v>-1.3800000000000026</v>
       </c>
-      <c r="AD15" s="6">
-        <f t="shared" si="7"/>
+      <c r="AF15" s="6">
+        <f t="shared" si="8"/>
         <v>1.3900000000000006</v>
       </c>
-      <c r="AE15">
-        <f t="shared" si="8"/>
+      <c r="AG15">
+        <f t="shared" si="9"/>
         <v>1.1700000000000017</v>
       </c>
-      <c r="AF15" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH15" s="3">
+        <f t="shared" si="10"/>
         <v>-1.1099999999999</v>
       </c>
-      <c r="AG15">
-        <f t="shared" si="10"/>
+      <c r="AI15">
+        <f t="shared" si="11"/>
         <v>3.6300000000001091</v>
       </c>
-      <c r="AH15" s="20">
-        <f t="shared" si="11"/>
+      <c r="AJ15" s="20">
+        <f t="shared" si="12"/>
         <v>-3.6300000000000026</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="C16">
         <v>755</v>
@@ -19019,41 +20404,41 @@
       <c r="X16" s="21">
         <v>50.6</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>-129.32</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>590.09</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>53.83</v>
       </c>
-      <c r="AC16">
-        <f t="shared" si="6"/>
+      <c r="AE16">
+        <f t="shared" si="7"/>
         <v>-0.96999999999999886</v>
       </c>
-      <c r="AD16" s="6">
-        <f t="shared" si="7"/>
+      <c r="AF16" s="6">
+        <f t="shared" si="8"/>
         <v>0.93000000000000682</v>
       </c>
-      <c r="AE16">
-        <f t="shared" si="8"/>
+      <c r="AG16">
+        <f t="shared" si="9"/>
         <v>2.9299999999999997</v>
       </c>
-      <c r="AF16" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH16" s="3">
+        <f t="shared" si="10"/>
         <v>1.3199999999999363</v>
       </c>
-      <c r="AG16">
-        <f t="shared" si="10"/>
+      <c r="AI16">
+        <f t="shared" si="11"/>
         <v>1.8999999999999773</v>
       </c>
-      <c r="AH16" s="20">
-        <f t="shared" si="11"/>
+      <c r="AJ16" s="20">
+        <f t="shared" si="12"/>
         <v>-3.2299999999999969</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="C17">
         <v>515</v>
@@ -19107,41 +20492,41 @@
       <c r="X17" s="21">
         <v>49.73</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>167.6</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>690.76</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>49.87</v>
       </c>
-      <c r="AC17">
-        <f t="shared" si="6"/>
+      <c r="AE17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="6">
-        <f t="shared" si="7"/>
+      <c r="AF17" s="6">
+        <f t="shared" si="8"/>
         <v>0.39000000000001478</v>
       </c>
-      <c r="AE17">
-        <f t="shared" si="8"/>
+      <c r="AG17">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH17" s="3">
+        <f t="shared" si="10"/>
         <v>-0.5</v>
       </c>
-      <c r="AG17">
-        <f t="shared" si="10"/>
+      <c r="AI17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="20">
-        <f t="shared" si="11"/>
+      <c r="AJ17" s="20">
+        <f t="shared" si="12"/>
         <v>-0.14000000000000057</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="C18">
         <v>596</v>
@@ -19195,41 +20580,41 @@
       <c r="X18" s="21">
         <v>49.29</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>69.88</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>690.54</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>50.54</v>
       </c>
-      <c r="AC18">
-        <f t="shared" si="6"/>
+      <c r="AE18">
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="AD18" s="6">
-        <f t="shared" si="7"/>
+      <c r="AF18" s="6">
+        <f t="shared" si="8"/>
         <v>0.51000000000000512</v>
       </c>
-      <c r="AE18">
-        <f t="shared" si="8"/>
+      <c r="AG18">
+        <f t="shared" si="9"/>
         <v>1.2199999999999989</v>
       </c>
-      <c r="AF18" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH18" s="3">
+        <f t="shared" si="10"/>
         <v>-8.9999999999918145E-2</v>
       </c>
-      <c r="AG18">
-        <f t="shared" si="10"/>
+      <c r="AI18">
+        <f t="shared" si="11"/>
         <v>1.8999999999999773</v>
       </c>
-      <c r="AH18" s="20">
-        <f t="shared" si="11"/>
+      <c r="AJ18" s="20">
+        <f t="shared" si="12"/>
         <v>-1.25</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="C19">
         <v>681</v>
@@ -19283,41 +20668,41 @@
       <c r="X19" s="21">
         <v>49.55</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>-32.25</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>688.55</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>50.85</v>
       </c>
-      <c r="AC19">
-        <f t="shared" si="6"/>
+      <c r="AE19">
+        <f t="shared" si="7"/>
         <v>-0.89000000000000057</v>
       </c>
-      <c r="AD19" s="6">
-        <f t="shared" si="7"/>
+      <c r="AF19" s="6">
+        <f t="shared" si="8"/>
         <v>0.85999999999999943</v>
       </c>
-      <c r="AE19">
-        <f t="shared" si="8"/>
+      <c r="AG19">
+        <f t="shared" si="9"/>
         <v>1.7100000000000009</v>
       </c>
-      <c r="AF19" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH19" s="3">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="AG19">
-        <f t="shared" si="10"/>
+      <c r="AI19">
+        <f t="shared" si="11"/>
         <v>0.36000000000001364</v>
       </c>
-      <c r="AH19" s="20">
-        <f t="shared" si="11"/>
+      <c r="AJ19" s="20">
+        <f t="shared" si="12"/>
         <v>-1.3000000000000043</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="C20">
         <v>761</v>
@@ -19371,44 +20756,44 @@
       <c r="X20" s="21">
         <v>50.07</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>-128.33000000000001</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>686.55</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>50.94</v>
       </c>
-      <c r="AC20">
-        <f t="shared" si="6"/>
+      <c r="AE20">
+        <f t="shared" si="7"/>
         <v>-0.32999999999998408</v>
       </c>
-      <c r="AD20" s="6">
-        <f t="shared" si="7"/>
+      <c r="AF20" s="6">
+        <f t="shared" si="8"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="AE20">
-        <f t="shared" si="8"/>
+      <c r="AG20">
+        <f t="shared" si="9"/>
         <v>2.480000000000004</v>
       </c>
-      <c r="AF20" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH20" s="3">
+        <f t="shared" si="10"/>
         <v>2.4300000000000637</v>
       </c>
-      <c r="AG20">
-        <f t="shared" si="10"/>
+      <c r="AI20">
+        <f t="shared" si="11"/>
         <v>-0.68000000000006366</v>
       </c>
-      <c r="AH20" s="20">
-        <f t="shared" si="11"/>
+      <c r="AJ20" s="20">
+        <f t="shared" si="12"/>
         <v>-0.86999999999999744</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
@@ -19481,38 +20866,38 @@
       <c r="X22" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>16</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AB22" t="s">
         <v>1</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>2</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AD22" t="s">
         <v>3</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>20</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AF22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AG22" t="s">
         <v>22</v>
       </c>
-      <c r="AF22" s="3" t="s">
+      <c r="AH22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AI22" t="s">
         <v>24</v>
       </c>
-      <c r="AH22" s="20" t="s">
+      <c r="AJ22" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="C23">
         <v>550</v>
@@ -19566,41 +20951,41 @@
       <c r="X23" s="21">
         <v>49.87</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>135.5</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>591.21</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>50.22</v>
       </c>
-      <c r="AC23">
-        <f t="shared" ref="AC23:AC30" si="12">R23-J23</f>
+      <c r="AE23">
+        <f t="shared" ref="AE23:AE30" si="13">R23-J23</f>
         <v>-0.46999999999999886</v>
       </c>
-      <c r="AD23" s="6">
-        <f t="shared" ref="AD23:AD30" si="13">V23-Z23</f>
+      <c r="AF23" s="6">
+        <f t="shared" ref="AF23:AF30" si="14">V23-AB23</f>
         <v>0.44999999999998863</v>
       </c>
-      <c r="AE23">
-        <f t="shared" ref="AE23:AE30" si="14">S23-K23</f>
+      <c r="AG23">
+        <f t="shared" ref="AG23:AG30" si="15">S23-K23</f>
         <v>1.1300000000000026</v>
       </c>
-      <c r="AF23" s="3">
-        <f t="shared" ref="AF23:AF30" si="15">W23-AA23</f>
+      <c r="AH23" s="3">
+        <f t="shared" ref="AH23:AH30" si="16">W23-AC23</f>
         <v>1.1499999999999773</v>
       </c>
-      <c r="AG23">
-        <f t="shared" ref="AG23:AG30" si="16">T23-L23</f>
+      <c r="AI23">
+        <f t="shared" ref="AI23:AI30" si="17">T23-L23</f>
         <v>-0.37000000000000455</v>
       </c>
-      <c r="AH23" s="20">
-        <f t="shared" ref="AH23:AH30" si="17">X23-AB23</f>
+      <c r="AJ23" s="20">
+        <f t="shared" ref="AJ23:AJ30" si="18">X23-AD23</f>
         <v>-0.35000000000000142</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="C24">
         <v>625</v>
@@ -19654,41 +21039,41 @@
       <c r="X24" s="21">
         <v>49.69</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>38.119999999999997</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>592.28</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>52.08</v>
       </c>
-      <c r="AC24">
-        <f t="shared" si="12"/>
+      <c r="AE24">
+        <f t="shared" si="13"/>
         <v>-0.38000000000000078</v>
       </c>
-      <c r="AD24" s="6">
-        <f t="shared" si="13"/>
+      <c r="AF24" s="6">
+        <f t="shared" si="14"/>
         <v>0.39000000000000057</v>
       </c>
-      <c r="AE24">
-        <f t="shared" si="14"/>
+      <c r="AG24">
+        <f t="shared" si="15"/>
         <v>1.4699999999999989</v>
       </c>
-      <c r="AF24" s="3">
-        <f t="shared" si="15"/>
+      <c r="AH24" s="3">
+        <f t="shared" si="16"/>
         <v>0.12000000000000455</v>
       </c>
-      <c r="AG24">
-        <f t="shared" si="16"/>
+      <c r="AI24">
+        <f t="shared" si="17"/>
         <v>1.8899999999999864</v>
       </c>
-      <c r="AH24" s="20">
-        <f t="shared" si="17"/>
+      <c r="AJ24" s="20">
+        <f t="shared" si="18"/>
         <v>-2.3900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="C25">
         <v>705</v>
@@ -19742,41 +21127,41 @@
       <c r="X25" s="21">
         <v>50.32</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>-64.87</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>591.91</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>54.38</v>
       </c>
-      <c r="AC25">
-        <f t="shared" si="12"/>
+      <c r="AE25">
+        <f t="shared" si="13"/>
         <v>0.54999999999999716</v>
       </c>
-      <c r="AD25" s="6">
-        <f t="shared" si="13"/>
+      <c r="AF25" s="6">
+        <f t="shared" si="14"/>
         <v>-0.56999999999999318</v>
       </c>
-      <c r="AE25">
-        <f t="shared" si="14"/>
+      <c r="AG25">
+        <f t="shared" si="15"/>
         <v>2.4500000000000028</v>
       </c>
-      <c r="AF25" s="3">
-        <f t="shared" si="15"/>
+      <c r="AH25" s="3">
+        <f t="shared" si="16"/>
         <v>0.11000000000001364</v>
       </c>
-      <c r="AG25">
-        <f t="shared" si="16"/>
+      <c r="AI25">
+        <f t="shared" si="17"/>
         <v>3.25</v>
       </c>
-      <c r="AH25" s="20">
-        <f t="shared" si="17"/>
+      <c r="AJ25" s="20">
+        <f t="shared" si="18"/>
         <v>-4.0600000000000023</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="C26">
         <v>781</v>
@@ -19830,41 +21215,41 @@
       <c r="X26" s="21">
         <v>50.71</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>-162.97</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>588.87</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>53.22</v>
       </c>
-      <c r="AC26">
-        <f t="shared" si="12"/>
+      <c r="AE26">
+        <f t="shared" si="13"/>
         <v>-1.0800000000000125</v>
       </c>
-      <c r="AD26" s="6">
-        <f t="shared" si="13"/>
+      <c r="AF26" s="6">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AE26">
-        <f t="shared" si="14"/>
+      <c r="AG26">
+        <f t="shared" si="15"/>
         <v>4.0100000000000051</v>
       </c>
-      <c r="AF26" s="3">
-        <f t="shared" si="15"/>
+      <c r="AH26" s="3">
+        <f t="shared" si="16"/>
         <v>3.1599999999999682</v>
       </c>
-      <c r="AG26">
-        <f t="shared" si="16"/>
+      <c r="AI26">
+        <f t="shared" si="17"/>
         <v>0.24000000000000909</v>
       </c>
-      <c r="AH26" s="20">
-        <f t="shared" si="17"/>
+      <c r="AJ26" s="20">
+        <f t="shared" si="18"/>
         <v>-2.509999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="C27">
         <v>542</v>
@@ -19918,41 +21303,41 @@
       <c r="X27" s="21">
         <v>49.84</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>135.41</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <v>688.98</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>48.17</v>
       </c>
-      <c r="AC27">
-        <f t="shared" si="12"/>
+      <c r="AE27">
+        <f t="shared" si="13"/>
         <v>0.29000000000000625</v>
       </c>
-      <c r="AD27" s="6">
-        <f t="shared" si="13"/>
+      <c r="AF27" s="6">
+        <f t="shared" si="14"/>
         <v>-0.28999999999999204</v>
       </c>
-      <c r="AE27">
-        <f t="shared" si="14"/>
+      <c r="AG27">
+        <f t="shared" si="15"/>
         <v>-0.59000000000000341</v>
       </c>
-      <c r="AF27" s="3">
-        <f t="shared" si="15"/>
+      <c r="AH27" s="3">
+        <f t="shared" si="16"/>
         <v>0.44999999999993179</v>
       </c>
-      <c r="AG27">
-        <f t="shared" si="16"/>
+      <c r="AI27">
+        <f t="shared" si="17"/>
         <v>-1.6200000000000045</v>
       </c>
-      <c r="AH27" s="20">
-        <f t="shared" si="17"/>
+      <c r="AJ27" s="20">
+        <f t="shared" si="18"/>
         <v>1.6700000000000017</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="C28">
         <v>624</v>
@@ -20006,41 +21391,41 @@
       <c r="X28" s="21">
         <v>48.94</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>36.229999999999997</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>689.78</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>50.48</v>
       </c>
-      <c r="AC28">
-        <f t="shared" si="12"/>
+      <c r="AE28">
+        <f t="shared" si="13"/>
         <v>-1.3600000000000012</v>
       </c>
-      <c r="AD28" s="6">
-        <f t="shared" si="13"/>
+      <c r="AF28" s="6">
+        <f t="shared" si="14"/>
         <v>1.3600000000000065</v>
       </c>
-      <c r="AE28">
-        <f t="shared" si="14"/>
+      <c r="AG28">
+        <f t="shared" si="15"/>
         <v>1.2800000000000011</v>
       </c>
-      <c r="AF28" s="3">
-        <f t="shared" si="15"/>
+      <c r="AH28" s="3">
+        <f t="shared" si="16"/>
         <v>0.50999999999999091</v>
       </c>
-      <c r="AG28">
-        <f t="shared" si="16"/>
+      <c r="AI28">
+        <f t="shared" si="17"/>
         <v>0.98000000000001819</v>
       </c>
-      <c r="AH28" s="20">
-        <f t="shared" si="17"/>
+      <c r="AJ28" s="20">
+        <f t="shared" si="18"/>
         <v>-1.5399999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="C29">
         <v>710</v>
@@ -20094,41 +21479,41 @@
       <c r="X29" s="21">
         <v>49.2</v>
       </c>
-      <c r="Z29">
+      <c r="AB29">
         <v>-66.94</v>
       </c>
-      <c r="AA29">
+      <c r="AC29">
         <v>688.51</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <v>51.95</v>
       </c>
-      <c r="AC29">
-        <f t="shared" si="12"/>
+      <c r="AE29">
+        <f t="shared" si="13"/>
         <v>-1.4099999999999966</v>
       </c>
-      <c r="AD29" s="6">
-        <f t="shared" si="13"/>
+      <c r="AF29" s="6">
+        <f t="shared" si="14"/>
         <v>1.3799999999999955</v>
       </c>
-      <c r="AE29">
-        <f t="shared" si="14"/>
+      <c r="AG29">
+        <f t="shared" si="15"/>
         <v>2.2399999999999949</v>
       </c>
-      <c r="AF29" s="3">
-        <f t="shared" si="15"/>
+      <c r="AH29" s="3">
+        <f t="shared" si="16"/>
         <v>0.83000000000004093</v>
       </c>
-      <c r="AG29">
-        <f t="shared" si="16"/>
+      <c r="AI29">
+        <f t="shared" si="17"/>
         <v>1.7900000000000773</v>
       </c>
-      <c r="AH29" s="20">
-        <f t="shared" si="17"/>
+      <c r="AJ29" s="20">
+        <f t="shared" si="18"/>
         <v>-2.75</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="C30">
         <v>791</v>
@@ -20182,44 +21567,44 @@
       <c r="X30" s="21">
         <v>49.73</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>-163.98</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <v>687.68</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>51.67</v>
       </c>
-      <c r="AC30">
-        <f t="shared" si="12"/>
+      <c r="AE30">
+        <f t="shared" si="13"/>
         <v>-1.6400000000000148</v>
       </c>
-      <c r="AD30" s="6">
-        <f t="shared" si="13"/>
+      <c r="AF30" s="6">
+        <f t="shared" si="14"/>
         <v>1.5600000000000023</v>
       </c>
-      <c r="AE30">
-        <f t="shared" si="14"/>
+      <c r="AG30">
+        <f t="shared" si="15"/>
         <v>3.1099999999999994</v>
       </c>
-      <c r="AF30" s="3">
-        <f t="shared" si="15"/>
+      <c r="AH30" s="3">
+        <f t="shared" si="16"/>
         <v>2.4700000000000273</v>
       </c>
-      <c r="AG30">
-        <f t="shared" si="16"/>
+      <c r="AI30">
+        <f t="shared" si="17"/>
         <v>0.18000000000006366</v>
       </c>
-      <c r="AH30" s="20">
-        <f t="shared" si="17"/>
+      <c r="AJ30" s="20">
+        <f t="shared" si="18"/>
         <v>-1.9400000000000048</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
@@ -20292,38 +21677,38 @@
       <c r="X32" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="AA32" t="s">
         <v>16</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AB32" t="s">
         <v>1</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AC32" t="s">
         <v>2</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AD32" t="s">
         <v>3</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AE32" t="s">
         <v>20</v>
       </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AF32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AG32" t="s">
         <v>22</v>
       </c>
-      <c r="AF32" s="3" t="s">
+      <c r="AH32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AI32" t="s">
         <v>24</v>
       </c>
-      <c r="AH32" s="20" t="s">
+      <c r="AJ32" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="C33">
         <v>522</v>
@@ -20377,41 +21762,41 @@
       <c r="X33" s="21">
         <v>49.5</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <v>167.97</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>623.42999999999995</v>
       </c>
-      <c r="AB33">
+      <c r="AD33">
         <v>48.83</v>
       </c>
-      <c r="AC33">
-        <f t="shared" ref="AC33:AC40" si="18">R33-J33</f>
+      <c r="AE33">
+        <f t="shared" ref="AE33:AE40" si="19">R33-J33</f>
         <v>-6.0000000000002274E-2</v>
       </c>
-      <c r="AD33" s="6">
-        <f t="shared" ref="AD33:AD40" si="19">V33-Z33</f>
+      <c r="AF33" s="6">
+        <f t="shared" ref="AF33:AF40" si="20">V33-AB33</f>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="AE33">
-        <f t="shared" ref="AE33:AE40" si="20">S33-K33</f>
+      <c r="AG33">
+        <f t="shared" ref="AG33:AG40" si="21">S33-K33</f>
         <v>0.91999999999999815</v>
       </c>
-      <c r="AF33" s="3">
-        <f t="shared" ref="AF33:AF40" si="21">W33-AA33</f>
+      <c r="AH33" s="3">
+        <f t="shared" ref="AH33:AH40" si="22">W33-AC33</f>
         <v>1.6000000000000227</v>
       </c>
-      <c r="AG33">
-        <f t="shared" ref="AG33:AG40" si="22">T33-L33</f>
+      <c r="AI33">
+        <f t="shared" ref="AI33:AI40" si="23">T33-L33</f>
         <v>-1.4700000000000273</v>
       </c>
-      <c r="AH33" s="20">
-        <f t="shared" ref="AH33:AH40" si="23">X33-AB33</f>
+      <c r="AJ33" s="20">
+        <f t="shared" ref="AJ33:AJ40" si="24">X33-AD33</f>
         <v>0.67000000000000171</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="C34">
         <v>598</v>
@@ -20465,41 +21850,41 @@
       <c r="X34" s="21">
         <v>49.7</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <v>71.17</v>
       </c>
-      <c r="AA34">
+      <c r="AC34">
         <v>624.23</v>
       </c>
-      <c r="AB34">
+      <c r="AD34">
         <v>52.66</v>
       </c>
-      <c r="AC34">
-        <f t="shared" si="18"/>
+      <c r="AE34">
+        <f t="shared" si="19"/>
         <v>-9.9999999999980105E-3</v>
       </c>
-      <c r="AD34" s="6">
-        <f t="shared" si="19"/>
+      <c r="AF34" s="6">
+        <f t="shared" si="20"/>
         <v>-3.0000000000001137E-2</v>
       </c>
-      <c r="AE34">
-        <f t="shared" si="20"/>
+      <c r="AG34">
+        <f t="shared" si="21"/>
         <v>3.25</v>
       </c>
-      <c r="AF34" s="3">
-        <f t="shared" si="21"/>
+      <c r="AH34" s="3">
+        <f t="shared" si="22"/>
         <v>1.8899999999999864</v>
       </c>
-      <c r="AG34">
-        <f t="shared" si="22"/>
+      <c r="AI34">
+        <f t="shared" si="23"/>
         <v>1.3299999999999272</v>
       </c>
-      <c r="AH34" s="20">
-        <f t="shared" si="23"/>
+      <c r="AJ34" s="20">
+        <f t="shared" si="24"/>
         <v>-2.9599999999999937</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="C35">
         <v>680</v>
@@ -20553,41 +21938,41 @@
       <c r="X35" s="21">
         <v>49.95</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>-32.090000000000003</v>
       </c>
-      <c r="AA35">
+      <c r="AC35">
         <v>623.58000000000004</v>
       </c>
-      <c r="AB35">
+      <c r="AD35">
         <v>54.75</v>
       </c>
-      <c r="AC35">
-        <f t="shared" si="18"/>
+      <c r="AE35">
+        <f t="shared" si="19"/>
         <v>-0.76999999999999602</v>
       </c>
-      <c r="AD35" s="6">
-        <f t="shared" si="19"/>
+      <c r="AF35" s="6">
+        <f t="shared" si="20"/>
         <v>0.74000000000000199</v>
       </c>
-      <c r="AE35">
-        <f t="shared" si="20"/>
+      <c r="AG35">
+        <f t="shared" si="21"/>
         <v>3.490000000000002</v>
       </c>
-      <c r="AF35" s="3">
-        <f t="shared" si="21"/>
+      <c r="AH35" s="3">
+        <f t="shared" si="22"/>
         <v>0.90999999999996817</v>
       </c>
-      <c r="AG35">
-        <f t="shared" si="22"/>
+      <c r="AI35">
+        <f t="shared" si="23"/>
         <v>3.3999999999999773</v>
       </c>
-      <c r="AH35" s="20">
-        <f t="shared" si="23"/>
+      <c r="AJ35" s="20">
+        <f t="shared" si="24"/>
         <v>-4.7999999999999972</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="C36">
         <v>756</v>
@@ -20641,41 +22026,41 @@
       <c r="X36" s="21">
         <v>50.39</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>-128.28</v>
       </c>
-      <c r="AA36">
+      <c r="AC36">
         <v>619.32000000000005</v>
       </c>
-      <c r="AB36">
+      <c r="AD36">
         <v>51.82</v>
       </c>
-      <c r="AC36">
-        <f t="shared" si="18"/>
+      <c r="AE36">
+        <f t="shared" si="19"/>
         <v>-0.22999999999998977</v>
       </c>
-      <c r="AD36" s="6">
-        <f t="shared" si="19"/>
+      <c r="AF36" s="6">
+        <f t="shared" si="20"/>
         <v>0.12999999999999545</v>
       </c>
-      <c r="AE36">
-        <f t="shared" si="20"/>
+      <c r="AG36">
+        <f t="shared" si="21"/>
         <v>4.4600000000000009</v>
       </c>
-      <c r="AF36" s="3">
-        <f t="shared" si="21"/>
+      <c r="AH36" s="3">
+        <f t="shared" si="22"/>
         <v>4.4499999999999318</v>
       </c>
-      <c r="AG36">
-        <f t="shared" si="22"/>
+      <c r="AI36">
+        <f t="shared" si="23"/>
         <v>-1.3999999999999773</v>
       </c>
-      <c r="AH36" s="20">
-        <f t="shared" si="23"/>
+      <c r="AJ36" s="20">
+        <f t="shared" si="24"/>
         <v>-1.4299999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="C37">
         <v>511</v>
@@ -20729,41 +22114,41 @@
       <c r="X37" s="21">
         <v>49.32</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>168.84</v>
       </c>
-      <c r="AA37">
+      <c r="AC37">
         <v>719.99</v>
       </c>
-      <c r="AB37">
+      <c r="AD37">
         <v>47.03</v>
       </c>
-      <c r="AC37">
-        <f t="shared" si="18"/>
+      <c r="AE37">
+        <f t="shared" si="19"/>
         <v>0.81000000000000227</v>
       </c>
-      <c r="AD37" s="6">
-        <f t="shared" si="19"/>
+      <c r="AF37" s="6">
+        <f t="shared" si="20"/>
         <v>-0.84999999999999432</v>
       </c>
-      <c r="AE37">
-        <f t="shared" si="20"/>
+      <c r="AG37">
+        <f t="shared" si="21"/>
         <v>0.39999999999999858</v>
       </c>
-      <c r="AF37" s="3">
-        <f t="shared" si="21"/>
+      <c r="AH37" s="3">
+        <f t="shared" si="22"/>
         <v>2.0900000000000318</v>
       </c>
-      <c r="AG37">
-        <f t="shared" si="22"/>
+      <c r="AI37">
+        <f t="shared" si="23"/>
         <v>-3.0799999999999272</v>
       </c>
-      <c r="AH37" s="20">
-        <f t="shared" si="23"/>
+      <c r="AJ37" s="20">
+        <f t="shared" si="24"/>
         <v>2.2899999999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="C38">
         <v>594</v>
@@ -20817,41 +22202,41 @@
       <c r="X38" s="21">
         <v>48.98</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <v>70.45</v>
       </c>
-      <c r="AA38">
+      <c r="AC38">
         <v>721.93</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <v>49.24</v>
       </c>
-      <c r="AC38">
-        <f t="shared" si="18"/>
+      <c r="AE38">
+        <f t="shared" si="19"/>
         <v>-9.0000000000003411E-2</v>
       </c>
-      <c r="AD38" s="6">
-        <f t="shared" si="19"/>
+      <c r="AF38" s="6">
+        <f t="shared" si="20"/>
         <v>6.9999999999993179E-2</v>
       </c>
-      <c r="AE38">
-        <f t="shared" si="20"/>
+      <c r="AG38">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AF38" s="3">
-        <f t="shared" si="21"/>
+      <c r="AH38" s="3">
+        <f t="shared" si="22"/>
         <v>1.0400000000000773</v>
       </c>
-      <c r="AG38">
-        <f t="shared" si="22"/>
+      <c r="AI38">
+        <f t="shared" si="23"/>
         <v>-0.37999999999999545</v>
       </c>
-      <c r="AH38" s="20">
-        <f t="shared" si="23"/>
+      <c r="AJ38" s="20">
+        <f t="shared" si="24"/>
         <v>-0.26000000000000512</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="C39">
         <v>681</v>
@@ -20905,41 +22290,41 @@
       <c r="X39" s="21">
         <v>49.22</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <v>-31.52</v>
       </c>
-      <c r="AA39">
+      <c r="AC39">
         <v>722.38</v>
       </c>
-      <c r="AB39">
+      <c r="AD39">
         <v>51.4</v>
       </c>
-      <c r="AC39">
-        <f t="shared" si="18"/>
+      <c r="AE39">
+        <f t="shared" si="19"/>
         <v>0.18999999999999773</v>
       </c>
-      <c r="AD39" s="6">
-        <f t="shared" si="19"/>
+      <c r="AF39" s="6">
+        <f t="shared" si="20"/>
         <v>-0.21999999999999886</v>
       </c>
-      <c r="AE39">
-        <f t="shared" si="20"/>
+      <c r="AG39">
+        <f t="shared" si="21"/>
         <v>2.1499999999999986</v>
       </c>
-      <c r="AF39" s="3">
-        <f t="shared" si="21"/>
+      <c r="AH39" s="3">
+        <f t="shared" si="22"/>
         <v>1.0900000000000318</v>
       </c>
-      <c r="AG39">
-        <f t="shared" si="22"/>
+      <c r="AI39">
+        <f t="shared" si="23"/>
         <v>1.1499999999999773</v>
       </c>
-      <c r="AH39" s="20">
-        <f t="shared" si="23"/>
+      <c r="AJ39" s="20">
+        <f t="shared" si="24"/>
         <v>-2.1799999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="C40">
         <v>766</v>
@@ -20993,44 +22378,44 @@
       <c r="X40" s="21">
         <v>49.86</v>
       </c>
-      <c r="Z40">
+      <c r="AB40">
         <v>-130.88</v>
       </c>
-      <c r="AA40">
+      <c r="AC40">
         <v>721.25</v>
       </c>
-      <c r="AB40">
+      <c r="AD40">
         <v>50.79</v>
       </c>
-      <c r="AC40">
-        <f t="shared" si="18"/>
+      <c r="AE40">
+        <f t="shared" si="19"/>
         <v>-1.9199999999999875</v>
       </c>
-      <c r="AD40" s="6">
-        <f t="shared" si="19"/>
+      <c r="AF40" s="6">
+        <f t="shared" si="20"/>
         <v>1.8700000000000045</v>
       </c>
-      <c r="AE40">
-        <f t="shared" si="20"/>
+      <c r="AG40">
+        <f t="shared" si="21"/>
         <v>2.3199999999999932</v>
       </c>
-      <c r="AF40" s="3">
-        <f t="shared" si="21"/>
+      <c r="AH40" s="3">
+        <f t="shared" si="22"/>
         <v>2.2300000000000182</v>
       </c>
-      <c r="AG40">
-        <f t="shared" si="22"/>
+      <c r="AI40">
+        <f t="shared" si="23"/>
         <v>-0.5</v>
       </c>
-      <c r="AH40" s="20">
-        <f t="shared" si="23"/>
+      <c r="AJ40" s="20">
+        <f t="shared" si="24"/>
         <v>-0.92999999999999972</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>28</v>
       </c>
@@ -21103,38 +22488,38 @@
       <c r="X42" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="AA42" t="s">
         <v>16</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AB42" t="s">
         <v>1</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AC42" t="s">
         <v>2</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AD42" t="s">
         <v>3</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AE42" t="s">
         <v>20</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AF42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AG42" t="s">
         <v>22</v>
       </c>
-      <c r="AF42" s="3" t="s">
+      <c r="AH42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AI42" t="s">
         <v>24</v>
       </c>
-      <c r="AH42" s="20" t="s">
+      <c r="AJ42" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="C43">
         <v>547</v>
@@ -21188,41 +22573,41 @@
       <c r="X43" s="21">
         <v>49.76</v>
       </c>
-      <c r="Z43">
+      <c r="AB43">
         <v>136.26</v>
       </c>
-      <c r="AA43">
+      <c r="AC43">
         <v>622.67999999999995</v>
       </c>
-      <c r="AB43">
+      <c r="AD43">
         <v>48.73</v>
       </c>
-      <c r="AC43">
-        <f t="shared" ref="AC43:AC50" si="24">R43-J43</f>
+      <c r="AE43">
+        <f t="shared" ref="AE43:AE50" si="25">R43-J43</f>
         <v>0.64000000000000057</v>
       </c>
-      <c r="AD43" s="6">
-        <f t="shared" ref="AD43:AD50" si="25">V43-Z43</f>
+      <c r="AF43" s="6">
+        <f t="shared" ref="AF43:AF50" si="26">V43-AB43</f>
         <v>-0.6799999999999784</v>
       </c>
-      <c r="AE43">
-        <f t="shared" ref="AE43:AE50" si="26">S43-K43</f>
+      <c r="AG43">
+        <f t="shared" ref="AG43:AG50" si="27">S43-K43</f>
         <v>1.4799999999999969</v>
       </c>
-      <c r="AF43" s="3">
-        <f t="shared" ref="AF43:AF50" si="27">W43-AA43</f>
+      <c r="AH43" s="3">
+        <f t="shared" ref="AH43:AH50" si="28">W43-AC43</f>
         <v>2.5300000000000864</v>
       </c>
-      <c r="AG43">
-        <f t="shared" ref="AG43:AG50" si="28">T43-L43</f>
+      <c r="AI43">
+        <f t="shared" ref="AI43:AI50" si="29">T43-L43</f>
         <v>-2.2999999999999545</v>
       </c>
-      <c r="AH43" s="20">
-        <f t="shared" ref="AH43:AH50" si="29">X43-AB43</f>
+      <c r="AJ43" s="20">
+        <f t="shared" ref="AJ43:AJ50" si="30">X43-AD43</f>
         <v>1.0300000000000011</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="C44">
         <v>624</v>
@@ -21276,41 +22661,41 @@
       <c r="X44" s="21">
         <v>49.91</v>
       </c>
-      <c r="Z44">
+      <c r="AB44">
         <v>38.4</v>
       </c>
-      <c r="AA44">
+      <c r="AC44">
         <v>623.66</v>
       </c>
-      <c r="AB44">
+      <c r="AD44">
         <v>50.72</v>
       </c>
-      <c r="AC44">
-        <f t="shared" si="24"/>
+      <c r="AE44">
+        <f t="shared" si="25"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="AD44" s="6">
-        <f t="shared" si="25"/>
+      <c r="AF44" s="6">
+        <f t="shared" si="26"/>
         <v>-0.12999999999999545</v>
       </c>
-      <c r="AE44">
-        <f t="shared" si="26"/>
+      <c r="AG44">
+        <f t="shared" si="27"/>
         <v>1.8699999999999974</v>
       </c>
-      <c r="AF44" s="3">
-        <f t="shared" si="27"/>
+      <c r="AH44" s="3">
+        <f t="shared" si="28"/>
         <v>1.7200000000000273</v>
       </c>
-      <c r="AG44">
-        <f t="shared" si="28"/>
+      <c r="AI44">
+        <f t="shared" si="29"/>
         <v>-0.32000000000005002</v>
       </c>
-      <c r="AH44" s="20">
-        <f t="shared" si="29"/>
+      <c r="AJ44" s="20">
+        <f t="shared" si="30"/>
         <v>-0.81000000000000227</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="C45">
         <v>707</v>
@@ -21364,41 +22749,41 @@
       <c r="X45" s="21">
         <v>50.19</v>
       </c>
-      <c r="Z45">
+      <c r="AB45">
         <v>-65.92</v>
       </c>
-      <c r="AA45">
+      <c r="AC45">
         <v>624.66</v>
       </c>
-      <c r="AB45">
+      <c r="AD45">
         <v>55.04</v>
       </c>
-      <c r="AC45">
-        <f t="shared" si="24"/>
+      <c r="AE45">
+        <f t="shared" si="25"/>
         <v>-9.0000000000003411E-2</v>
       </c>
-      <c r="AD45" s="6">
-        <f t="shared" si="25"/>
+      <c r="AF45" s="6">
+        <f t="shared" si="26"/>
         <v>9.0000000000003411E-2</v>
       </c>
-      <c r="AE45">
-        <f t="shared" si="26"/>
+      <c r="AG45">
+        <f t="shared" si="27"/>
         <v>2.8099999999999987</v>
       </c>
-      <c r="AF45" s="3">
-        <f t="shared" si="27"/>
+      <c r="AH45" s="3">
+        <f t="shared" si="28"/>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="AG45">
-        <f t="shared" si="28"/>
+      <c r="AI45">
+        <f t="shared" si="29"/>
         <v>3.9600000000000364</v>
       </c>
-      <c r="AH45" s="20">
-        <f t="shared" si="29"/>
+      <c r="AJ45" s="20">
+        <f t="shared" si="30"/>
         <v>-4.8500000000000014</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="C46">
         <v>783</v>
@@ -21452,41 +22837,41 @@
       <c r="X46" s="21">
         <v>50.38</v>
       </c>
-      <c r="Z46">
+      <c r="AB46">
         <v>-161.91999999999999</v>
       </c>
-      <c r="AA46">
+      <c r="AC46">
         <v>619.82000000000005</v>
       </c>
-      <c r="AB46">
+      <c r="AD46">
         <v>53.45</v>
       </c>
-      <c r="AC46">
-        <f t="shared" si="24"/>
+      <c r="AE46">
+        <f t="shared" si="25"/>
         <v>0.25999999999999091</v>
       </c>
-      <c r="AD46" s="6">
-        <f t="shared" si="25"/>
+      <c r="AF46" s="6">
+        <f t="shared" si="26"/>
         <v>-0.34000000000000341</v>
       </c>
-      <c r="AE46">
-        <f t="shared" si="26"/>
+      <c r="AG46">
+        <f t="shared" si="27"/>
         <v>4.740000000000002</v>
       </c>
-      <c r="AF46" s="3">
-        <f t="shared" si="27"/>
+      <c r="AH46" s="3">
+        <f t="shared" si="28"/>
         <v>3.6299999999999955</v>
       </c>
-      <c r="AG46">
-        <f t="shared" si="28"/>
+      <c r="AI46">
+        <f t="shared" si="29"/>
         <v>0.40999999999996817</v>
       </c>
-      <c r="AH46" s="20">
-        <f t="shared" si="29"/>
+      <c r="AJ46" s="20">
+        <f t="shared" si="30"/>
         <v>-3.0700000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="C47">
         <v>540</v>
@@ -21540,41 +22925,41 @@
       <c r="X47" s="21">
         <v>49.18</v>
       </c>
-      <c r="Z47">
+      <c r="AB47">
         <v>134.38</v>
       </c>
-      <c r="AA47">
+      <c r="AC47">
         <v>720.79</v>
       </c>
-      <c r="AB47">
+      <c r="AD47">
         <v>47.32</v>
       </c>
-      <c r="AC47">
-        <f t="shared" si="24"/>
+      <c r="AE47">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="6">
-        <f t="shared" si="25"/>
+      <c r="AF47" s="6">
+        <f t="shared" si="26"/>
         <v>2.0000000000010232E-2</v>
       </c>
-      <c r="AE47">
-        <f t="shared" si="26"/>
+      <c r="AG47">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="3">
-        <f t="shared" si="27"/>
+      <c r="AH47" s="3">
+        <f t="shared" si="28"/>
         <v>1.6700000000000728</v>
       </c>
-      <c r="AG47">
-        <f t="shared" si="28"/>
+      <c r="AI47">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AH47" s="20">
-        <f t="shared" si="29"/>
+      <c r="AJ47" s="20">
+        <f t="shared" si="30"/>
         <v>1.8599999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="C48">
         <v>623</v>
@@ -21628,41 +23013,41 @@
       <c r="X48" s="21">
         <v>49.15</v>
       </c>
-      <c r="Z48">
+      <c r="AB48">
         <v>36.450000000000003</v>
       </c>
-      <c r="AA48">
+      <c r="AC48">
         <v>719.69</v>
       </c>
-      <c r="AB48">
+      <c r="AD48">
         <v>49</v>
       </c>
-      <c r="AC48">
-        <f t="shared" si="24"/>
+      <c r="AE48">
+        <f t="shared" si="25"/>
         <v>-0.54000000000000092</v>
       </c>
-      <c r="AD48" s="6">
-        <f t="shared" si="25"/>
+      <c r="AF48" s="6">
+        <f t="shared" si="26"/>
         <v>0.48999999999999488</v>
       </c>
-      <c r="AE48">
-        <f t="shared" si="26"/>
+      <c r="AG48">
+        <f t="shared" si="27"/>
         <v>1.8100000000000023</v>
       </c>
-      <c r="AF48" s="3">
-        <f t="shared" si="27"/>
+      <c r="AH48" s="3">
+        <f t="shared" si="28"/>
         <v>2.3399999999999181</v>
       </c>
-      <c r="AG48">
-        <f t="shared" si="28"/>
+      <c r="AI48">
+        <f t="shared" si="29"/>
         <v>-1.4600000000000364</v>
       </c>
-      <c r="AH48" s="20">
-        <f t="shared" si="29"/>
+      <c r="AJ48" s="20">
+        <f t="shared" si="30"/>
         <v>0.14999999999999858</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="C49">
         <v>710</v>
@@ -21716,41 +23101,41 @@
       <c r="X49" s="21">
         <v>49.28</v>
       </c>
-      <c r="Z49">
+      <c r="AB49">
         <v>-65.5</v>
       </c>
-      <c r="AA49">
+      <c r="AC49">
         <v>721.26</v>
       </c>
-      <c r="AB49">
+      <c r="AD49">
         <v>50.73</v>
       </c>
-      <c r="AC49">
-        <f t="shared" si="24"/>
+      <c r="AE49">
+        <f t="shared" si="25"/>
         <v>-0.15999999999999659</v>
       </c>
-      <c r="AD49" s="6">
-        <f t="shared" si="25"/>
+      <c r="AF49" s="6">
+        <f t="shared" si="26"/>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="AE49">
-        <f t="shared" si="26"/>
+      <c r="AG49">
+        <f t="shared" si="27"/>
         <v>2.7999999999999972</v>
       </c>
-      <c r="AF49" s="3">
-        <f t="shared" si="27"/>
+      <c r="AH49" s="3">
+        <f t="shared" si="28"/>
         <v>2.4099999999999682</v>
       </c>
-      <c r="AG49">
-        <f t="shared" si="28"/>
+      <c r="AI49">
+        <f t="shared" si="29"/>
         <v>-0.20000000000004547</v>
       </c>
-      <c r="AH49" s="20">
-        <f t="shared" si="29"/>
+      <c r="AJ49" s="20">
+        <f t="shared" si="30"/>
         <v>-1.4499999999999957</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="C50">
         <v>794</v>
@@ -21804,44 +23189,44 @@
       <c r="X50" s="21">
         <v>49.78</v>
       </c>
-      <c r="Z50">
+      <c r="AB50">
         <v>-163.16</v>
       </c>
-      <c r="AA50">
+      <c r="AC50">
         <v>721.48</v>
       </c>
-      <c r="AB50">
+      <c r="AD50">
         <v>52.36</v>
       </c>
-      <c r="AC50">
-        <f t="shared" si="24"/>
+      <c r="AE50">
+        <f t="shared" si="25"/>
         <v>-1.3100000000000023</v>
       </c>
-      <c r="AD50" s="6">
-        <f t="shared" si="25"/>
+      <c r="AF50" s="6">
+        <f t="shared" si="26"/>
         <v>1.2599999999999909</v>
       </c>
-      <c r="AE50">
-        <f t="shared" si="26"/>
+      <c r="AG50">
+        <f t="shared" si="27"/>
         <v>2.9199999999999946</v>
       </c>
-      <c r="AF50" s="3">
-        <f t="shared" si="27"/>
+      <c r="AH50" s="3">
+        <f t="shared" si="28"/>
         <v>1.7699999999999818</v>
       </c>
-      <c r="AG50">
-        <f t="shared" si="28"/>
+      <c r="AI50">
+        <f t="shared" si="29"/>
         <v>1.0999999999999091</v>
       </c>
-      <c r="AH50" s="20">
-        <f t="shared" si="29"/>
+      <c r="AJ50" s="20">
+        <f t="shared" si="30"/>
         <v>-2.5799999999999983</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>29</v>
       </c>
@@ -21914,38 +23299,38 @@
       <c r="X52" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="AA52" t="s">
         <v>16</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AB52" t="s">
         <v>1</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AC52" t="s">
         <v>2</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AD52" t="s">
         <v>3</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="AE52" t="s">
         <v>20</v>
       </c>
-      <c r="AD52" s="6" t="s">
+      <c r="AF52" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AG52" t="s">
         <v>22</v>
       </c>
-      <c r="AF52" s="3" t="s">
+      <c r="AH52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG52" t="s">
+      <c r="AI52" t="s">
         <v>24</v>
       </c>
-      <c r="AH52" s="20" t="s">
+      <c r="AJ52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="C53">
         <v>530</v>
@@ -21999,41 +23384,41 @@
       <c r="X53" s="21">
         <v>88.46</v>
       </c>
-      <c r="Z53">
+      <c r="AB53">
         <v>154.58000000000001</v>
       </c>
-      <c r="AA53">
+      <c r="AC53">
         <v>606.34</v>
       </c>
-      <c r="AB53">
+      <c r="AD53">
         <v>86.34</v>
       </c>
-      <c r="AC53">
-        <f t="shared" ref="AC53:AC60" si="30">R53-J53</f>
+      <c r="AE53">
+        <f t="shared" ref="AE53:AE60" si="31">R53-J53</f>
         <v>1.75</v>
       </c>
-      <c r="AD53" s="6">
-        <f t="shared" ref="AD53:AD60" si="31">V53-Z53</f>
+      <c r="AF53" s="6">
+        <f t="shared" ref="AF53:AF60" si="32">V53-AB53</f>
         <v>-1.8200000000000216</v>
       </c>
-      <c r="AE53">
-        <f t="shared" ref="AE53:AE60" si="32">S53-K53</f>
+      <c r="AG53">
+        <f t="shared" ref="AG53:AG60" si="33">S53-K53</f>
         <v>1.3599999999999994</v>
       </c>
-      <c r="AF53" s="3">
-        <f t="shared" ref="AF53:AF60" si="33">W53-AA53</f>
+      <c r="AH53" s="3">
+        <f t="shared" ref="AH53:AH60" si="34">W53-AC53</f>
         <v>3.1299999999999955</v>
       </c>
-      <c r="AG53">
-        <f t="shared" ref="AG53:AG60" si="34">T53-L53</f>
+      <c r="AI53">
+        <f t="shared" ref="AI53:AI60" si="35">T53-L53</f>
         <v>-3.5500000000000682</v>
       </c>
-      <c r="AH53" s="20">
-        <f t="shared" ref="AH53:AH60" si="35">X53-AB53</f>
+      <c r="AJ53" s="20">
+        <f t="shared" ref="AJ53:AJ60" si="36">X53-AD53</f>
         <v>2.1199999999999903</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="C54">
         <v>609</v>
@@ -22087,41 +23472,41 @@
       <c r="X54" s="21">
         <v>87.89</v>
       </c>
-      <c r="Z54">
+      <c r="AB54">
         <v>56.59</v>
       </c>
-      <c r="AA54">
+      <c r="AC54">
         <v>609.55999999999995</v>
       </c>
-      <c r="AB54">
+      <c r="AD54">
         <v>90.85</v>
       </c>
-      <c r="AC54">
-        <f t="shared" si="30"/>
+      <c r="AE54">
+        <f t="shared" si="31"/>
         <v>1.2199999999999989</v>
       </c>
-      <c r="AD54" s="6">
-        <f t="shared" si="31"/>
+      <c r="AF54" s="6">
+        <f t="shared" si="32"/>
         <v>-1.2100000000000009</v>
       </c>
-      <c r="AE54">
-        <f t="shared" si="32"/>
+      <c r="AG54">
+        <f t="shared" si="33"/>
         <v>1.8700000000000045</v>
       </c>
-      <c r="AF54" s="3">
-        <f t="shared" si="33"/>
+      <c r="AH54" s="3">
+        <f t="shared" si="34"/>
         <v>0.16000000000008185</v>
       </c>
-      <c r="AG54">
-        <f t="shared" si="34"/>
+      <c r="AI54">
+        <f t="shared" si="35"/>
         <v>2.3199999999999363</v>
       </c>
-      <c r="AH54" s="20">
-        <f t="shared" si="35"/>
+      <c r="AJ54" s="20">
+        <f t="shared" si="36"/>
         <v>-2.9599999999999937</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="C55">
         <v>694</v>
@@ -22175,41 +23560,41 @@
       <c r="X55" s="21">
         <v>88.52</v>
       </c>
-      <c r="Z55">
+      <c r="AB55">
         <v>-47.5</v>
       </c>
-      <c r="AA55">
+      <c r="AC55">
         <v>606.89</v>
       </c>
-      <c r="AB55">
+      <c r="AD55">
         <v>90.32</v>
       </c>
-      <c r="AC55">
-        <f t="shared" si="30"/>
+      <c r="AE55">
+        <f t="shared" si="31"/>
         <v>-0.15999999999999659</v>
       </c>
-      <c r="AD55" s="6">
-        <f t="shared" si="31"/>
+      <c r="AF55" s="6">
+        <f t="shared" si="32"/>
         <v>0.10999999999999943</v>
       </c>
-      <c r="AE55">
-        <f t="shared" si="32"/>
+      <c r="AG55">
+        <f t="shared" si="33"/>
         <v>2.6099999999999994</v>
       </c>
-      <c r="AF55" s="3">
-        <f t="shared" si="33"/>
+      <c r="AH55" s="3">
+        <f t="shared" si="34"/>
         <v>1.9199999999999591</v>
       </c>
-      <c r="AG55">
-        <f t="shared" si="34"/>
+      <c r="AI55">
+        <f t="shared" si="35"/>
         <v>0.37000000000000455</v>
       </c>
-      <c r="AH55" s="20">
-        <f t="shared" si="35"/>
+      <c r="AJ55" s="20">
+        <f t="shared" si="36"/>
         <v>-1.7999999999999972</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="C56">
         <v>774</v>
@@ -22263,41 +23648,41 @@
       <c r="X56" s="21">
         <v>88.83</v>
       </c>
-      <c r="Z56">
+      <c r="AB56">
         <v>-144.76</v>
       </c>
-      <c r="AA56">
+      <c r="AC56">
         <v>607.13</v>
       </c>
-      <c r="AB56">
+      <c r="AD56">
         <v>93.14</v>
       </c>
-      <c r="AC56">
-        <f t="shared" si="30"/>
+      <c r="AE56">
+        <f t="shared" si="31"/>
         <v>-0.34999999999999432</v>
       </c>
-      <c r="AD56" s="6">
-        <f t="shared" si="31"/>
+      <c r="AF56" s="6">
+        <f t="shared" si="32"/>
         <v>0.31000000000000227</v>
       </c>
-      <c r="AE56">
-        <f t="shared" si="32"/>
+      <c r="AG56">
+        <f t="shared" si="33"/>
         <v>4.0600000000000023</v>
       </c>
-      <c r="AF56" s="3">
-        <f t="shared" si="33"/>
+      <c r="AH56" s="3">
+        <f t="shared" si="34"/>
         <v>1.92999999999995</v>
       </c>
-      <c r="AG56">
-        <f t="shared" si="34"/>
+      <c r="AI56">
+        <f t="shared" si="35"/>
         <v>2.4099999999999682</v>
       </c>
-      <c r="AH56" s="20">
-        <f t="shared" si="35"/>
+      <c r="AJ56" s="20">
+        <f t="shared" si="36"/>
         <v>-4.3100000000000023</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="C57">
         <v>522</v>
@@ -22351,41 +23736,41 @@
       <c r="X57" s="21">
         <v>87.66</v>
       </c>
-      <c r="Z57">
+      <c r="AB57">
         <v>152.03</v>
       </c>
-      <c r="AA57">
+      <c r="AC57">
         <v>703.06</v>
       </c>
-      <c r="AB57">
+      <c r="AD57">
         <v>86.4</v>
       </c>
-      <c r="AC57">
-        <f t="shared" si="30"/>
+      <c r="AE57">
+        <f t="shared" si="31"/>
         <v>0.53000000000000114</v>
       </c>
-      <c r="AD57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AF57" s="6">
+        <f t="shared" si="32"/>
         <v>-0.56999999999999318</v>
       </c>
-      <c r="AE57">
-        <f t="shared" si="32"/>
+      <c r="AG57">
+        <f t="shared" si="33"/>
         <v>0.98000000000000043</v>
       </c>
-      <c r="AF57" s="3">
-        <f t="shared" si="33"/>
+      <c r="AH57" s="3">
+        <f t="shared" si="34"/>
         <v>2.07000000000005</v>
       </c>
-      <c r="AG57">
-        <f t="shared" si="34"/>
+      <c r="AI57">
+        <f t="shared" si="35"/>
         <v>-2.2200000000000273</v>
       </c>
-      <c r="AH57" s="20">
-        <f t="shared" si="35"/>
+      <c r="AJ57" s="20">
+        <f t="shared" si="36"/>
         <v>1.2599999999999909</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="C58">
         <v>607</v>
@@ -22439,41 +23824,41 @@
       <c r="X58" s="21">
         <v>87.61</v>
       </c>
-      <c r="Z58">
+      <c r="AB58">
         <v>54.29</v>
       </c>
-      <c r="AA58">
+      <c r="AC58">
         <v>708.26</v>
       </c>
-      <c r="AB58">
+      <c r="AD58">
         <v>89.17</v>
       </c>
-      <c r="AC58">
-        <f t="shared" si="30"/>
+      <c r="AE58">
+        <f t="shared" si="31"/>
         <v>0.14000000000000057</v>
       </c>
-      <c r="AD58" s="6">
-        <f t="shared" si="31"/>
+      <c r="AF58" s="6">
+        <f t="shared" si="32"/>
         <v>-0.10999999999999943</v>
       </c>
-      <c r="AE58">
-        <f t="shared" si="32"/>
+      <c r="AG58">
+        <f t="shared" si="33"/>
         <v>-3.9999999999999147E-2</v>
       </c>
-      <c r="AF58" s="3">
-        <f t="shared" si="33"/>
+      <c r="AH58" s="3">
+        <f t="shared" si="34"/>
         <v>-1.1599999999999682</v>
       </c>
-      <c r="AG58">
-        <f t="shared" si="34"/>
+      <c r="AI58">
+        <f t="shared" si="35"/>
         <v>1.9500000000000455</v>
       </c>
-      <c r="AH58" s="20">
-        <f t="shared" si="35"/>
+      <c r="AJ58" s="20">
+        <f t="shared" si="36"/>
         <v>-1.5600000000000023</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="C59">
         <v>698</v>
@@ -22527,41 +23912,41 @@
       <c r="X59" s="21">
         <v>87.77</v>
       </c>
-      <c r="Z59">
+      <c r="AB59">
         <v>-48.92</v>
       </c>
-      <c r="AA59">
+      <c r="AC59">
         <v>705.83</v>
       </c>
-      <c r="AB59">
+      <c r="AD59">
         <v>88.84</v>
       </c>
-      <c r="AC59">
-        <f t="shared" si="30"/>
+      <c r="AE59">
+        <f t="shared" si="31"/>
         <v>-1.2800000000000011</v>
       </c>
-      <c r="AD59" s="6">
-        <f t="shared" si="31"/>
+      <c r="AF59" s="6">
+        <f t="shared" si="32"/>
         <v>1.240000000000002</v>
       </c>
-      <c r="AE59">
-        <f t="shared" si="32"/>
+      <c r="AG59">
+        <f t="shared" si="33"/>
         <v>1.8200000000000003</v>
       </c>
-      <c r="AF59" s="3">
-        <f t="shared" si="33"/>
+      <c r="AH59" s="3">
+        <f t="shared" si="34"/>
         <v>1.5</v>
       </c>
-      <c r="AG59">
-        <f t="shared" si="34"/>
+      <c r="AI59">
+        <f t="shared" si="35"/>
         <v>3.0000000000086402E-2</v>
       </c>
-      <c r="AH59" s="20">
-        <f t="shared" si="35"/>
+      <c r="AJ59" s="20">
+        <f t="shared" si="36"/>
         <v>-1.0700000000000074</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="C60">
         <v>784</v>
@@ -22615,47 +24000,47 @@
       <c r="X60" s="21">
         <v>88.68</v>
       </c>
-      <c r="Z60">
+      <c r="AB60">
         <v>-146.80000000000001</v>
       </c>
-      <c r="AA60">
+      <c r="AC60">
         <v>703</v>
       </c>
-      <c r="AB60">
+      <c r="AD60">
         <v>87.72</v>
       </c>
-      <c r="AC60">
-        <f t="shared" si="30"/>
+      <c r="AE60">
+        <f t="shared" si="31"/>
         <v>-1.9000000000000057</v>
       </c>
-      <c r="AD60" s="6">
-        <f t="shared" si="31"/>
+      <c r="AF60" s="6">
+        <f t="shared" si="32"/>
         <v>1.8200000000000216</v>
       </c>
-      <c r="AE60">
-        <f t="shared" si="32"/>
+      <c r="AG60">
+        <f t="shared" si="33"/>
         <v>2.4199999999999982</v>
       </c>
-      <c r="AF60" s="3">
-        <f t="shared" si="33"/>
+      <c r="AH60" s="3">
+        <f t="shared" si="34"/>
         <v>3.67999999999995</v>
       </c>
-      <c r="AG60">
-        <f t="shared" si="34"/>
+      <c r="AI60">
+        <f t="shared" si="35"/>
         <v>-2.8899999999999864</v>
       </c>
-      <c r="AH60" s="20">
-        <f t="shared" si="35"/>
+      <c r="AJ60" s="20">
+        <f t="shared" si="36"/>
         <v>0.96000000000000796</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="AD61" s="22"/>
       <c r="AF61" s="22"/>
       <c r="AH61" s="22"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="22"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>29</v>
       </c>
@@ -22728,38 +24113,38 @@
       <c r="X62" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="AA62" t="s">
         <v>16</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AB62" t="s">
         <v>1</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AC62" t="s">
         <v>2</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AD62" t="s">
         <v>3</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AE62" t="s">
         <v>20</v>
       </c>
-      <c r="AD62" s="6" t="s">
+      <c r="AF62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AG62" t="s">
         <v>22</v>
       </c>
-      <c r="AF62" s="3" t="s">
+      <c r="AH62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AI62" t="s">
         <v>24</v>
       </c>
-      <c r="AH62" s="20" t="s">
+      <c r="AJ62" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="C63">
         <v>540</v>
@@ -22813,41 +24198,41 @@
       <c r="X63" s="21">
         <v>10.9</v>
       </c>
-      <c r="Z63">
+      <c r="AB63">
         <v>151.37</v>
       </c>
-      <c r="AA63">
+      <c r="AC63">
         <v>608.91</v>
       </c>
-      <c r="AB63">
+      <c r="AD63">
         <v>12.185</v>
       </c>
-      <c r="AC63">
-        <f t="shared" ref="AC63:AC70" si="36">R63-J63</f>
+      <c r="AE63">
+        <f t="shared" ref="AE63:AE70" si="37">R63-J63</f>
         <v>-0.72999999999998977</v>
       </c>
-      <c r="AD63" s="6">
-        <f t="shared" ref="AD63:AD70" si="37">V63-Z63</f>
+      <c r="AF63" s="6">
+        <f t="shared" ref="AF63:AF70" si="38">V63-AB63</f>
         <v>0.75</v>
       </c>
-      <c r="AE63">
-        <f t="shared" ref="AE63:AE70" si="38">S63-K63</f>
+      <c r="AG63">
+        <f t="shared" ref="AG63:AG70" si="39">S63-K63</f>
         <v>0.14999999999999858</v>
       </c>
-      <c r="AF63" s="3">
-        <f t="shared" ref="AF63:AF70" si="39">W63-AA63</f>
+      <c r="AH63" s="3">
+        <f t="shared" ref="AH63:AH70" si="40">W63-AC63</f>
         <v>-0.69999999999993179</v>
       </c>
-      <c r="AG63">
-        <f t="shared" ref="AG63:AG70" si="40">T63-L63</f>
+      <c r="AI63">
+        <f t="shared" ref="AI63:AI70" si="41">T63-L63</f>
         <v>1.4700000000000273</v>
       </c>
-      <c r="AH63" s="20">
-        <f t="shared" ref="AH63:AH70" si="41">X63-AB63</f>
+      <c r="AJ63" s="20">
+        <f t="shared" ref="AJ63:AJ70" si="42">X63-AD63</f>
         <v>-1.2850000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="C64">
         <v>614</v>
@@ -22901,41 +24286,41 @@
       <c r="X64" s="21">
         <v>11.11</v>
       </c>
-      <c r="Z64">
+      <c r="AB64">
         <v>52.75</v>
       </c>
-      <c r="AA64">
+      <c r="AC64">
         <v>609.39</v>
       </c>
-      <c r="AB64">
+      <c r="AD64">
         <v>13.47</v>
       </c>
-      <c r="AC64">
-        <f t="shared" si="36"/>
+      <c r="AE64">
+        <f t="shared" si="37"/>
         <v>-1.759999999999998</v>
       </c>
-      <c r="AD64" s="6">
-        <f t="shared" si="37"/>
+      <c r="AF64" s="6">
+        <f t="shared" si="38"/>
         <v>1.7899999999999991</v>
       </c>
-      <c r="AE64">
-        <f t="shared" si="38"/>
+      <c r="AG64">
+        <f t="shared" si="39"/>
         <v>0.54000000000000092</v>
       </c>
-      <c r="AF64" s="3">
-        <f t="shared" si="39"/>
+      <c r="AH64" s="3">
+        <f t="shared" si="40"/>
         <v>-0.97000000000002728</v>
       </c>
-      <c r="AG64">
-        <f t="shared" si="40"/>
+      <c r="AI64">
+        <f t="shared" si="41"/>
         <v>2.5199999999999818</v>
       </c>
-      <c r="AH64" s="20">
-        <f t="shared" si="41"/>
+      <c r="AJ64" s="20">
+        <f t="shared" si="42"/>
         <v>-2.3600000000000012</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="C65">
         <v>690</v>
@@ -22989,41 +24374,41 @@
       <c r="X65" s="21">
         <v>11.63</v>
       </c>
-      <c r="Z65">
+      <c r="AB65">
         <v>-48.04</v>
       </c>
-      <c r="AA65">
+      <c r="AC65">
         <v>607.34</v>
       </c>
-      <c r="AB65">
+      <c r="AD65">
         <v>13.63</v>
       </c>
-      <c r="AC65">
-        <f t="shared" si="36"/>
+      <c r="AE65">
+        <f t="shared" si="37"/>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="AD65" s="6">
-        <f t="shared" si="37"/>
+      <c r="AF65" s="6">
+        <f t="shared" si="38"/>
         <v>-3.0000000000001137E-2</v>
       </c>
-      <c r="AE65">
-        <f t="shared" si="38"/>
+      <c r="AG65">
+        <f t="shared" si="39"/>
         <v>1.7900000000000009</v>
       </c>
-      <c r="AF65" s="3">
-        <f t="shared" si="39"/>
+      <c r="AH65" s="3">
+        <f t="shared" si="40"/>
         <v>0.77999999999997272</v>
       </c>
-      <c r="AG65">
-        <f t="shared" si="40"/>
+      <c r="AI65">
+        <f t="shared" si="41"/>
         <v>1.1899999999999409</v>
       </c>
-      <c r="AH65" s="20">
-        <f t="shared" si="41"/>
+      <c r="AJ65" s="20">
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="C66">
         <v>763</v>
@@ -23077,41 +24462,41 @@
       <c r="X66" s="21">
         <v>12.07</v>
       </c>
-      <c r="Z66">
+      <c r="AB66">
         <v>-143.66</v>
       </c>
-      <c r="AA66">
+      <c r="AC66">
         <v>608.92999999999995</v>
       </c>
-      <c r="AB66">
+      <c r="AD66">
         <v>18.61</v>
       </c>
-      <c r="AC66">
-        <f t="shared" si="36"/>
+      <c r="AE66">
+        <f t="shared" si="37"/>
         <v>1.789999999999992</v>
       </c>
-      <c r="AD66" s="6">
-        <f t="shared" si="37"/>
+      <c r="AF66" s="6">
+        <f t="shared" si="38"/>
         <v>-1.7700000000000102</v>
       </c>
-      <c r="AE66">
-        <f t="shared" si="38"/>
+      <c r="AG66">
+        <f t="shared" si="39"/>
         <v>2.95</v>
       </c>
-      <c r="AF66" s="3">
-        <f t="shared" si="39"/>
+      <c r="AH66" s="3">
+        <f t="shared" si="40"/>
         <v>-1.0699999999999363</v>
       </c>
-      <c r="AG66">
-        <f t="shared" si="40"/>
+      <c r="AI66">
+        <f t="shared" si="41"/>
         <v>5.9400000000000546</v>
       </c>
-      <c r="AH66" s="20">
-        <f t="shared" si="41"/>
+      <c r="AJ66" s="20">
+        <f t="shared" si="42"/>
         <v>-6.5399999999999991</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="C67">
         <v>532</v>
@@ -23165,41 +24550,41 @@
       <c r="X67" s="21">
         <v>10.68</v>
       </c>
-      <c r="Z67">
+      <c r="AB67">
         <v>150.38</v>
       </c>
-      <c r="AA67">
+      <c r="AC67">
         <v>707.22</v>
       </c>
-      <c r="AB67">
+      <c r="AD67">
         <v>11.7</v>
       </c>
-      <c r="AC67">
-        <f t="shared" si="36"/>
+      <c r="AE67">
+        <f t="shared" si="37"/>
         <v>-1.9800000000000182</v>
       </c>
-      <c r="AD67" s="6">
-        <f t="shared" si="37"/>
+      <c r="AF67" s="6">
+        <f t="shared" si="38"/>
         <v>2.0099999999999909</v>
       </c>
-      <c r="AE67">
-        <f t="shared" si="38"/>
+      <c r="AG67">
+        <f t="shared" si="39"/>
         <v>-0.60999999999999943</v>
       </c>
-      <c r="AF67" s="3">
-        <f t="shared" si="39"/>
+      <c r="AH67" s="3">
+        <f t="shared" si="40"/>
         <v>-1.4300000000000637</v>
       </c>
-      <c r="AG67">
-        <f t="shared" si="40"/>
+      <c r="AI67">
+        <f t="shared" si="41"/>
         <v>1.6900000000000546</v>
       </c>
-      <c r="AH67" s="20">
-        <f t="shared" si="41"/>
+      <c r="AJ67" s="20">
+        <f t="shared" si="42"/>
         <v>-1.0199999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="C68">
         <v>611</v>
@@ -23253,41 +24638,41 @@
       <c r="X68" s="21">
         <v>10.81</v>
       </c>
-      <c r="Z68">
+      <c r="AB68">
         <v>52.19</v>
       </c>
-      <c r="AA68">
+      <c r="AC68">
         <v>708.7</v>
       </c>
-      <c r="AB68">
+      <c r="AD68">
         <v>15.41</v>
       </c>
-      <c r="AC68">
-        <f t="shared" si="36"/>
+      <c r="AE68">
+        <f t="shared" si="37"/>
         <v>-1.8099999999999987</v>
       </c>
-      <c r="AD68" s="6">
-        <f t="shared" si="37"/>
+      <c r="AF68" s="6">
+        <f t="shared" si="38"/>
         <v>1.8800000000000026</v>
       </c>
-      <c r="AE68">
-        <f t="shared" si="38"/>
+      <c r="AG68">
+        <f t="shared" si="39"/>
         <v>0.19000000000001194</v>
       </c>
-      <c r="AF68" s="3">
-        <f t="shared" si="39"/>
+      <c r="AH68" s="3">
+        <f t="shared" si="40"/>
         <v>-2.9800000000000182</v>
       </c>
-      <c r="AG68">
-        <f t="shared" si="40"/>
+      <c r="AI68">
+        <f t="shared" si="41"/>
         <v>5.5100000000001046</v>
       </c>
-      <c r="AH68" s="20">
-        <f t="shared" si="41"/>
+      <c r="AJ68" s="20">
+        <f t="shared" si="42"/>
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="C69">
         <v>693</v>
@@ -23341,41 +24726,41 @@
       <c r="X69" s="21">
         <v>11.03</v>
       </c>
-      <c r="Z69">
+      <c r="AB69">
         <v>-48.71</v>
       </c>
-      <c r="AA69">
+      <c r="AC69">
         <v>706.74</v>
       </c>
-      <c r="AB69">
+      <c r="AD69">
         <v>15.75</v>
       </c>
-      <c r="AC69">
-        <f t="shared" si="36"/>
+      <c r="AE69">
+        <f t="shared" si="37"/>
         <v>-0.34999999999999432</v>
       </c>
-      <c r="AD69" s="6">
-        <f t="shared" si="37"/>
+      <c r="AF69" s="6">
+        <f t="shared" si="38"/>
         <v>0.35000000000000142</v>
       </c>
-      <c r="AE69">
-        <f t="shared" si="38"/>
+      <c r="AG69">
+        <f t="shared" si="39"/>
         <v>2.4399999999999977</v>
       </c>
-      <c r="AF69" s="3">
-        <f t="shared" si="39"/>
+      <c r="AH69" s="3">
+        <f t="shared" si="40"/>
         <v>-0.36000000000001364</v>
       </c>
-      <c r="AG69">
-        <f t="shared" si="40"/>
+      <c r="AI69">
+        <f t="shared" si="41"/>
         <v>4.07000000000005</v>
       </c>
-      <c r="AH69" s="20">
-        <f t="shared" si="41"/>
+      <c r="AJ69" s="20">
+        <f t="shared" si="42"/>
         <v>-4.7200000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="C70">
         <v>773</v>
@@ -23429,37 +24814,37 @@
       <c r="X70" s="21">
         <v>11.42</v>
       </c>
-      <c r="Z70">
+      <c r="AB70">
         <v>-147.35</v>
       </c>
-      <c r="AA70">
+      <c r="AC70">
         <v>704.09</v>
       </c>
-      <c r="AB70">
+      <c r="AD70">
         <v>14.85</v>
       </c>
-      <c r="AC70">
-        <f t="shared" si="36"/>
+      <c r="AE70">
+        <f t="shared" si="37"/>
         <v>-1.8600000000000136</v>
       </c>
-      <c r="AD70" s="6">
-        <f t="shared" si="37"/>
+      <c r="AF70" s="6">
+        <f t="shared" si="38"/>
         <v>1.8100000000000023</v>
       </c>
-      <c r="AE70">
-        <f t="shared" si="38"/>
+      <c r="AG70">
+        <f t="shared" si="39"/>
         <v>3.6200000000000045</v>
       </c>
-      <c r="AF70" s="3">
-        <f t="shared" si="39"/>
+      <c r="AH70" s="3">
+        <f t="shared" si="40"/>
         <v>2.0499999999999545</v>
       </c>
-      <c r="AG70">
-        <f t="shared" si="40"/>
+      <c r="AI70">
+        <f t="shared" si="41"/>
         <v>1.6399999999999864</v>
       </c>
-      <c r="AH70" s="20">
-        <f t="shared" si="41"/>
+      <c r="AJ70" s="20">
+        <f t="shared" si="42"/>
         <v>-3.4299999999999997</v>
       </c>
     </row>

--- a/Data_depth_collection.xlsx
+++ b/Data_depth_collection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925" firstSheet="5" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925" firstSheet="6" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Blue" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="LBlue_IB" sheetId="15" r:id="rId16"/>
     <sheet name="BlueTest" sheetId="18" r:id="rId17"/>
     <sheet name="Measurements" sheetId="19" r:id="rId18"/>
+    <sheet name="BGR" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="52">
   <si>
     <t>Pixel:</t>
   </si>
@@ -164,6 +165,39 @@
   </si>
   <si>
     <t>CorrectLength</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>LGREEN</t>
+  </si>
+  <si>
+    <t>LBLUE</t>
   </si>
 </sst>
 </file>
@@ -655,7 +689,7 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="B18" sqref="B18:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8974,7 +9008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -9164,6 +9198,1029 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Y34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>172</v>
+      </c>
+      <c r="D4">
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>208</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>93</v>
+      </c>
+      <c r="O4">
+        <v>165</v>
+      </c>
+      <c r="R4">
+        <v>49</v>
+      </c>
+      <c r="S4">
+        <v>95</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>63</v>
+      </c>
+      <c r="X4">
+        <v>70</v>
+      </c>
+      <c r="Y4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>209</v>
+      </c>
+      <c r="M5">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>125</v>
+      </c>
+      <c r="O5">
+        <v>177</v>
+      </c>
+      <c r="R5">
+        <v>50</v>
+      </c>
+      <c r="S5">
+        <v>99</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>65</v>
+      </c>
+      <c r="X5">
+        <v>73</v>
+      </c>
+      <c r="Y5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>184</v>
+      </c>
+      <c r="D6">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>216</v>
+      </c>
+      <c r="M6">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>134</v>
+      </c>
+      <c r="O6">
+        <v>179</v>
+      </c>
+      <c r="R6">
+        <v>52</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>67</v>
+      </c>
+      <c r="X6">
+        <v>75</v>
+      </c>
+      <c r="Y6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>180</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>232</v>
+      </c>
+      <c r="M7">
+        <v>43</v>
+      </c>
+      <c r="N7">
+        <v>138</v>
+      </c>
+      <c r="O7">
+        <v>192</v>
+      </c>
+      <c r="R7">
+        <v>53</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>68</v>
+      </c>
+      <c r="X7">
+        <v>76</v>
+      </c>
+      <c r="Y7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>165</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>235</v>
+      </c>
+      <c r="M8">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <v>150</v>
+      </c>
+      <c r="O8">
+        <v>198</v>
+      </c>
+      <c r="R8">
+        <v>55</v>
+      </c>
+      <c r="S8">
+        <v>101</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>71</v>
+      </c>
+      <c r="X8">
+        <v>76</v>
+      </c>
+      <c r="Y8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>180</v>
+      </c>
+      <c r="D9">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>69</v>
+      </c>
+      <c r="I9">
+        <v>51</v>
+      </c>
+      <c r="J9">
+        <v>236</v>
+      </c>
+      <c r="M9">
+        <v>55</v>
+      </c>
+      <c r="N9">
+        <v>153</v>
+      </c>
+      <c r="O9">
+        <v>207</v>
+      </c>
+      <c r="R9">
+        <v>56</v>
+      </c>
+      <c r="S9">
+        <v>108</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>72</v>
+      </c>
+      <c r="X9">
+        <v>76</v>
+      </c>
+      <c r="Y9">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>177</v>
+      </c>
+      <c r="D10">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>52</v>
+      </c>
+      <c r="J10">
+        <v>237</v>
+      </c>
+      <c r="M10">
+        <v>58</v>
+      </c>
+      <c r="N10">
+        <v>154</v>
+      </c>
+      <c r="O10">
+        <v>216</v>
+      </c>
+      <c r="R10">
+        <v>63</v>
+      </c>
+      <c r="S10">
+        <v>108</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>73</v>
+      </c>
+      <c r="X10">
+        <v>77</v>
+      </c>
+      <c r="Y10">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>53</v>
+      </c>
+      <c r="J11">
+        <v>238</v>
+      </c>
+      <c r="M11">
+        <v>59</v>
+      </c>
+      <c r="N11">
+        <v>154</v>
+      </c>
+      <c r="O11">
+        <v>217</v>
+      </c>
+      <c r="R11">
+        <v>64</v>
+      </c>
+      <c r="S11">
+        <v>109</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>73</v>
+      </c>
+      <c r="X11">
+        <v>81</v>
+      </c>
+      <c r="Y11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>181</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <v>239</v>
+      </c>
+      <c r="M12">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>155</v>
+      </c>
+      <c r="O12">
+        <v>219</v>
+      </c>
+      <c r="R12">
+        <v>66</v>
+      </c>
+      <c r="S12">
+        <v>112</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>74</v>
+      </c>
+      <c r="X12">
+        <v>83</v>
+      </c>
+      <c r="Y12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>199</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <v>54</v>
+      </c>
+      <c r="J13">
+        <v>239</v>
+      </c>
+      <c r="M13">
+        <v>61</v>
+      </c>
+      <c r="N13">
+        <v>157</v>
+      </c>
+      <c r="O13">
+        <v>223</v>
+      </c>
+      <c r="R13">
+        <v>68</v>
+      </c>
+      <c r="S13">
+        <v>115</v>
+      </c>
+      <c r="T13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>84</v>
+      </c>
+      <c r="X13">
+        <v>89</v>
+      </c>
+      <c r="Y13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>193</v>
+      </c>
+      <c r="D14">
+        <v>81</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>74</v>
+      </c>
+      <c r="I14">
+        <v>54</v>
+      </c>
+      <c r="J14">
+        <v>240</v>
+      </c>
+      <c r="M14">
+        <v>61</v>
+      </c>
+      <c r="N14">
+        <v>157</v>
+      </c>
+      <c r="O14">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>183</v>
+      </c>
+      <c r="D15">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>74</v>
+      </c>
+      <c r="I15">
+        <v>54</v>
+      </c>
+      <c r="J15">
+        <v>240</v>
+      </c>
+      <c r="M15">
+        <v>62</v>
+      </c>
+      <c r="N15">
+        <v>158</v>
+      </c>
+      <c r="O15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>184</v>
+      </c>
+      <c r="D16">
+        <v>78</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>56</v>
+      </c>
+      <c r="J16">
+        <v>240</v>
+      </c>
+      <c r="M16">
+        <v>64</v>
+      </c>
+      <c r="N16">
+        <v>159</v>
+      </c>
+      <c r="O16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>192</v>
+      </c>
+      <c r="D17">
+        <v>83</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <v>76</v>
+      </c>
+      <c r="I17">
+        <v>56</v>
+      </c>
+      <c r="J17">
+        <v>243</v>
+      </c>
+      <c r="M17">
+        <v>67</v>
+      </c>
+      <c r="N17">
+        <v>163</v>
+      </c>
+      <c r="O17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>201</v>
+      </c>
+      <c r="D18">
+        <v>92</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>77</v>
+      </c>
+      <c r="I18">
+        <v>56</v>
+      </c>
+      <c r="J18">
+        <v>243</v>
+      </c>
+      <c r="M18">
+        <v>69</v>
+      </c>
+      <c r="N18">
+        <v>164</v>
+      </c>
+      <c r="O18">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>226</v>
+      </c>
+      <c r="D25">
+        <v>202</v>
+      </c>
+      <c r="E25">
+        <v>212</v>
+      </c>
+      <c r="H25">
+        <v>37</v>
+      </c>
+      <c r="I25">
+        <v>127</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>212</v>
+      </c>
+      <c r="N25">
+        <v>126</v>
+      </c>
+      <c r="O25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>228</v>
+      </c>
+      <c r="D26">
+        <v>205</v>
+      </c>
+      <c r="E26">
+        <v>215</v>
+      </c>
+      <c r="H26">
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <v>129</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>214</v>
+      </c>
+      <c r="N26">
+        <v>127</v>
+      </c>
+      <c r="O26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>238</v>
+      </c>
+      <c r="D27">
+        <v>209</v>
+      </c>
+      <c r="E27">
+        <v>215</v>
+      </c>
+      <c r="H27">
+        <v>37</v>
+      </c>
+      <c r="I27">
+        <v>129</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>215</v>
+      </c>
+      <c r="N27">
+        <v>128</v>
+      </c>
+      <c r="O27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>240</v>
+      </c>
+      <c r="D28">
+        <v>210</v>
+      </c>
+      <c r="E28">
+        <v>216</v>
+      </c>
+      <c r="H28">
+        <v>41</v>
+      </c>
+      <c r="I28">
+        <v>130</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>215</v>
+      </c>
+      <c r="N28">
+        <v>128</v>
+      </c>
+      <c r="O28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>241</v>
+      </c>
+      <c r="D29">
+        <v>211</v>
+      </c>
+      <c r="E29">
+        <v>217</v>
+      </c>
+      <c r="H29">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>130</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>216</v>
+      </c>
+      <c r="N29">
+        <v>128</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>243</v>
+      </c>
+      <c r="D30">
+        <v>212</v>
+      </c>
+      <c r="E30">
+        <v>217</v>
+      </c>
+      <c r="H30">
+        <v>43</v>
+      </c>
+      <c r="I30">
+        <v>133</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>218</v>
+      </c>
+      <c r="N30">
+        <v>135</v>
+      </c>
+      <c r="O30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>244</v>
+      </c>
+      <c r="D31">
+        <v>213</v>
+      </c>
+      <c r="E31">
+        <v>217</v>
+      </c>
+      <c r="H31">
+        <v>45</v>
+      </c>
+      <c r="I31">
+        <v>133</v>
+      </c>
+      <c r="J31">
+        <v>17</v>
+      </c>
+      <c r="M31">
+        <v>220</v>
+      </c>
+      <c r="N31">
+        <v>135</v>
+      </c>
+      <c r="O31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>244</v>
+      </c>
+      <c r="D32">
+        <v>213</v>
+      </c>
+      <c r="E32">
+        <v>219</v>
+      </c>
+      <c r="H32">
+        <v>48</v>
+      </c>
+      <c r="I32">
+        <v>140</v>
+      </c>
+      <c r="J32">
+        <v>17</v>
+      </c>
+      <c r="M32">
+        <v>224</v>
+      </c>
+      <c r="N32">
+        <v>136</v>
+      </c>
+      <c r="O32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>245</v>
+      </c>
+      <c r="D33">
+        <v>213</v>
+      </c>
+      <c r="E33">
+        <v>220</v>
+      </c>
+      <c r="H33">
+        <v>49</v>
+      </c>
+      <c r="I33">
+        <v>142</v>
+      </c>
+      <c r="J33">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>224</v>
+      </c>
+      <c r="N33">
+        <v>138</v>
+      </c>
+      <c r="O33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>245</v>
+      </c>
+      <c r="D34">
+        <v>214</v>
+      </c>
+      <c r="E34">
+        <v>221</v>
+      </c>
+      <c r="H34">
+        <v>51</v>
+      </c>
+      <c r="I34">
+        <v>144</v>
+      </c>
+      <c r="J34">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>225</v>
+      </c>
+      <c r="N34">
+        <v>138</v>
+      </c>
+      <c r="O34">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="O25:O34">
+    <sortCondition ref="O25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Data_depth_collection.xlsx
+++ b/Data_depth_collection.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsh3e\PycharmProjects\zema\opencv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.sheaib\PycharmProjects\openCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925" firstSheet="6" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" tabRatio="863" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Blue" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="Measurements" sheetId="19" r:id="rId18"/>
     <sheet name="BGR" sheetId="20" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="57">
   <si>
     <t>Pixel:</t>
   </si>
@@ -199,12 +199,27 @@
   <si>
     <t>LBLUE</t>
   </si>
+  <si>
+    <t>DeltaX/DeltaZ=a</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Cx/Cz</t>
+  </si>
+  <si>
+    <t>Depth:Cx/Cz</t>
+  </si>
+  <si>
+    <t>DepthX/SpiteZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +240,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +375,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,10 +390,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -406,9 +434,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,6 +451,3859 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PixelX, Delta X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blue!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blue!$X$2:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.0600000000000023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="121690232"/>
+        <c:axId val="121686704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121690232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121686704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121686704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121690232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BlueTest!$Z$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BlueTest!$Z$25:$Z$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393854288"/>
+        <c:axId val="155797504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393854288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155797504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="155797504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393854288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a_soll, a_ist</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3919510061242342E-4"/>
+                  <c:y val="-0.22991396908719744"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BlueTest!$J$50:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.26116793000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.18015593000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1347892100000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1169665700000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.377721000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.1093850000000089E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6511689999999968E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3994309999999963E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7740789999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11148727000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1357908699999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15685398999999989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16657542999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2427267099999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26865055000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BlueTest!$L$50:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.12713263621353921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4623217922606267E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9878345498783741E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8606994665086375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.002106371774606E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1439336850037681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17296222664015865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8001218769043271E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19358741681790689</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33208955223880676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21780303030303005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32692307692307848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2599771949828969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4434222631094748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50635208711433699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512008888"/>
+        <c:axId val="512010456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512008888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512010456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512010456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512008888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.405555555555556E-2"/>
+          <c:y val="0.19721055701370663"/>
+          <c:w val="0.90349300087489059"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Depth/Spitze/a</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BlueTest!$P$21:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.1169665700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3994309999999963E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1357908699999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2427267099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.18015593000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.377721000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7740789999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16657542999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.1093850000000089E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11148727000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26865055000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.26116793000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.1347892100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6511689999999968E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15685398999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BlueTest!$X$21:$X$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.11941954546021219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4466057140081834E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13836674019372783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24596808863449326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.18372522832436225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.5069010532185908E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.913654092987899E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17029511369134009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.1651146083255394E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11354829781345142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27482010383175354</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.26777618124241448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.13793839672056479</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6866355450853434E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16028578319064271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="121685136"/>
+        <c:axId val="121688664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121685136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121688664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121688664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121685136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,19 +4572,19 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E33"/>
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="31" max="31" width="18.5703125" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="31" max="31" width="18.5546875" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -800,7 +4683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -887,7 +4770,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -974,7 +4857,7 @@
         <v>79.404030124421269</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1061,7 +4944,7 @@
         <v>48.052055106935853</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1148,7 +5031,7 @@
         <v>98.883770154661889</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1235,7 +5118,7 @@
         <v>170.60187572239644</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1322,7 +5205,7 @@
         <v>151.64761785138597</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1409,7 +5292,7 @@
         <v>69.426219830839131</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1496,7 +5379,7 @@
         <v>18.601075237738275</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1583,7 +5466,7 @@
         <v>94.201910808645493</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1670,7 +5553,7 @@
         <v>176.72577627499618</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1757,7 +5640,7 @@
         <v>185.18099254513137</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1844,7 +5727,7 @@
         <v>114.86513831445988</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1931,7 +5814,7 @@
         <v>88.68483523128404</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2018,7 +5901,7 @@
         <v>131.04579352272242</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2111,6 +5994,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2122,28 +6006,28 @@
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="25" max="25" width="22.42578125" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" customWidth="1"/>
-    <col min="32" max="33" width="10.85546875" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="25" max="25" width="22.44140625" customWidth="1"/>
+    <col min="29" max="29" width="10.88671875" customWidth="1"/>
+    <col min="30" max="30" width="11.5546875" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" customWidth="1"/>
+    <col min="32" max="33" width="10.88671875" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +6134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>536</v>
       </c>
@@ -2340,7 +6224,7 @@
         <v>-6.279999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>612</v>
       </c>
@@ -2430,7 +6314,7 @@
         <v>-7.0300000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>692</v>
       </c>
@@ -2520,7 +6404,7 @@
         <v>-8.7299999999999969</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>768</v>
       </c>
@@ -2610,7 +6494,7 @@
         <v>-6.5499999999999972</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>527</v>
       </c>
@@ -2700,7 +6584,7 @@
         <v>-3.990000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>610</v>
       </c>
@@ -2790,7 +6674,7 @@
         <v>-6.32</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>695</v>
       </c>
@@ -2880,7 +6764,7 @@
         <v>-6.3700000000000045</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>778</v>
       </c>
@@ -2983,26 +6867,26 @@
       <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" customWidth="1"/>
-    <col min="29" max="30" width="12.140625" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.44140625" customWidth="1"/>
+    <col min="29" max="30" width="12.109375" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" customWidth="1"/>
     <col min="34" max="34" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -3109,7 +6993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>536</v>
       </c>
@@ -3199,7 +7083,7 @@
         <v>-6.4099999999999966</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>612</v>
       </c>
@@ -3289,7 +7173,7 @@
         <v>-4.3400000000000034</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>692</v>
       </c>
@@ -3379,7 +7263,7 @@
         <v>-5.6000000000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>768</v>
       </c>
@@ -3469,7 +7353,7 @@
         <v>-6.0499999999999972</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>527</v>
       </c>
@@ -3559,7 +7443,7 @@
         <v>-3.019999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>610</v>
       </c>
@@ -3649,7 +7533,7 @@
         <v>-5.1000000000000014</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>695</v>
       </c>
@@ -3739,7 +7623,7 @@
         <v>-5.5899999999999963</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>778</v>
       </c>
@@ -3842,28 +7726,28 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="25" max="25" width="21.85546875" customWidth="1"/>
+    <col min="25" max="25" width="21.88671875" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="30" max="31" width="11.7109375" customWidth="1"/>
+    <col min="30" max="31" width="11.6640625" customWidth="1"/>
     <col min="32" max="32" width="11" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -3970,7 +7854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>536</v>
       </c>
@@ -4060,7 +7944,7 @@
         <v>3.9999999999999147E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>612</v>
       </c>
@@ -4150,7 +8034,7 @@
         <v>-3.759999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>692</v>
       </c>
@@ -4240,7 +8124,7 @@
         <v>-3.8599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>768</v>
       </c>
@@ -4330,7 +8214,7 @@
         <v>-2.6400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>527</v>
       </c>
@@ -4420,7 +8304,7 @@
         <v>1.6199999999999974</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>610</v>
       </c>
@@ -4510,7 +8394,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>695</v>
       </c>
@@ -4600,7 +8484,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>778</v>
       </c>
@@ -4703,28 +8587,28 @@
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" customWidth="1"/>
+    <col min="25" max="25" width="23.5546875" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" customWidth="1"/>
+    <col min="32" max="32" width="13.5546875" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -4831,7 +8715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>535</v>
       </c>
@@ -4922,7 +8806,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>612</v>
       </c>
@@ -5013,7 +8897,7 @@
         <v>-1.0200000000000031</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>692</v>
       </c>
@@ -5104,7 +8988,7 @@
         <v>-5.3399999999999963</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>768</v>
       </c>
@@ -5195,7 +9079,7 @@
         <v>-3.7100000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>527</v>
       </c>
@@ -5286,7 +9170,7 @@
         <v>-1.0000000000005116E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>610</v>
       </c>
@@ -5377,7 +9261,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>695</v>
       </c>
@@ -5468,7 +9352,7 @@
         <v>-0.99000000000000199</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>778</v>
       </c>
@@ -5573,28 +9457,28 @@
       <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
-    <col min="25" max="25" width="23.140625" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="23.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" customWidth="1"/>
+    <col min="30" max="30" width="12.88671875" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" customWidth="1"/>
     <col min="32" max="32" width="12" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="12.44140625" customWidth="1"/>
+    <col min="34" max="34" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -5701,7 +9585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>535</v>
       </c>
@@ -5792,7 +9676,7 @@
         <v>-0.54999999999999716</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>612</v>
       </c>
@@ -5883,7 +9767,7 @@
         <v>0.38000000000000256</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>692</v>
       </c>
@@ -5974,7 +9858,7 @@
         <v>-1.0399999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>768</v>
       </c>
@@ -6065,7 +9949,7 @@
         <v>-2.0700000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>527</v>
       </c>
@@ -6156,7 +10040,7 @@
         <v>6.0000000000002274E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>610</v>
       </c>
@@ -6247,7 +10131,7 @@
         <v>1.2600000000000051</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>695</v>
       </c>
@@ -6338,7 +10222,7 @@
         <v>1.0500000000000043</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>778</v>
       </c>
@@ -6442,29 +10326,29 @@
       <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.88671875" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="25" max="25" width="22.5546875" customWidth="1"/>
+    <col min="29" max="29" width="12.5546875" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.88671875" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" customWidth="1"/>
+    <col min="33" max="33" width="13.109375" customWidth="1"/>
+    <col min="34" max="34" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -6571,7 +10455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>535</v>
       </c>
@@ -6662,7 +10546,7 @@
         <v>0.35999999999999943</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>612</v>
       </c>
@@ -6753,7 +10637,7 @@
         <v>-0.87000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>692</v>
       </c>
@@ -6844,7 +10728,7 @@
         <v>-2.3400000000000034</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>768</v>
       </c>
@@ -6935,7 +10819,7 @@
         <v>-2.5499999999999972</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>527</v>
       </c>
@@ -7026,7 +10910,7 @@
         <v>0.44000000000000483</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>610</v>
       </c>
@@ -7117,7 +11001,7 @@
         <v>-0.61999999999999744</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>695</v>
       </c>
@@ -7208,7 +11092,7 @@
         <v>-0.21999999999999886</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>778</v>
       </c>
@@ -7312,28 +11196,28 @@
       <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="24.85546875" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="24.88671875" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" customWidth="1"/>
+    <col min="32" max="32" width="13.5546875" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -7440,7 +11324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>535</v>
       </c>
@@ -7531,7 +11415,7 @@
         <v>-0.10999999999999943</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>612</v>
       </c>
@@ -7622,7 +11506,7 @@
         <v>-0.31000000000000227</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>692</v>
       </c>
@@ -7713,7 +11597,7 @@
         <v>-1.2700000000000031</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>768</v>
       </c>
@@ -7804,7 +11688,7 @@
         <v>-0.88000000000000256</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>527</v>
       </c>
@@ -7895,7 +11779,7 @@
         <v>1.5200000000000031</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>610</v>
       </c>
@@ -7986,7 +11870,7 @@
         <v>0.90999999999999659</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>695</v>
       </c>
@@ -8077,7 +11961,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>778</v>
       </c>
@@ -8175,22 +12059,22 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T17"/>
+  <dimension ref="A2:X64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -8218,38 +12102,38 @@
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>2</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8272,34 +12156,38 @@
         <v>-94.97</v>
       </c>
       <c r="K3">
+        <v>-9364</v>
+      </c>
+      <c r="L3">
         <v>-81.62</v>
       </c>
-      <c r="L3">
+      <c r="N3" s="35">
         <v>802.13</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="35"/>
+      <c r="Q3">
         <f>J3-F3</f>
         <v>0.82000000000000739</v>
       </c>
-      <c r="O3">
-        <f>K3-G3</f>
+      <c r="R3">
+        <f>L3-G3</f>
         <v>2.5</v>
       </c>
-      <c r="P3" s="21">
-        <f>L3-H3</f>
+      <c r="S3" s="21">
+        <f>N3-H3</f>
         <v>-16.870000000000005</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>119.3</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>562.75</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>68.09</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8321,35 +12209,36 @@
       <c r="J4">
         <v>18.87</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-79.56</v>
       </c>
-      <c r="L4">
+      <c r="N4" s="35">
         <v>823.59</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N17" si="0">J4-F4</f>
+      <c r="O4" s="35"/>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q17" si="0">J4-F4</f>
         <v>-1.2799999999999976</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O17" si="1">K4-G4</f>
+      <c r="R4">
+        <f t="shared" ref="R4:R17" si="1">L4-G4</f>
         <v>2.6200000000000045</v>
       </c>
-      <c r="P4" s="21">
-        <f t="shared" ref="P4:P17" si="2">L4-H4</f>
+      <c r="S4" s="21">
+        <f t="shared" ref="S4:S17" si="2">N4-H4</f>
         <v>-16.409999999999968</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>5.71</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>549.58000000000004</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>49.38</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8371,35 +12260,36 @@
       <c r="J5">
         <v>111.97</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-96.27</v>
       </c>
-      <c r="L5">
+      <c r="N5" s="35">
         <v>834.16</v>
       </c>
-      <c r="N5">
+      <c r="O5" s="35"/>
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>-3.4500000000000028</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
-      <c r="P5" s="21">
+      <c r="S5" s="21">
         <f t="shared" si="2"/>
         <v>-15.840000000000032</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>-86.94</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>527.84</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>50.41</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8421,35 +12311,36 @@
       <c r="J6">
         <v>195.43</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-66.489999999999995</v>
       </c>
-      <c r="L6">
+      <c r="N6" s="35">
         <v>814.13</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="35"/>
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>-4.8199999999999932</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>3.480000000000004</v>
       </c>
-      <c r="P6" s="21">
+      <c r="S6" s="21">
         <f t="shared" si="2"/>
         <v>-10.870000000000005</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>-171.15</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>561.91999999999996</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>49.53</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8471,35 +12362,36 @@
       <c r="J7">
         <v>-135.68</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5.0599999999999996</v>
       </c>
-      <c r="L7">
+      <c r="N7" s="35">
         <v>741.27</v>
       </c>
-      <c r="N7">
+      <c r="O7" s="35"/>
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>0.50999999999999091</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <f t="shared" si="1"/>
         <v>-0.92000000000000082</v>
       </c>
-      <c r="P7" s="21">
+      <c r="S7" s="21">
         <f t="shared" si="2"/>
         <v>-14.730000000000018</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>157.72999999999999</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>669.52</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>67.650000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8521,35 +12413,36 @@
       <c r="J8">
         <v>-44.21</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L8">
+      <c r="N8" s="35">
         <v>789.01</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="35"/>
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>-0.75999999999999801</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="P8" s="21">
+      <c r="S8" s="21">
         <f t="shared" si="2"/>
         <v>-18.990000000000009</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>66.92</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>637.63</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>30.34</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8571,35 +12464,36 @@
       <c r="J9">
         <v>52.28</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>17.21</v>
       </c>
-      <c r="L9">
+      <c r="N9" s="35">
         <v>802.47</v>
       </c>
-      <c r="N9">
+      <c r="O9" s="35"/>
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>-3.1999999999999957</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <f t="shared" si="1"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="P9" s="21">
+      <c r="S9" s="21">
         <f t="shared" si="2"/>
         <v>-16.529999999999973</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>-29.65</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>640.02</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>10.67</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8621,35 +12515,36 @@
       <c r="J10">
         <v>129.19999999999999</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-27.35</v>
       </c>
-      <c r="L10">
+      <c r="N10" s="35">
         <v>785.46</v>
       </c>
-      <c r="N10">
+      <c r="O10" s="35"/>
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>-4.5600000000000023</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <f t="shared" si="1"/>
         <v>2.8699999999999974</v>
       </c>
-      <c r="P10" s="21">
+      <c r="S10" s="21">
         <f t="shared" si="2"/>
         <v>-17.539999999999964</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>-105.98</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>611.84</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>50.31</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8671,35 +12566,36 @@
       <c r="J11">
         <v>-25.26</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>76.2</v>
       </c>
-      <c r="L11">
+      <c r="N11" s="35">
         <v>737.73</v>
       </c>
-      <c r="N11">
+      <c r="O11" s="35"/>
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>-1.9100000000000001</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <f t="shared" si="1"/>
         <v>-1.8299999999999983</v>
       </c>
-      <c r="P11" s="21">
+      <c r="S11" s="21">
         <f t="shared" si="2"/>
         <v>-13.269999999999982</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>46.05</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>727.23</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>29.41</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8721,35 +12617,36 @@
       <c r="J12">
         <v>77.599999999999994</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>63.72</v>
       </c>
-      <c r="L12">
+      <c r="N12" s="35">
         <v>722.6</v>
       </c>
-      <c r="N12">
+      <c r="O12" s="35"/>
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>-4.4500000000000028</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <f t="shared" si="1"/>
         <v>0.42000000000000171</v>
       </c>
-      <c r="P12" s="21">
+      <c r="S12" s="21">
         <f t="shared" si="2"/>
         <v>-13.399999999999977</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>-56.77</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>723.58</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>48.96</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8771,35 +12668,36 @@
       <c r="J13">
         <v>189.08</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>34.770000000000003</v>
       </c>
-      <c r="L13">
+      <c r="N13" s="35">
         <v>718.47</v>
       </c>
-      <c r="N13">
+      <c r="O13" s="35"/>
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>-8.3699999999999761</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="P13" s="21">
+      <c r="S13" s="21">
         <f t="shared" si="2"/>
         <v>-16.529999999999973</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>-167.77</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>699.95</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>69.06</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8821,35 +12719,36 @@
       <c r="J14">
         <v>-189.64</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>72.959999999999994</v>
       </c>
-      <c r="L14">
+      <c r="N14" s="35">
         <v>716.83</v>
       </c>
-      <c r="N14">
+      <c r="O14" s="35"/>
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>2.3100000000000023</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <f t="shared" si="1"/>
         <v>-3.4100000000000108</v>
       </c>
-      <c r="P14" s="21">
+      <c r="S14" s="21">
         <f t="shared" si="2"/>
         <v>-18.169999999999959</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>210.18</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>740.19</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>48.35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8871,35 +12770,36 @@
       <c r="J15">
         <v>-97.73</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>93.53</v>
       </c>
-      <c r="L15">
+      <c r="N15" s="35">
         <v>702.56</v>
       </c>
-      <c r="N15">
+      <c r="O15" s="35"/>
+      <c r="Q15">
         <f t="shared" si="0"/>
         <v>-0.82000000000000739</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>-3.4000000000000057</v>
       </c>
-      <c r="P15" s="21">
+      <c r="S15" s="21">
         <f t="shared" si="2"/>
         <v>-16.440000000000055</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>117.76</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>763.25</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>48.1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8921,35 +12821,36 @@
       <c r="J16">
         <v>-14.28</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>107.8</v>
       </c>
-      <c r="L16">
+      <c r="N16" s="35">
         <v>691.91</v>
       </c>
-      <c r="N16">
+      <c r="O16" s="35"/>
+      <c r="Q16">
         <f t="shared" si="0"/>
         <v>-2.6099999999999994</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <f t="shared" si="1"/>
         <v>-3.6200000000000045</v>
       </c>
-      <c r="P16" s="21">
+      <c r="S16" s="21">
         <f t="shared" si="2"/>
         <v>-15.090000000000032</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>33.94</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>779.25</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>48.53</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8971,36 +12872,681 @@
       <c r="J17">
         <v>101.58</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>79.819999999999993</v>
       </c>
-      <c r="L17">
+      <c r="N17" s="35">
         <v>663.44</v>
       </c>
-      <c r="N17">
+      <c r="O17" s="35">
+        <v>664.75</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>-4.7600000000000051</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <f t="shared" si="1"/>
         <v>-1.6600000000000108</v>
       </c>
-      <c r="P17" s="21">
+      <c r="S17" s="21">
         <f t="shared" si="2"/>
         <v>-14.559999999999945</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>-81.760000000000005</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>770.39</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>87.93</v>
       </c>
     </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" t="s">
+        <v>55</v>
+      </c>
+      <c r="X20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f>C3*0.00162024-1.03078193</f>
+        <v>-0.1169665700000001</v>
+      </c>
+      <c r="Q21">
+        <f>Q3/S3</f>
+        <v>-4.8606994665086375E-2</v>
+      </c>
+      <c r="S21">
+        <f>J3/N3</f>
+        <v>-0.11839726727587797</v>
+      </c>
+      <c r="T21">
+        <f>F3/H3</f>
+        <v>-0.11695970695970696</v>
+      </c>
+      <c r="X21">
+        <f>F3/N3</f>
+        <v>-0.11941954546021219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f>C4*0.00162024-1.03078193</f>
+        <v>2.3994309999999963E-2</v>
+      </c>
+      <c r="Q22">
+        <f>Q4/S4</f>
+        <v>7.8001218769043271E-2</v>
+      </c>
+      <c r="S22">
+        <f>J4/N4</f>
+        <v>2.291188576840418E-2</v>
+      </c>
+      <c r="T22">
+        <f>F4/H4</f>
+        <v>2.3988095238095235E-2</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:X35" si="3">F4/N4</f>
+        <v>2.4466057140081834E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f>C5*0.00162024-1.03078193</f>
+        <v>0.1357908699999999</v>
+      </c>
+      <c r="Q23">
+        <f>Q5/S5</f>
+        <v>0.21780303030303005</v>
+      </c>
+      <c r="S23">
+        <f>J5/N5</f>
+        <v>0.1342308430037403</v>
+      </c>
+      <c r="T23">
+        <f>F5/H5</f>
+        <v>0.13578823529411765</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>0.13836674019372783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f>C6*0.00162024-1.03078193</f>
+        <v>0.2427267099999999</v>
+      </c>
+      <c r="Q24">
+        <f>Q6/S6</f>
+        <v>0.4434222631094748</v>
+      </c>
+      <c r="S24">
+        <f>J6/N6</f>
+        <v>0.24004765823639959</v>
+      </c>
+      <c r="T24">
+        <f>F6/H6</f>
+        <v>0.24272727272727274</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>0.24596808863449326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>3.7800000000000011</v>
+      </c>
+      <c r="I25" s="29">
+        <v>0.60999999999999943</v>
+      </c>
+      <c r="J25" s="28">
+        <v>-16.870000000000005</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="P25">
+        <f>C7*0.00162024-1.03078193</f>
+        <v>-0.18015593000000008</v>
+      </c>
+      <c r="Q25">
+        <f>Q7/S7</f>
+        <v>-3.4623217922606267E-2</v>
+      </c>
+      <c r="S25">
+        <f>J7/N7</f>
+        <v>-0.18303721990637692</v>
+      </c>
+      <c r="T25">
+        <f>F7/H7</f>
+        <v>-0.18014550264550264</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>-0.18372522832436225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>1.6599999999999966</v>
+      </c>
+      <c r="I26" s="29">
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="J26" s="28">
+        <v>-14.539999999999964</v>
+      </c>
+      <c r="K26" s="28"/>
+      <c r="P26">
+        <f>C8*0.00162024-1.03078193</f>
+        <v>-5.377721000000002E-2</v>
+      </c>
+      <c r="Q26">
+        <f>Q8/S8</f>
+        <v>4.002106371774606E-2</v>
+      </c>
+      <c r="S26">
+        <f>J8/N8</f>
+        <v>-5.6032242937351873E-2</v>
+      </c>
+      <c r="T26">
+        <f>F8/H8</f>
+        <v>-5.3774752475247531E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>-5.5069010532185908E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="I27" s="29">
+        <v>2.4399999999999977</v>
+      </c>
+      <c r="J27" s="28">
+        <v>-19.399999999999977</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="P27">
+        <f>C9*0.00162024-1.03078193</f>
+        <v>6.7740789999999995E-2</v>
+      </c>
+      <c r="Q27">
+        <f>Q9/S9</f>
+        <v>0.19358741681790689</v>
+      </c>
+      <c r="S27">
+        <f>J9/N9</f>
+        <v>6.514885291661994E-2</v>
+      </c>
+      <c r="T27">
+        <f>F9/H9</f>
+        <v>6.7741147741147742E-2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="3"/>
+        <v>6.913654092987899E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>-3.1099999999999994</v>
+      </c>
+      <c r="I28" s="29">
+        <v>4.1799999999999926</v>
+      </c>
+      <c r="J28" s="28">
+        <v>-20.029999999999973</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="P28">
+        <f>C10*0.00162024-1.03078193</f>
+        <v>0.16657542999999997</v>
+      </c>
+      <c r="Q28">
+        <f>Q10/S10</f>
+        <v>0.2599771949828969</v>
+      </c>
+      <c r="S28">
+        <f>J10/N10</f>
+        <v>0.16448959845186259</v>
+      </c>
+      <c r="T28">
+        <f>F10/H10</f>
+        <v>0.16657534246575342</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>0.17029511369134009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>-6.0600000000000023</v>
+      </c>
+      <c r="I29" s="29">
+        <v>5.519999999999996</v>
+      </c>
+      <c r="J29" s="28">
+        <v>-15.639999999999986</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="P29">
+        <f>C11*0.00162024-1.03078193</f>
+        <v>-3.1093850000000089E-2</v>
+      </c>
+      <c r="Q29">
+        <f>Q11/S11</f>
+        <v>0.1439336850037681</v>
+      </c>
+      <c r="S29">
+        <f>J11/N11</f>
+        <v>-3.4240169167581637E-2</v>
+      </c>
+      <c r="T29">
+        <f>F11/H11</f>
+        <v>-3.1091877496671107E-2</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="3"/>
+        <v>-3.1651146083255394E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>2.4699999999999989</v>
+      </c>
+      <c r="I30" s="32">
+        <v>-1.3500000000000005</v>
+      </c>
+      <c r="J30" s="28">
+        <v>-14.080000000000041</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="P30">
+        <f>C12*0.00162024-1.03078193</f>
+        <v>0.11148727000000003</v>
+      </c>
+      <c r="Q30">
+        <f>Q12/S12</f>
+        <v>0.33208955223880676</v>
+      </c>
+      <c r="S30">
+        <f>J12/N12</f>
+        <v>0.10738998062551895</v>
+      </c>
+      <c r="T30">
+        <f>F12/H12</f>
+        <v>0.11148097826086956</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="3"/>
+        <v>0.11354829781345142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="I31" s="32">
+        <v>-0.5</v>
+      </c>
+      <c r="J31" s="28">
+        <v>-16.970000000000027</v>
+      </c>
+      <c r="K31" s="28"/>
+      <c r="P31">
+        <f>C13*0.00162024-1.03078193</f>
+        <v>0.26865055000000004</v>
+      </c>
+      <c r="Q31">
+        <f>Q13/S13</f>
+        <v>0.50635208711433699</v>
+      </c>
+      <c r="S31">
+        <f>J13/N13</f>
+        <v>0.26317034810082535</v>
+      </c>
+      <c r="T31">
+        <f>F13/H13</f>
+        <v>0.26863945578231291</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="3"/>
+        <v>0.27482010383175354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>-0.58000000000000185</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="J32" s="28">
+        <v>-17.659999999999968</v>
+      </c>
+      <c r="K32" s="28"/>
+      <c r="P32">
+        <f>C14*0.00162024-1.03078193</f>
+        <v>-0.26116793000000005</v>
+      </c>
+      <c r="Q32">
+        <f>Q14/S14</f>
+        <v>-0.12713263621353921</v>
+      </c>
+      <c r="S32">
+        <f>J14/N14</f>
+        <v>-0.26455365986356594</v>
+      </c>
+      <c r="T32">
+        <f>F14/H14</f>
+        <v>-0.261156462585034</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="3"/>
+        <v>-0.26777618124241448</v>
+      </c>
+    </row>
+    <row r="33" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>-3.0100000000000051</v>
+      </c>
+      <c r="I33" s="32">
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="J33" s="28">
+        <v>-14.975000000000023</v>
+      </c>
+      <c r="K33" s="28"/>
+      <c r="P33">
+        <f>C15*0.00162024-1.03078193</f>
+        <v>-0.1347892100000001</v>
+      </c>
+      <c r="Q33">
+        <f>Q15/S15</f>
+        <v>4.9878345498783741E-2</v>
+      </c>
+      <c r="S33">
+        <f>J15/N15</f>
+        <v>-0.13910555682076978</v>
+      </c>
+      <c r="T33">
+        <f>F15/H15</f>
+        <v>-0.13478442280945757</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="3"/>
+        <v>-0.13793839672056479</v>
+      </c>
+    </row>
+    <row r="34" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>-8.7700000000000102</v>
+      </c>
+      <c r="I34" s="32">
+        <v>1.3499999999999996</v>
+      </c>
+      <c r="J34" s="28">
+        <v>-18.25</v>
+      </c>
+      <c r="K34" s="28"/>
+      <c r="P34">
+        <f>C16*0.00162024-1.03078193</f>
+        <v>-1.6511689999999968E-2</v>
+      </c>
+      <c r="Q34">
+        <f>Q16/S16</f>
+        <v>0.17296222664015865</v>
+      </c>
+      <c r="S34">
+        <f>J16/N16</f>
+        <v>-2.063852235117284E-2</v>
+      </c>
+      <c r="T34">
+        <f>F16/H16</f>
+        <v>-1.6506364922206505E-2</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="3"/>
+        <v>-1.6866355450853434E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>2.1799999999999784</v>
+      </c>
+      <c r="I35" s="20">
+        <v>-1.3599999999999994</v>
+      </c>
+      <c r="J35" s="28">
+        <v>-20.220000000000027</v>
+      </c>
+      <c r="K35" s="28"/>
+      <c r="P35">
+        <f>C17*0.00162024-1.03078193</f>
+        <v>0.15685398999999989</v>
+      </c>
+      <c r="Q35">
+        <f>Q17/S17</f>
+        <v>0.32692307692307848</v>
+      </c>
+      <c r="S35">
+        <f>J17/N17</f>
+        <v>0.15311105751838899</v>
+      </c>
+      <c r="T35">
+        <f>F17/H17</f>
+        <v>0.15684365781710916</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="3"/>
+        <v>0.16028578319064271</v>
+      </c>
+    </row>
+    <row r="36" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>2.4599999999999937</v>
+      </c>
+      <c r="I36" s="20">
+        <v>-3.3100000000000023</v>
+      </c>
+      <c r="J36" s="28">
+        <v>-16.769999999999982</v>
+      </c>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>-1.4300000000000015</v>
+      </c>
+      <c r="I37" s="20">
+        <v>-3.1000000000000085</v>
+      </c>
+      <c r="J37" s="28">
+        <v>-16.710000000000036</v>
+      </c>
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>-2.1699999999999875</v>
+      </c>
+      <c r="I38" s="20">
+        <v>-8.5000000000007958E-2</v>
+      </c>
+      <c r="J38" s="28">
+        <v>-16.590000000000032</v>
+      </c>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>-7.9899999999999807</v>
+      </c>
+      <c r="I39" s="20">
+        <v>-0.53000000000000114</v>
+      </c>
+      <c r="J39" s="28">
+        <v>-15.894999999999982</v>
+      </c>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>-0.26116793000000005</v>
+      </c>
+      <c r="L50">
+        <v>-0.12713263621353921</v>
+      </c>
+    </row>
+    <row r="51" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>-0.18015593000000008</v>
+      </c>
+      <c r="L51">
+        <v>-3.4623217922606267E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>-0.1347892100000001</v>
+      </c>
+      <c r="L52">
+        <v>4.9878345498783741E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>-0.1169665700000001</v>
+      </c>
+      <c r="L53">
+        <v>-4.8606994665086375E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>-5.377721000000002E-2</v>
+      </c>
+      <c r="L54">
+        <v>4.002106371774606E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>-3.1093850000000089E-2</v>
+      </c>
+      <c r="L55">
+        <v>0.1439336850037681</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>-1.6511689999999968E-2</v>
+      </c>
+      <c r="L56">
+        <v>0.17296222664015865</v>
+      </c>
+    </row>
+    <row r="57" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>2.3994309999999963E-2</v>
+      </c>
+      <c r="L57">
+        <v>7.8001218769043271E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <v>6.7740789999999995E-2</v>
+      </c>
+      <c r="L58">
+        <v>0.19358741681790689</v>
+      </c>
+    </row>
+    <row r="59" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <v>0.11148727000000003</v>
+      </c>
+      <c r="L59">
+        <v>0.33208955223880676</v>
+      </c>
+    </row>
+    <row r="60" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <v>0.1357908699999999</v>
+      </c>
+      <c r="L60">
+        <v>0.21780303030303005</v>
+      </c>
+    </row>
+    <row r="61" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <v>0.15685398999999989</v>
+      </c>
+      <c r="L61">
+        <v>0.32692307692307848</v>
+      </c>
+    </row>
+    <row r="62" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <v>0.16657542999999997</v>
+      </c>
+      <c r="L62">
+        <v>0.2599771949828969</v>
+      </c>
+    </row>
+    <row r="63" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <v>0.2427267099999999</v>
+      </c>
+      <c r="L63">
+        <v>0.4434222631094748</v>
+      </c>
+    </row>
+    <row r="64" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <v>0.26865055000000004</v>
+      </c>
+      <c r="L64">
+        <v>0.50635208711433699</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="J50:K64">
+    <sortCondition ref="J50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9012,14 +13558,14 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -9042,7 +13588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -9065,7 +13611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -9094,7 +13640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -9117,7 +13663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -9143,7 +13689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -9166,7 +13712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -9205,13 +13751,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -9273,7 +13819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>172</v>
       </c>
@@ -9320,7 +13866,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>180</v>
       </c>
@@ -9367,7 +13913,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>184</v>
       </c>
@@ -9414,7 +13960,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>180</v>
       </c>
@@ -9461,7 +14007,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>165</v>
       </c>
@@ -9508,7 +14054,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>180</v>
       </c>
@@ -9555,7 +14101,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>177</v>
       </c>
@@ -9602,7 +14148,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>187</v>
       </c>
@@ -9649,7 +14195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>181</v>
       </c>
@@ -9696,7 +14242,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>199</v>
       </c>
@@ -9743,7 +14289,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>193</v>
       </c>
@@ -9772,7 +14318,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>183</v>
       </c>
@@ -9801,7 +14347,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>184</v>
       </c>
@@ -9830,7 +14376,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>192</v>
       </c>
@@ -9859,7 +14405,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>201</v>
       </c>
@@ -9888,7 +14434,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>49</v>
       </c>
@@ -9926,7 +14472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>226</v>
       </c>
@@ -9955,7 +14501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>228</v>
       </c>
@@ -9984,7 +14530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>238</v>
       </c>
@@ -10013,7 +14559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>240</v>
       </c>
@@ -10042,7 +14588,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>241</v>
       </c>
@@ -10071,7 +14617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>243</v>
       </c>
@@ -10100,7 +14646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>244</v>
       </c>
@@ -10129,7 +14675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>244</v>
       </c>
@@ -10158,7 +14704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>245</v>
       </c>
@@ -10187,7 +14733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>245</v>
       </c>
@@ -10232,9 +14778,9 @@
       <selection activeCell="Z2" sqref="Z2:Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -10333,7 +14879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10420,7 +14966,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10507,7 +15053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10594,7 +15140,7 @@
         <v>48.507731342539614</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10681,7 +15227,7 @@
         <v>98.412397592986224</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10768,7 +15314,7 @@
         <v>170.32909322837364</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10855,7 +15401,7 @@
         <v>150.65191668213185</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10942,7 +15488,7 @@
         <v>69.634761434214738</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11029,7 +15575,7 @@
         <v>19.209372712298546</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11116,7 +15662,7 @@
         <v>95.351979528481735</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11203,7 +15749,7 @@
         <v>176.72577627499618</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11290,7 +15836,7 @@
         <v>184.71870506258969</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11377,7 +15923,7 @@
         <v>114.97825881443848</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11464,7 +16010,7 @@
         <v>88.814413244698073</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11551,7 +16097,7 @@
         <v>133.2066064427737</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11652,9 +16198,9 @@
       <selection activeCell="C7" sqref="C7:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -11753,7 +16299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11840,7 +16386,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11927,7 +16473,7 @@
         <v>78.600254452514335</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12014,7 +16560,7 @@
         <v>48.507731342539614</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12101,7 +16647,7 @@
         <v>99.76472322419383</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12188,7 +16734,7 @@
         <v>171.29214809792072</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12275,7 +16821,7 @@
         <v>150.65191668213185</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12362,7 +16908,7 @@
         <v>70.611613775638915</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12449,7 +16995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12536,7 +17082,7 @@
         <v>95.351979528481735</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12623,7 +17169,7 @@
         <v>175.72990639046048</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12710,7 +17256,7 @@
         <v>186.53149868051776</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12797,7 +17343,7 @@
         <v>114.21471008587291</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12884,7 +17430,7 @@
         <v>89.805345052507874</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12971,7 +17517,7 @@
         <v>135.28118864054971</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13072,9 +17618,9 @@
       <selection activeCell="C7" sqref="C7:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -13173,7 +17719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13260,7 +17806,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13347,7 +17893,7 @@
         <v>79.202272694664515</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13434,7 +17980,7 @@
         <v>49.477267507411923</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13521,7 +18067,7 @@
         <v>98.412397592986224</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13608,7 +18154,7 @@
         <v>170.32909322837364</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13695,7 +18241,7 @@
         <v>150.65191668213185</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13782,7 +18328,7 @@
         <v>70.405965656327737</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13869,7 +18415,7 @@
         <v>19.209372712298546</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13956,7 +18502,7 @@
         <v>95.036834964133774</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14043,7 +18589,7 @@
         <v>174.73408368146153</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14130,7 +18676,7 @@
         <v>185.18099254513137</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14217,7 +18763,7 @@
         <v>115.62439189029277</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14304,7 +18850,7 @@
         <v>88.814413244698073</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14391,7 +18937,7 @@
         <v>133.12400234367956</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14492,12 +19038,12 @@
       <selection activeCell="Z2" sqref="Z2:Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -14596,7 +19142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14683,7 +19229,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14770,7 +19316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14857,7 +19403,7 @@
         <v>48.270073544588683</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14944,7 +19490,7 @@
         <v>98.412397592986224</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15031,7 +19577,7 @@
         <v>170.60187572239644</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15118,7 +19664,7 @@
         <v>151.64761785138597</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15205,7 +19751,7 @@
         <v>70.405965656327737</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15292,7 +19838,7 @@
         <v>19.209372712298546</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15379,7 +19925,7 @@
         <v>94.201910808645493</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15466,7 +20012,7 @@
         <v>175.72990639046048</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15553,7 +20099,7 @@
         <v>186.53149868051776</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15640,7 +20186,7 @@
         <v>114.21471008587291</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15727,7 +20273,7 @@
         <v>88.68483523128404</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15814,7 +20360,7 @@
         <v>133.86933928274988</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15915,9 +20461,9 @@
       <selection activeCell="Z2" sqref="Z2:Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -16016,7 +20562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16103,7 +20649,7 @@
         <v>147.05441169852742</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16190,7 +20736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16277,7 +20823,7 @@
         <v>48.270073544588683</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16364,7 +20910,7 @@
         <v>99.297532698451278</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16451,7 +20997,7 @@
         <v>171.29214809792072</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16538,7 +21084,7 @@
         <v>151.55856953666461</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16625,7 +21171,7 @@
         <v>70.611613775638915</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16712,7 +21258,7 @@
         <v>19.209372712298546</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16799,7 +21345,7 @@
         <v>94.201910808645493</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16886,7 +21432,7 @@
         <v>175.64168070250295</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16973,7 +21519,7 @@
         <v>186.53149868051776</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17060,7 +21606,7 @@
         <v>114.21471008587291</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17147,7 +21693,7 @@
         <v>88.68483523128404</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17234,7 +21780,7 @@
         <v>133.86933928274988</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17335,12 +21881,12 @@
       <selection activeCell="Z2" sqref="Z2:Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -17439,7 +21985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17526,7 +22072,7 @@
         <v>147.05441169852742</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17613,7 +22159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17700,7 +22246,7 @@
         <v>48.270073544588683</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17787,7 +22333,7 @@
         <v>98.883770154661889</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17874,7 +22420,7 @@
         <v>170.60187572239644</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17961,7 +22507,7 @@
         <v>150.65191668213185</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18048,7 +22594,7 @@
         <v>69.426219830839131</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18135,7 +22681,7 @@
         <v>18.439088914585774</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18222,7 +22768,7 @@
         <v>94.201910808645493</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18309,7 +22855,7 @@
         <v>174.73408368146153</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18396,7 +22942,7 @@
         <v>184.29595763336752</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18483,7 +23029,7 @@
         <v>113.56936206565572</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18570,7 +23116,7 @@
         <v>87.823687009826685</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18657,7 +23203,7 @@
         <v>133.86933928274988</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -18758,9 +23304,9 @@
       <selection activeCell="Z2" sqref="Z2:Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -18859,7 +23405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18946,7 +23492,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19033,7 +23579,7 @@
         <v>79.202272694664515</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19120,7 +23666,7 @@
         <v>48.270073544588683</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19207,7 +23753,7 @@
         <v>98.883770154661889</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19294,7 +23840,7 @@
         <v>171.56339936011994</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19381,7 +23927,7 @@
         <v>151.64761785138597</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19468,7 +24014,7 @@
         <v>70.405965656327737</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19555,7 +24101,7 @@
         <v>18.439088914585774</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19642,7 +24188,7 @@
         <v>94.201910808645493</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19729,7 +24275,7 @@
         <v>176.63804799646084</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19816,7 +24362,7 @@
         <v>186.06719216455113</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19903,7 +24449,7 @@
         <v>114.21471008587291</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19990,7 +24536,7 @@
         <v>87.692645073575008</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20077,7 +24623,7 @@
         <v>133.86933928274988</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -20178,30 +24724,30 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" customWidth="1"/>
+    <col min="25" max="25" width="21.6640625" customWidth="1"/>
+    <col min="29" max="29" width="14.88671875" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" customWidth="1"/>
+    <col min="31" max="31" width="10.5546875" customWidth="1"/>
+    <col min="32" max="32" width="12.109375" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -20308,7 +24854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="C3">
         <v>536</v>
@@ -20399,7 +24945,7 @@
         <v>0.53000000000000114</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="C4">
         <v>612</v>
@@ -20490,7 +25036,7 @@
         <v>-4.1199999999999974</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="C5">
         <v>692</v>
@@ -20581,7 +25127,7 @@
         <v>-5.0399999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="C6">
         <v>768</v>
@@ -20672,7 +25218,7 @@
         <v>-3.9500000000000028</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7">
         <v>527</v>
@@ -20763,7 +25309,7 @@
         <v>2.1499999999999986</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="C8">
         <v>610</v>
@@ -20854,7 +25400,7 @@
         <v>-0.86999999999999744</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="C9">
         <v>695</v>
@@ -20945,7 +25491,7 @@
         <v>-2.8500000000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="C10">
         <v>778</v>
@@ -21036,10 +25582,10 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -21143,7 +25689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="C13">
         <v>525</v>
@@ -21231,7 +25777,7 @@
         <v>1.230000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="C14">
         <v>600</v>
@@ -21319,7 +25865,7 @@
         <v>-3.259999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="C15">
         <v>680</v>
@@ -21407,7 +25953,7 @@
         <v>-3.6300000000000026</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="C16">
         <v>755</v>
@@ -21495,7 +26041,7 @@
         <v>-3.2299999999999969</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="C17">
         <v>515</v>
@@ -21583,7 +26129,7 @@
         <v>-0.14000000000000057</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="C18">
         <v>596</v>
@@ -21671,7 +26217,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="C19">
         <v>681</v>
@@ -21759,7 +26305,7 @@
         <v>-1.3000000000000043</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="C20">
         <v>761</v>
@@ -21847,10 +26393,10 @@
         <v>-0.86999999999999744</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
@@ -21954,7 +26500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="C23">
         <v>550</v>
@@ -22042,7 +26588,7 @@
         <v>-0.35000000000000142</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="C24">
         <v>625</v>
@@ -22130,7 +26676,7 @@
         <v>-2.3900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="C25">
         <v>705</v>
@@ -22218,7 +26764,7 @@
         <v>-4.0600000000000023</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="C26">
         <v>781</v>
@@ -22306,7 +26852,7 @@
         <v>-2.509999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="C27">
         <v>542</v>
@@ -22394,7 +26940,7 @@
         <v>1.6700000000000017</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="C28">
         <v>624</v>
@@ -22482,7 +27028,7 @@
         <v>-1.5399999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="C29">
         <v>710</v>
@@ -22570,7 +27116,7 @@
         <v>-2.75</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="C30">
         <v>791</v>
@@ -22658,10 +27204,10 @@
         <v>-1.9400000000000048</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
@@ -22765,7 +27311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="C33">
         <v>522</v>
@@ -22853,7 +27399,7 @@
         <v>0.67000000000000171</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="C34">
         <v>598</v>
@@ -22941,7 +27487,7 @@
         <v>-2.9599999999999937</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="C35">
         <v>680</v>
@@ -23029,7 +27575,7 @@
         <v>-4.7999999999999972</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="C36">
         <v>756</v>
@@ -23117,7 +27663,7 @@
         <v>-1.4299999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="C37">
         <v>511</v>
@@ -23205,7 +27751,7 @@
         <v>2.2899999999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="C38">
         <v>594</v>
@@ -23293,7 +27839,7 @@
         <v>-0.26000000000000512</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="C39">
         <v>681</v>
@@ -23381,7 +27927,7 @@
         <v>-2.1799999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="C40">
         <v>766</v>
@@ -23469,10 +28015,10 @@
         <v>-0.92999999999999972</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>28</v>
       </c>
@@ -23576,7 +28122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="C43">
         <v>547</v>
@@ -23664,7 +28210,7 @@
         <v>1.0300000000000011</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="C44">
         <v>624</v>
@@ -23752,7 +28298,7 @@
         <v>-0.81000000000000227</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="C45">
         <v>707</v>
@@ -23840,7 +28386,7 @@
         <v>-4.8500000000000014</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="C46">
         <v>783</v>
@@ -23928,7 +28474,7 @@
         <v>-3.0700000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="C47">
         <v>540</v>
@@ -24016,7 +28562,7 @@
         <v>1.8599999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="C48">
         <v>623</v>
@@ -24104,7 +28650,7 @@
         <v>0.14999999999999858</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="C49">
         <v>710</v>
@@ -24192,7 +28738,7 @@
         <v>-1.4499999999999957</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="C50">
         <v>794</v>
@@ -24280,10 +28826,10 @@
         <v>-2.5799999999999983</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>29</v>
       </c>
@@ -24387,7 +28933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="C53">
         <v>530</v>
@@ -24475,7 +29021,7 @@
         <v>2.1199999999999903</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="C54">
         <v>609</v>
@@ -24563,7 +29109,7 @@
         <v>-2.9599999999999937</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="C55">
         <v>694</v>
@@ -24651,7 +29197,7 @@
         <v>-1.7999999999999972</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="C56">
         <v>774</v>
@@ -24739,7 +29285,7 @@
         <v>-4.3100000000000023</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="C57">
         <v>522</v>
@@ -24827,7 +29373,7 @@
         <v>1.2599999999999909</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="C58">
         <v>607</v>
@@ -24915,7 +29461,7 @@
         <v>-1.5600000000000023</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="C59">
         <v>698</v>
@@ -25003,7 +29549,7 @@
         <v>-1.0700000000000074</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="C60">
         <v>784</v>
@@ -25091,13 +29637,13 @@
         <v>0.96000000000000796</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="AF61" s="22"/>
       <c r="AH61" s="22"/>
       <c r="AJ61" s="22"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>29</v>
       </c>
@@ -25201,7 +29747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="C63">
         <v>540</v>
@@ -25289,7 +29835,7 @@
         <v>-1.2850000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="C64">
         <v>614</v>
@@ -25377,7 +29923,7 @@
         <v>-2.3600000000000012</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="C65">
         <v>690</v>
@@ -25465,7 +30011,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="C66">
         <v>763</v>
@@ -25553,7 +30099,7 @@
         <v>-6.5399999999999991</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="C67">
         <v>532</v>
@@ -25641,7 +30187,7 @@
         <v>-1.0199999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="C68">
         <v>611</v>
@@ -25729,7 +30275,7 @@
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="C69">
         <v>693</v>
@@ -25817,7 +30363,7 @@
         <v>-4.7200000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="C70">
         <v>773</v>
